--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F89C52-0A81-B842-A8B3-952C7F6E15B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B51432-A862-BE44-ABBE-4184FFCD97F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17080" yWindow="440" windowWidth="34120" windowHeight="15740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-380" yWindow="4420" windowWidth="33600" windowHeight="9700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="451">
   <si>
     <t>description</t>
   </si>
@@ -1406,6 +1406,15 @@
   </si>
   <si>
     <t>//button[@id='button-ipc']</t>
+  </si>
+  <si>
+    <t>//button[@id='button-about' and text()='About']</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>won't work</t>
   </si>
 </sst>
 </file>
@@ -3573,7 +3582,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3808,7 +3817,9 @@
     </row>
     <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>450</v>
+      </c>
       <c r="C9" s="13" t="s">
         <v>53</v>
       </c>
@@ -3839,7 +3850,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3854,7 +3865,9 @@
     </row>
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>450</v>
+      </c>
       <c r="C11" s="13" t="s">
         <v>53</v>
       </c>
@@ -4265,7 +4278,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>448</v>
+      </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="465">
   <si>
     <t>description</t>
   </si>
@@ -1442,6 +1442,21 @@
   </si>
   <si>
     <t>round(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1464,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="131" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1902,8 +1917,384 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2534,8 +2925,620 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -3701,6 +4704,1134 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3708,7 +5839,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="157">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3972,49 +6103,229 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="73" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="74" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="76" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4339,7 +6650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA108"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5375,7 +7686,7 @@
         <v>302</v>
       </c>
       <c r="U37" t="s">
-        <v>387</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38">
@@ -5383,7 +7694,7 @@
         <v>261</v>
       </c>
       <c r="U38" t="s">
-        <v>115</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39">
@@ -5391,7 +7702,7 @@
         <v>77</v>
       </c>
       <c r="U39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
@@ -5399,7 +7710,7 @@
         <v>206</v>
       </c>
       <c r="U40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41">
@@ -5407,7 +7718,7 @@
         <v>283</v>
       </c>
       <c r="U41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
@@ -5415,7 +7726,7 @@
         <v>294</v>
       </c>
       <c r="U42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43">
@@ -5423,7 +7734,7 @@
         <v>295</v>
       </c>
       <c r="U43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44">
@@ -5431,7 +7742,7 @@
         <v>337</v>
       </c>
       <c r="U44" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -5439,7 +7750,7 @@
         <v>336</v>
       </c>
       <c r="U45" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46">
@@ -5447,7 +7758,7 @@
         <v>205</v>
       </c>
       <c r="U46" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
@@ -5455,7 +7766,7 @@
         <v>314</v>
       </c>
       <c r="U47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
@@ -5463,7 +7774,7 @@
         <v>333</v>
       </c>
       <c r="U48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
@@ -5471,7 +7782,7 @@
         <v>362</v>
       </c>
       <c r="U49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -5479,7 +7790,7 @@
         <v>296</v>
       </c>
       <c r="U50" t="s">
-        <v>340</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
@@ -5487,7 +7798,7 @@
         <v>350</v>
       </c>
       <c r="U51" t="s">
-        <v>125</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52">
@@ -5495,7 +7806,7 @@
         <v>325</v>
       </c>
       <c r="U52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53">
@@ -5503,7 +7814,7 @@
         <v>262</v>
       </c>
       <c r="U53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
@@ -5511,7 +7822,7 @@
         <v>286</v>
       </c>
       <c r="U54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
@@ -5519,7 +7830,7 @@
         <v>287</v>
       </c>
       <c r="U55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
@@ -5527,7 +7838,7 @@
         <v>288</v>
       </c>
       <c r="U56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
@@ -5535,7 +7846,7 @@
         <v>297</v>
       </c>
       <c r="U57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58">
@@ -5543,7 +7854,7 @@
         <v>306</v>
       </c>
       <c r="U58" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59">
@@ -5551,7 +7862,7 @@
         <v>331</v>
       </c>
       <c r="U59" t="s">
-        <v>383</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60">
@@ -5559,7 +7870,7 @@
         <v>303</v>
       </c>
       <c r="U60" t="s">
-        <v>132</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61">
@@ -5567,7 +7878,7 @@
         <v>304</v>
       </c>
       <c r="U61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
@@ -5575,7 +7886,7 @@
         <v>363</v>
       </c>
       <c r="U62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63">
@@ -5583,7 +7894,7 @@
         <v>364</v>
       </c>
       <c r="U63" t="s">
-        <v>135</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64">
@@ -5591,7 +7902,7 @@
         <v>339</v>
       </c>
       <c r="U64" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65">
@@ -5599,7 +7910,7 @@
         <v>307</v>
       </c>
       <c r="U65" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
@@ -5607,7 +7918,7 @@
         <v>263</v>
       </c>
       <c r="U66" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67">
@@ -5615,7 +7926,7 @@
         <v>347</v>
       </c>
       <c r="U67" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68">
@@ -5623,7 +7934,7 @@
         <v>308</v>
       </c>
       <c r="U68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69">
@@ -5631,7 +7942,7 @@
         <v>404</v>
       </c>
       <c r="U69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70">
@@ -5639,7 +7950,7 @@
         <v>298</v>
       </c>
       <c r="U70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71">
@@ -5647,7 +7958,7 @@
         <v>405</v>
       </c>
       <c r="U71" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72">
@@ -5655,7 +7966,7 @@
         <v>256</v>
       </c>
       <c r="U72" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73">
@@ -5663,7 +7974,7 @@
         <v>338</v>
       </c>
       <c r="U73" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74">
@@ -5671,7 +7982,7 @@
         <v>274</v>
       </c>
       <c r="U74" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75">
@@ -5679,7 +7990,7 @@
         <v>280</v>
       </c>
       <c r="U75" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76">
@@ -5687,7 +7998,7 @@
         <v>285</v>
       </c>
       <c r="U76" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77">
@@ -5695,7 +8006,7 @@
         <v>423</v>
       </c>
       <c r="U77" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78">
@@ -5703,7 +8014,7 @@
         <v>326</v>
       </c>
       <c r="U78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
@@ -5711,7 +8022,7 @@
         <v>264</v>
       </c>
       <c r="U79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80">
@@ -5719,7 +8030,7 @@
         <v>275</v>
       </c>
       <c r="U80" t="s">
-        <v>199</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81">
@@ -5727,7 +8038,7 @@
         <v>281</v>
       </c>
       <c r="U81" t="s">
-        <v>200</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82">
@@ -5735,7 +8046,7 @@
         <v>270</v>
       </c>
       <c r="U82" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83">
@@ -5743,7 +8054,7 @@
         <v>265</v>
       </c>
       <c r="U83" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84">
@@ -5751,7 +8062,7 @@
         <v>282</v>
       </c>
       <c r="U84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85">
@@ -5759,7 +8070,7 @@
         <v>266</v>
       </c>
       <c r="U85" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
@@ -5767,7 +8078,7 @@
         <v>267</v>
       </c>
       <c r="U86" t="s">
-        <v>377</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87">
@@ -5775,7 +8086,7 @@
         <v>299</v>
       </c>
       <c r="U87" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -5783,7 +8094,7 @@
         <v>305</v>
       </c>
       <c r="U88" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
@@ -5791,7 +8102,7 @@
         <v>289</v>
       </c>
       <c r="U89" t="s">
-        <v>146</v>
+        <v>377</v>
       </c>
     </row>
     <row r="90">
@@ -5799,7 +8110,7 @@
         <v>334</v>
       </c>
       <c r="U90" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91">
@@ -5807,7 +8118,7 @@
         <v>271</v>
       </c>
       <c r="U91" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92">
@@ -5815,86 +8126,101 @@
         <v>272</v>
       </c>
       <c r="U92" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="U109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="U110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="U111" t="s">
         <v>164</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4529" uniqueCount="466">
   <si>
     <t>description</t>
   </si>
@@ -1457,6 +1457,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1467,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="131" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2293,8 +2296,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3537,8 +3634,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5832,6 +6082,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5839,7 +6371,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="172">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6283,49 +6815,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6650,7 +7227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7862,7 +8439,7 @@
         <v>331</v>
       </c>
       <c r="U59" t="s">
-        <v>208</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60">
@@ -7870,7 +8447,7 @@
         <v>303</v>
       </c>
       <c r="U60" t="s">
-        <v>383</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61">
@@ -7878,7 +8455,7 @@
         <v>304</v>
       </c>
       <c r="U61" t="s">
-        <v>132</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62">
@@ -7886,7 +8463,7 @@
         <v>363</v>
       </c>
       <c r="U62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
@@ -7894,7 +8471,7 @@
         <v>364</v>
       </c>
       <c r="U63" t="s">
-        <v>461</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64">
@@ -7902,7 +8479,7 @@
         <v>339</v>
       </c>
       <c r="U64" t="s">
-        <v>134</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65">
@@ -7910,7 +8487,7 @@
         <v>307</v>
       </c>
       <c r="U65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
@@ -7918,7 +8495,7 @@
         <v>263</v>
       </c>
       <c r="U66" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
@@ -7926,7 +8503,7 @@
         <v>347</v>
       </c>
       <c r="U67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68">
@@ -7934,7 +8511,7 @@
         <v>308</v>
       </c>
       <c r="U68" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69">
@@ -7942,7 +8519,7 @@
         <v>404</v>
       </c>
       <c r="U69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
@@ -7950,7 +8527,7 @@
         <v>298</v>
       </c>
       <c r="U70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71">
@@ -7958,7 +8535,7 @@
         <v>405</v>
       </c>
       <c r="U71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72">
@@ -7966,7 +8543,7 @@
         <v>256</v>
       </c>
       <c r="U72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
@@ -7974,7 +8551,7 @@
         <v>338</v>
       </c>
       <c r="U73" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -7982,7 +8559,7 @@
         <v>274</v>
       </c>
       <c r="U74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75">
@@ -7990,7 +8567,7 @@
         <v>280</v>
       </c>
       <c r="U75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76">
@@ -7998,7 +8575,7 @@
         <v>285</v>
       </c>
       <c r="U76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77">
@@ -8006,7 +8583,7 @@
         <v>423</v>
       </c>
       <c r="U77" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78">
@@ -8014,7 +8591,7 @@
         <v>326</v>
       </c>
       <c r="U78" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79">
@@ -8022,7 +8599,7 @@
         <v>264</v>
       </c>
       <c r="U79" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80">
@@ -8030,7 +8607,7 @@
         <v>275</v>
       </c>
       <c r="U80" t="s">
-        <v>462</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81">
@@ -8038,7 +8615,7 @@
         <v>281</v>
       </c>
       <c r="U81" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82">
@@ -8046,7 +8623,7 @@
         <v>270</v>
       </c>
       <c r="U82" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83">
@@ -8054,7 +8631,7 @@
         <v>265</v>
       </c>
       <c r="U83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84">
@@ -8062,7 +8639,7 @@
         <v>282</v>
       </c>
       <c r="U84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85">
@@ -8070,7 +8647,7 @@
         <v>266</v>
       </c>
       <c r="U85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86">
@@ -8078,7 +8655,7 @@
         <v>267</v>
       </c>
       <c r="U86" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -8086,7 +8663,7 @@
         <v>299</v>
       </c>
       <c r="U87" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88">
@@ -8094,7 +8671,7 @@
         <v>305</v>
       </c>
       <c r="U88" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
@@ -8102,7 +8679,7 @@
         <v>289</v>
       </c>
       <c r="U89" t="s">
-        <v>377</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90">
@@ -8110,7 +8687,7 @@
         <v>334</v>
       </c>
       <c r="U90" t="s">
-        <v>144</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91">
@@ -8118,7 +8695,7 @@
         <v>271</v>
       </c>
       <c r="U91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92">
@@ -8126,101 +8703,106 @@
         <v>272</v>
       </c>
       <c r="U92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>164</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,8 +42,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4529" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4984" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1460,6 +1460,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1491,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2390,8 +2414,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3787,8 +3905,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6364,6 +6635,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6371,7 +6924,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="187">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6860,49 +7413,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7227,7 +7825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7553,6 +8151,9 @@
       <c r="C5" t="s">
         <v>218</v>
       </c>
+      <c r="D5" t="s">
+        <v>466</v>
+      </c>
       <c r="E5" t="s">
         <v>330</v>
       </c>
@@ -7646,7 +8247,7 @@
         <v>92</v>
       </c>
       <c r="V6" t="s">
-        <v>169</v>
+        <v>472</v>
       </c>
       <c r="W6" t="s">
         <v>174</v>
@@ -7701,6 +8302,9 @@
       <c r="U7" t="s">
         <v>93</v>
       </c>
+      <c r="V7" t="s">
+        <v>473</v>
+      </c>
       <c r="W7" t="s">
         <v>175</v>
       </c>
@@ -7751,6 +8355,9 @@
       <c r="U8" t="s">
         <v>94</v>
       </c>
+      <c r="V8" t="s">
+        <v>169</v>
+      </c>
       <c r="W8" t="s">
         <v>176</v>
       </c>
@@ -7819,7 +8426,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>468</v>
       </c>
       <c r="M10" t="s">
         <v>454</v>
@@ -7854,7 +8461,7 @@
         <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>455</v>
@@ -7886,7 +8493,7 @@
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>456</v>
@@ -7914,6 +8521,9 @@
       <c r="I13" t="s">
         <v>81</v>
       </c>
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
       <c r="M13" t="s">
         <v>457</v>
       </c>
@@ -8064,7 +8674,7 @@
         <v>291</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>467</v>
       </c>
       <c r="U20" t="s">
         <v>101</v>
@@ -8081,7 +8691,7 @@
         <v>292</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U21" t="s">
         <v>102</v>
@@ -8097,6 +8707,9 @@
       <c r="E22" t="s">
         <v>293</v>
       </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
       <c r="U22" t="s">
         <v>103</v>
       </c>
@@ -8327,7 +8940,7 @@
         <v>336</v>
       </c>
       <c r="U45" t="s">
-        <v>207</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46">
@@ -8335,7 +8948,7 @@
         <v>205</v>
       </c>
       <c r="U46" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47">
@@ -8343,7 +8956,7 @@
         <v>314</v>
       </c>
       <c r="U47" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
@@ -8351,7 +8964,7 @@
         <v>333</v>
       </c>
       <c r="U48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
@@ -8359,7 +8972,7 @@
         <v>362</v>
       </c>
       <c r="U49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
@@ -8367,7 +8980,7 @@
         <v>296</v>
       </c>
       <c r="U50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
@@ -8375,7 +8988,7 @@
         <v>350</v>
       </c>
       <c r="U51" t="s">
-        <v>340</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52">
@@ -8383,7 +8996,7 @@
         <v>325</v>
       </c>
       <c r="U52" t="s">
-        <v>125</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53">
@@ -8391,7 +9004,7 @@
         <v>262</v>
       </c>
       <c r="U53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54">
@@ -8399,7 +9012,7 @@
         <v>286</v>
       </c>
       <c r="U54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55">
@@ -8407,7 +9020,7 @@
         <v>287</v>
       </c>
       <c r="U55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
@@ -8415,7 +9028,7 @@
         <v>288</v>
       </c>
       <c r="U56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
@@ -8423,7 +9036,7 @@
         <v>297</v>
       </c>
       <c r="U57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58">
@@ -8431,7 +9044,7 @@
         <v>306</v>
       </c>
       <c r="U58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
@@ -8439,7 +9052,7 @@
         <v>331</v>
       </c>
       <c r="U59" t="s">
-        <v>465</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60">
@@ -8447,7 +9060,7 @@
         <v>303</v>
       </c>
       <c r="U60" t="s">
-        <v>208</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61">
@@ -8455,7 +9068,7 @@
         <v>304</v>
       </c>
       <c r="U61" t="s">
-        <v>383</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62">
@@ -8463,7 +9076,7 @@
         <v>363</v>
       </c>
       <c r="U62" t="s">
-        <v>132</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63">
@@ -8471,7 +9084,7 @@
         <v>364</v>
       </c>
       <c r="U63" t="s">
-        <v>133</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64">
@@ -8479,7 +9092,7 @@
         <v>339</v>
       </c>
       <c r="U64" t="s">
-        <v>461</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
@@ -8487,7 +9100,7 @@
         <v>307</v>
       </c>
       <c r="U65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66">
@@ -8495,7 +9108,7 @@
         <v>263</v>
       </c>
       <c r="U66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -8503,7 +9116,7 @@
         <v>347</v>
       </c>
       <c r="U67" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
@@ -8511,7 +9124,7 @@
         <v>308</v>
       </c>
       <c r="U68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69">
@@ -8519,7 +9132,7 @@
         <v>404</v>
       </c>
       <c r="U69" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70">
@@ -8527,7 +9140,7 @@
         <v>298</v>
       </c>
       <c r="U70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71">
@@ -8535,7 +9148,7 @@
         <v>405</v>
       </c>
       <c r="U71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
@@ -8543,7 +9156,7 @@
         <v>256</v>
       </c>
       <c r="U72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
@@ -8551,7 +9164,7 @@
         <v>338</v>
       </c>
       <c r="U73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
@@ -8559,7 +9172,7 @@
         <v>274</v>
       </c>
       <c r="U74" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
@@ -8567,7 +9180,7 @@
         <v>280</v>
       </c>
       <c r="U75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76">
@@ -8575,7 +9188,7 @@
         <v>285</v>
       </c>
       <c r="U76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77">
@@ -8583,7 +9196,7 @@
         <v>423</v>
       </c>
       <c r="U77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
@@ -8591,7 +9204,7 @@
         <v>326</v>
       </c>
       <c r="U78" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
@@ -8599,7 +9212,7 @@
         <v>264</v>
       </c>
       <c r="U79" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80">
@@ -8607,7 +9220,7 @@
         <v>275</v>
       </c>
       <c r="U80" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81">
@@ -8615,7 +9228,7 @@
         <v>281</v>
       </c>
       <c r="U81" t="s">
-        <v>462</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82">
@@ -8623,7 +9236,7 @@
         <v>270</v>
       </c>
       <c r="U82" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83">
@@ -8631,7 +9244,7 @@
         <v>265</v>
       </c>
       <c r="U83" t="s">
-        <v>198</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84">
@@ -8639,7 +9252,7 @@
         <v>282</v>
       </c>
       <c r="U84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85">
@@ -8647,7 +9260,7 @@
         <v>266</v>
       </c>
       <c r="U85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86">
@@ -8655,7 +9268,7 @@
         <v>267</v>
       </c>
       <c r="U86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87">
@@ -8663,7 +9276,7 @@
         <v>299</v>
       </c>
       <c r="U87" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88">
@@ -8671,7 +9284,7 @@
         <v>305</v>
       </c>
       <c r="U88" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89">
@@ -8679,7 +9292,7 @@
         <v>289</v>
       </c>
       <c r="U89" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
@@ -8687,7 +9300,7 @@
         <v>334</v>
       </c>
       <c r="U90" t="s">
-        <v>377</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91">
@@ -8695,7 +9308,7 @@
         <v>271</v>
       </c>
       <c r="U91" t="s">
-        <v>144</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92">
@@ -8703,106 +9316,116 @@
         <v>272</v>
       </c>
       <c r="U92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>158</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>164</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4984" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5439" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1491,7 +1491,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="176" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2508,8 +2508,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4058,8 +4152,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6917,6 +7164,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6924,7 +7453,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="202">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7458,49 +7987,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5439" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5894" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1491,7 +1491,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="176" x14ac:knownFonts="1">
+  <fonts count="191" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2602,8 +2602,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4305,8 +4399,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7446,6 +7693,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7453,7 +7982,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="217">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8032,49 +8561,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="164" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="166" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5894" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6350" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1491,7 +1491,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="191" x14ac:knownFonts="1">
+  <fonts count="206" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2696,8 +2696,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4552,8 +4646,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -7975,6 +8222,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7982,7 +8511,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="232">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8606,49 +9135,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="178" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="179" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="181" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9430,7 +10004,7 @@
         <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>309</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -9486,7 +10060,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>452</v>
@@ -9536,7 +10110,7 @@
         <v>384</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>453</v>
@@ -9574,7 +10148,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>468</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>454</v>
@@ -9609,7 +10183,7 @@
         <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>468</v>
       </c>
       <c r="M11" t="s">
         <v>455</v>
@@ -9641,7 +10215,7 @@
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>456</v>
@@ -9670,7 +10244,7 @@
         <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>457</v>
@@ -9697,6 +10271,9 @@
       </c>
       <c r="I14" t="s">
         <v>82</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>458</v>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6350" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6808" uniqueCount="476">
   <si>
     <t>description</t>
   </si>
@@ -1484,6 +1484,12 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1497,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="206" x14ac:knownFonts="1">
+  <fonts count="221" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2790,8 +2796,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4799,8 +4899,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8504,6 +8757,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8511,7 +9046,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="247">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9180,49 +9715,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="196" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9735,7 +10315,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>322</v>
+        <v>474</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -9809,7 +10389,7 @@
         <v>381</v>
       </c>
       <c r="F4" t="s">
-        <v>323</v>
+        <v>475</v>
       </c>
       <c r="H4" t="s">
         <v>345</v>
@@ -9880,7 +10460,7 @@
         <v>330</v>
       </c>
       <c r="F5" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H5" t="s">
         <v>342</v>
@@ -9942,7 +10522,7 @@
         <v>382</v>
       </c>
       <c r="F6" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -9998,7 +10578,7 @@
         <v>360</v>
       </c>
       <c r="F7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -10054,7 +10634,7 @@
         <v>361</v>
       </c>
       <c r="F8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -10106,6 +10686,9 @@
       <c r="E9" t="s">
         <v>300</v>
       </c>
+      <c r="F9" t="s">
+        <v>318</v>
+      </c>
       <c r="I9" t="s">
         <v>384</v>
       </c>
@@ -10143,6 +10726,9 @@
       </c>
       <c r="E10" t="s">
         <v>346</v>
+      </c>
+      <c r="F10" t="s">
+        <v>319</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{A138B9E5-7803-C148-A4C9-E568E94B4669}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="15340" windowWidth="33600" xWindow="4200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="8720" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15340" windowWidth="33600" xWindow="4200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="8720"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="490">
   <si>
     <t>description</t>
   </si>
@@ -1526,6 +1526,12 @@
   </si>
   <si>
     <t>Electron Demo!</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1539,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1704,8 +1710,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1877,8 +2071,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2198,6 +2698,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2205,7 +3269,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="82">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2334,49 +3398,139 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="28" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="31" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2701,9 +3855,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4093,7 +5247,7 @@
         <v>422</v>
       </c>
       <c r="U77" t="s">
-        <v>194</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78">
@@ -4101,7 +5255,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
@@ -4109,7 +5263,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
@@ -4117,7 +5271,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81">
@@ -4125,7 +5279,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82">
@@ -4133,7 +5287,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83">
@@ -4141,7 +5295,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84">
@@ -4149,7 +5303,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>197</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85">
@@ -4157,7 +5311,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86">
@@ -4165,7 +5319,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
@@ -4173,7 +5327,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88">
@@ -4181,7 +5335,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -4189,7 +5343,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -4197,7 +5351,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91">
@@ -4205,7 +5359,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92">
@@ -4213,116 +5367,121 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="491">
   <si>
     <t>description</t>
   </si>
@@ -1532,6 +1532,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1542,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="71" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1898,8 +1901,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2377,8 +2474,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3262,6 +3512,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3269,7 +3801,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="97">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3488,49 +4020,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="43" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3855,7 +4432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5191,7 +5768,7 @@
         <v>297</v>
       </c>
       <c r="U70" t="s">
-        <v>136</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71">
@@ -5199,7 +5776,7 @@
         <v>404</v>
       </c>
       <c r="U71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72">
@@ -5207,7 +5784,7 @@
         <v>255</v>
       </c>
       <c r="U72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73">
@@ -5215,7 +5792,7 @@
         <v>337</v>
       </c>
       <c r="U73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
@@ -5223,7 +5800,7 @@
         <v>273</v>
       </c>
       <c r="U74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
@@ -5231,7 +5808,7 @@
         <v>279</v>
       </c>
       <c r="U75" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
@@ -5239,7 +5816,7 @@
         <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77">
@@ -5247,7 +5824,7 @@
         <v>422</v>
       </c>
       <c r="U77" t="s">
-        <v>489</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78">
@@ -5255,7 +5832,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>194</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79">
@@ -5263,7 +5840,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80">
@@ -5271,7 +5848,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81">
@@ -5279,7 +5856,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82">
@@ -5287,7 +5864,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83">
@@ -5295,7 +5872,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84">
@@ -5303,7 +5880,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="85">
@@ -5311,7 +5888,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>197</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86">
@@ -5319,7 +5896,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87">
@@ -5327,7 +5904,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
@@ -5335,7 +5912,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89">
@@ -5343,7 +5920,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
@@ -5351,7 +5928,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
@@ -5359,7 +5936,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92">
@@ -5367,121 +5944,126 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="492">
   <si>
     <t>description</t>
   </si>
@@ -1535,6 +1535,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1545,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="86" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1995,8 +1998,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2627,8 +2724,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3794,6 +4044,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3801,7 +4333,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="112">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4065,49 +4597,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4765,7 +5342,7 @@
         <v>329</v>
       </c>
       <c r="F5" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="H5" t="s">
         <v>341</v>
@@ -4827,7 +5404,7 @@
         <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -4883,7 +5460,7 @@
         <v>359</v>
       </c>
       <c r="F7" t="s">
-        <v>321</v>
+        <v>457</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -4939,7 +5516,7 @@
         <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -4992,7 +5569,7 @@
         <v>299</v>
       </c>
       <c r="F9" t="s">
-        <v>462</v>
+        <v>322</v>
       </c>
       <c r="I9" t="s">
         <v>383</v>
@@ -5033,7 +5610,7 @@
         <v>345</v>
       </c>
       <c r="F10" t="s">
-        <v>315</v>
+        <v>462</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -5071,7 +5648,7 @@
         <v>267</v>
       </c>
       <c r="F11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I11" t="s">
         <v>41</v>
@@ -5106,7 +5683,7 @@
         <v>256</v>
       </c>
       <c r="F12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I12" t="s">
         <v>80</v>
@@ -5138,7 +5715,7 @@
         <v>309</v>
       </c>
       <c r="F13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I13" t="s">
         <v>81</v>
@@ -5168,6 +5745,9 @@
       </c>
       <c r="E14" t="s">
         <v>257</v>
+      </c>
+      <c r="F14" t="s">
+        <v>318</v>
       </c>
       <c r="I14" t="s">
         <v>82</v>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="493">
   <si>
     <t>description</t>
   </si>
@@ -1538,6 +1538,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1548,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="86" x14ac:knownFonts="1">
+  <fonts count="116" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2092,8 +2095,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2877,8 +3068,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4326,6 +4823,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4333,7 +5394,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="142">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4642,49 +5703,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="73" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="74" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5750,7 +6901,7 @@
         <v>318</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="K14" t="s">
         <v>42</v>
@@ -5779,7 +6930,7 @@
         <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
         <v>444</v>
@@ -5805,7 +6956,7 @@
         <v>310</v>
       </c>
       <c r="I16" t="s">
-        <v>373</v>
+        <v>83</v>
       </c>
       <c r="N16" t="s">
         <v>245</v>
@@ -5828,7 +6979,7 @@
         <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>373</v>
       </c>
       <c r="U17" t="s">
         <v>98</v>
@@ -5845,7 +6996,7 @@
         <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="U18" t="s">
         <v>99</v>
@@ -5862,7 +7013,7 @@
         <v>289</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>385</v>
       </c>
       <c r="U19" t="s">
         <v>100</v>
@@ -5879,7 +7030,7 @@
         <v>290</v>
       </c>
       <c r="I20" t="s">
-        <v>450</v>
+        <v>84</v>
       </c>
       <c r="U20" t="s">
         <v>101</v>
@@ -5896,7 +7047,7 @@
         <v>291</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="U21" t="s">
         <v>102</v>
@@ -5913,7 +7064,7 @@
         <v>292</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U22" t="s">
         <v>103</v>
@@ -5928,6 +7079,9 @@
       </c>
       <c r="E23" t="s">
         <v>283</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
       </c>
       <c r="U23" t="s">
         <v>104</v>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="495">
   <si>
     <t>description</t>
   </si>
@@ -1541,6 +1541,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1554,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="131" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2283,8 +2289,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3374,8 +3474,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5387,6 +5640,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5394,7 +5929,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="157">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5793,49 +6328,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6339,7 +6919,7 @@
         <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>493</v>
       </c>
       <c r="D3" t="s">
         <v>358</v>
@@ -6413,7 +6993,7 @@
         <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
@@ -6484,7 +7064,7 @@
         <v>368</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>494</v>
       </c>
       <c r="D5" t="s">
         <v>449</v>
@@ -6549,7 +7129,7 @@
         <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>381</v>
@@ -6605,7 +7185,7 @@
         <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
         <v>359</v>
@@ -6661,7 +7241,7 @@
         <v>371</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E8" t="s">
         <v>360</v>
@@ -6714,7 +7294,7 @@
         <v>372</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>299</v>
@@ -6755,7 +7335,7 @@
         <v>326</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E10" t="s">
         <v>345</v>
@@ -6793,7 +7373,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="E11" t="s">
         <v>267</v>
@@ -6828,7 +7408,7 @@
         <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="E12" t="s">
         <v>256</v>
@@ -6860,7 +7440,7 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>334</v>
       </c>
       <c r="E13" t="s">
         <v>309</v>
@@ -6892,7 +7472,7 @@
         <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>257</v>
@@ -6924,7 +7504,7 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>379</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>258</v>
@@ -6950,7 +7530,7 @@
         <v>389</v>
       </c>
       <c r="C16" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="E16" t="s">
         <v>310</v>
@@ -6973,7 +7553,7 @@
         <v>405</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>379</v>
       </c>
       <c r="E17" t="s">
         <v>88</v>
@@ -6990,7 +7570,7 @@
         <v>406</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>408</v>
       </c>
       <c r="E18" t="s">
         <v>89</v>
@@ -7007,7 +7587,7 @@
         <v>350</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
         <v>289</v>
@@ -7024,7 +7604,7 @@
         <v>390</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>290</v>
@@ -7041,7 +7621,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="E21" t="s">
         <v>291</v>
@@ -7058,7 +7638,7 @@
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>292</v>
@@ -7075,7 +7655,7 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>458</v>
+        <v>314</v>
       </c>
       <c r="E23" t="s">
         <v>283</v>
@@ -7092,7 +7672,7 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
         <v>272</v>
@@ -7106,7 +7686,7 @@
         <v>407</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>458</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -7120,7 +7700,7 @@
         <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>409</v>
+        <v>218</v>
       </c>
       <c r="E26" t="s">
         <v>275</v>
@@ -7131,7 +7711,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="E27" t="s">
         <v>259</v>
@@ -7142,7 +7722,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>64</v>
+        <v>409</v>
       </c>
       <c r="E28" t="s">
         <v>276</v>
@@ -7153,7 +7733,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
         <v>277</v>
@@ -7164,7 +7744,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
         <v>209</v>
@@ -7175,7 +7755,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
         <v>268</v>
@@ -7186,7 +7766,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
         <v>278</v>
@@ -7197,7 +7777,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
         <v>253</v>
@@ -7208,7 +7788,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
         <v>323</v>
@@ -7218,6 +7798,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
       <c r="E35" t="s">
         <v>300</v>
       </c>
@@ -7226,6 +7809,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
       <c r="E36" t="s">
         <v>254</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4759" uniqueCount="496">
   <si>
     <t>description</t>
   </si>
@@ -1547,6 +1547,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1557,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="131" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2383,8 +2386,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3627,8 +3724,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5922,6 +6172,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5929,7 +6461,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="172">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6373,49 +6905,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6740,7 +7317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7952,7 +8529,7 @@
         <v>261</v>
       </c>
       <c r="U53" t="s">
-        <v>125</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54">
@@ -7960,7 +8537,7 @@
         <v>285</v>
       </c>
       <c r="U54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
@@ -7968,7 +8545,7 @@
         <v>286</v>
       </c>
       <c r="U55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -7976,7 +8553,7 @@
         <v>287</v>
       </c>
       <c r="U56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -7984,7 +8561,7 @@
         <v>296</v>
       </c>
       <c r="U57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -7992,7 +8569,7 @@
         <v>305</v>
       </c>
       <c r="U58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
@@ -8000,7 +8577,7 @@
         <v>330</v>
       </c>
       <c r="U59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
@@ -8008,7 +8585,7 @@
         <v>302</v>
       </c>
       <c r="U60" t="s">
-        <v>448</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61">
@@ -8016,7 +8593,7 @@
         <v>303</v>
       </c>
       <c r="U61" t="s">
-        <v>207</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62">
@@ -8024,7 +8601,7 @@
         <v>362</v>
       </c>
       <c r="U62" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63">
@@ -8032,7 +8609,7 @@
         <v>363</v>
       </c>
       <c r="U63" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64">
@@ -8040,7 +8617,7 @@
         <v>338</v>
       </c>
       <c r="U64" t="s">
-        <v>132</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65">
@@ -8048,7 +8625,7 @@
         <v>306</v>
       </c>
       <c r="U65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -8056,7 +8633,7 @@
         <v>262</v>
       </c>
       <c r="U66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -8064,7 +8641,7 @@
         <v>346</v>
       </c>
       <c r="U67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -8072,7 +8649,7 @@
         <v>307</v>
       </c>
       <c r="U68" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
@@ -8080,7 +8657,7 @@
         <v>403</v>
       </c>
       <c r="U69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70">
@@ -8088,7 +8665,7 @@
         <v>297</v>
       </c>
       <c r="U70" t="s">
-        <v>490</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71">
@@ -8096,7 +8673,7 @@
         <v>404</v>
       </c>
       <c r="U71" t="s">
-        <v>136</v>
+        <v>490</v>
       </c>
     </row>
     <row r="72">
@@ -8104,7 +8681,7 @@
         <v>255</v>
       </c>
       <c r="U72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73">
@@ -8112,7 +8689,7 @@
         <v>337</v>
       </c>
       <c r="U73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
@@ -8120,7 +8697,7 @@
         <v>273</v>
       </c>
       <c r="U74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
@@ -8128,7 +8705,7 @@
         <v>279</v>
       </c>
       <c r="U75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
@@ -8136,7 +8713,7 @@
         <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
@@ -8144,7 +8721,7 @@
         <v>422</v>
       </c>
       <c r="U77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78">
@@ -8152,7 +8729,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>489</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79">
@@ -8160,7 +8737,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>194</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80">
@@ -8168,7 +8745,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81">
@@ -8176,7 +8753,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82">
@@ -8184,7 +8761,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83">
@@ -8192,7 +8769,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
@@ -8200,7 +8777,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85">
@@ -8208,7 +8785,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86">
@@ -8216,7 +8793,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>197</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87">
@@ -8224,7 +8801,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
@@ -8232,7 +8809,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89">
@@ -8240,7 +8817,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
@@ -8248,7 +8825,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
@@ -8256,7 +8833,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92">
@@ -8264,126 +8841,131 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
+    <definedName name="io">'#system'!$I$2:$I$24</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -45,7 +45,7 @@
     <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4759" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5230" uniqueCount="498">
   <si>
     <t>description</t>
   </si>
@@ -1550,6 +1550,12 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1563,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="162" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2480,8 +2486,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3877,8 +3984,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6454,6 +6714,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6461,7 +7003,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="188">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6950,49 +7492,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7656,7 +8246,7 @@
         <v>341</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>496</v>
       </c>
       <c r="K5" t="s">
         <v>86</v>
@@ -7715,7 +8305,7 @@
         <v>461</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
@@ -7771,7 +8361,7 @@
         <v>457</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
         <v>308</v>
@@ -7827,7 +8417,7 @@
         <v>321</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
         <v>34</v>
@@ -7880,7 +8470,7 @@
         <v>322</v>
       </c>
       <c r="I9" t="s">
-        <v>383</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
@@ -7921,7 +8511,7 @@
         <v>462</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>383</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
@@ -7959,7 +8549,7 @@
         <v>315</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>451</v>
@@ -7994,7 +8584,7 @@
         <v>316</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
         <v>39</v>
@@ -8026,7 +8616,7 @@
         <v>317</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
         <v>40</v>
@@ -8058,7 +8648,7 @@
         <v>318</v>
       </c>
       <c r="I14" t="s">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
         <v>42</v>
@@ -8087,7 +8677,7 @@
         <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="M15" t="s">
         <v>444</v>
@@ -8113,7 +8703,7 @@
         <v>310</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N16" t="s">
         <v>245</v>
@@ -8136,10 +8726,13 @@
         <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>373</v>
+        <v>83</v>
       </c>
       <c r="U17" t="s">
         <v>98</v>
+      </c>
+      <c r="X17" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="18">
@@ -8153,7 +8746,7 @@
         <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>373</v>
       </c>
       <c r="U18" t="s">
         <v>99</v>
@@ -8170,7 +8763,7 @@
         <v>289</v>
       </c>
       <c r="I19" t="s">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="U19" t="s">
         <v>100</v>
@@ -8187,7 +8780,7 @@
         <v>290</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
+        <v>385</v>
       </c>
       <c r="U20" t="s">
         <v>101</v>
@@ -8204,7 +8797,7 @@
         <v>291</v>
       </c>
       <c r="I21" t="s">
-        <v>450</v>
+        <v>84</v>
       </c>
       <c r="U21" t="s">
         <v>102</v>
@@ -8221,7 +8814,7 @@
         <v>292</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="U22" t="s">
         <v>103</v>
@@ -8238,7 +8831,7 @@
         <v>283</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U23" t="s">
         <v>104</v>
@@ -8253,6 +8846,9 @@
       </c>
       <c r="E24" t="s">
         <v>272</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
       </c>
       <c r="U24" t="s">
         <v>105</v>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -18,36 +18,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$24</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5230" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5705" uniqueCount="501">
   <si>
     <t>description</t>
   </si>
@@ -1556,6 +1557,15 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1573,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="162" x14ac:knownFonts="1">
+  <fonts count="178" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2587,8 +2597,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4137,8 +4248,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6996,6 +7260,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7003,7 +7549,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="204">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7537,52 +8083,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="152" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="264" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="267" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="291" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="294" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7907,7 +8501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7926,75 +8520,78 @@
         <v>364</v>
       </c>
       <c r="C1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>340</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>326</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>189</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>232</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>389</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>405</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>406</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>350</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>390</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>407</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8006,1562 +8603,1571 @@
         <v>365</v>
       </c>
       <c r="C2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>459</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>342</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>308</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>377</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>436</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>410</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>423</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>246</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>210</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>391</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>412</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>413</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>374</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>400</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>90</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>164</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>169</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>176</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>425</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>498</v>
       </c>
       <c r="B3" t="s">
         <v>366</v>
       </c>
       <c r="C3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
         <v>493</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>358</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>87</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>343</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>334</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>327</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>85</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>424</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>233</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>211</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>392</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>414</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>375</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>401</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>91</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>165</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>170</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>357</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>177</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>380</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>460</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>344</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>231</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>328</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>234</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>212</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>393</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>415</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>351</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>402</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>347</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>166</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>171</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>177</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>417</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>368</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>494</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>449</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>329</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>491</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>341</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>496</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>86</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>235</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>213</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>394</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>416</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>352</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>348</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>167</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>172</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>178</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>418</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>369</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>381</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>461</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>71</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>236</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>384</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>395</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>354</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>92</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>455</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>173</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>179</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>419</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>370</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>217</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>359</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>457</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>308</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>237</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>411</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>396</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>353</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>93</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>456</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>174</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>180</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>420</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>371</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>311</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>360</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>321</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>79</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>437</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>238</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>397</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>355</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>94</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>168</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>175</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>181</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>421</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
         <v>372</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>299</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>322</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>438</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>239</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>398</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>356</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>202</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>182</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>308</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>345</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>462</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>383</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>439</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>240</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>399</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>250</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>183</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" t="s">
         <v>248</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>267</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>315</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>451</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>440</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>241</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>251</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>252</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>312</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>256</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>316</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>41</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>441</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>242</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>95</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" t="s">
         <v>334</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>309</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>80</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>442</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>247</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>319</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>257</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>318</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>81</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>42</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>443</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>243</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>96</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>258</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>492</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>444</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>244</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>97</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>389</v>
-      </c>
-      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
         <v>378</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>310</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>82</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>245</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>74</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>405</v>
-      </c>
-      <c r="C17" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" t="s">
         <v>379</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>88</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>83</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>98</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>406</v>
-      </c>
-      <c r="C18" t="s">
+        <v>405</v>
+      </c>
+      <c r="D18" t="s">
         <v>408</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>89</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>373</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>350</v>
-      </c>
-      <c r="C19" t="s">
+        <v>406</v>
+      </c>
+      <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>289</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>43</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>390</v>
-      </c>
-      <c r="C20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>290</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>385</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
+        <v>390</v>
+      </c>
+      <c r="D21" t="s">
         <v>249</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>291</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>84</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
         <v>61</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>292</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>450</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
         <v>314</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>283</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>44</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
         <v>62</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>272</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>407</v>
-      </c>
-      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
         <v>458</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>75</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>407</v>
+      </c>
+      <c r="D26" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" t="s">
+        <v>275</v>
+      </c>
+      <c r="V26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>220</v>
       </c>
-      <c r="C26" t="s">
-        <v>218</v>
-      </c>
-      <c r="E26" t="s">
-        <v>275</v>
-      </c>
-      <c r="U26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>219</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>259</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>409</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>276</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>277</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>209</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>65</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>268</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>66</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>278</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>67</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>253</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>68</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>323</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>69</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>300</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>70</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>254</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>301</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>260</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>205</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>282</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>293</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>294</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>336</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>335</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>204</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>313</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>332</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>361</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>295</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>349</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>324</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>261</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>285</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>286</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>287</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>296</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>305</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>330</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>302</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>303</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>362</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>363</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>338</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>306</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>262</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>346</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>307</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>403</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>297</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>404</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>255</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>337</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>273</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>279</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>284</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>422</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>325</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>263</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>274</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>280</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>269</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>264</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>281</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>265</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>266</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>298</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>304</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>288</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>333</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>270</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>271</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5705" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6181" uniqueCount="503">
   <si>
     <t>description</t>
   </si>
@@ -1566,6 +1566,12 @@
   </si>
   <si>
     <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1579,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="178" x14ac:knownFonts="1">
+  <fonts count="194" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2698,8 +2704,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4401,8 +4508,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7542,6 +7802,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7549,7 +8091,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="220">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8131,52 +8673,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="164" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="165" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="285" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="168" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="291" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="291" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="294" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="294" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="312" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="318" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="321" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8501,7 +9091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8603,7 +9193,7 @@
         <v>365</v>
       </c>
       <c r="C2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -9715,7 +10305,7 @@
         <v>349</v>
       </c>
       <c r="V51" t="s">
-        <v>124</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52">
@@ -9723,7 +10313,7 @@
         <v>324</v>
       </c>
       <c r="V52" t="s">
-        <v>339</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53">
@@ -9731,7 +10321,7 @@
         <v>261</v>
       </c>
       <c r="V53" t="s">
-        <v>495</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54">
@@ -9739,7 +10329,7 @@
         <v>285</v>
       </c>
       <c r="V54" t="s">
-        <v>125</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55">
@@ -9747,7 +10337,7 @@
         <v>286</v>
       </c>
       <c r="V55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -9755,7 +10345,7 @@
         <v>287</v>
       </c>
       <c r="V56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -9763,7 +10353,7 @@
         <v>296</v>
       </c>
       <c r="V57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
@@ -9771,7 +10361,7 @@
         <v>305</v>
       </c>
       <c r="V58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
@@ -9779,7 +10369,7 @@
         <v>330</v>
       </c>
       <c r="V59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -9787,7 +10377,7 @@
         <v>302</v>
       </c>
       <c r="V60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
@@ -9795,7 +10385,7 @@
         <v>303</v>
       </c>
       <c r="V61" t="s">
-        <v>448</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
@@ -9803,7 +10393,7 @@
         <v>362</v>
       </c>
       <c r="V62" t="s">
-        <v>207</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63">
@@ -9811,7 +10401,7 @@
         <v>363</v>
       </c>
       <c r="V63" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64">
@@ -9819,7 +10409,7 @@
         <v>338</v>
       </c>
       <c r="V64" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65">
@@ -9827,7 +10417,7 @@
         <v>306</v>
       </c>
       <c r="V65" t="s">
-        <v>132</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66">
@@ -9835,7 +10425,7 @@
         <v>262</v>
       </c>
       <c r="V66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
@@ -9843,7 +10433,7 @@
         <v>346</v>
       </c>
       <c r="V67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
@@ -9851,7 +10441,7 @@
         <v>307</v>
       </c>
       <c r="V68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -9859,7 +10449,7 @@
         <v>403</v>
       </c>
       <c r="V69" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
@@ -9867,7 +10457,7 @@
         <v>297</v>
       </c>
       <c r="V70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71">
@@ -9875,7 +10465,7 @@
         <v>404</v>
       </c>
       <c r="V71" t="s">
-        <v>490</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72">
@@ -9883,7 +10473,7 @@
         <v>255</v>
       </c>
       <c r="V72" t="s">
-        <v>136</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73">
@@ -9891,7 +10481,7 @@
         <v>337</v>
       </c>
       <c r="V73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74">
@@ -9899,7 +10489,7 @@
         <v>273</v>
       </c>
       <c r="V74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
@@ -9907,7 +10497,7 @@
         <v>279</v>
       </c>
       <c r="V75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -9915,7 +10505,7 @@
         <v>284</v>
       </c>
       <c r="V76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -9923,7 +10513,7 @@
         <v>422</v>
       </c>
       <c r="V77" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
@@ -9931,7 +10521,7 @@
         <v>325</v>
       </c>
       <c r="V78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79">
@@ -9939,7 +10529,7 @@
         <v>263</v>
       </c>
       <c r="V79" t="s">
-        <v>489</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80">
@@ -9947,7 +10537,7 @@
         <v>274</v>
       </c>
       <c r="V80" t="s">
-        <v>194</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81">
@@ -9955,7 +10545,7 @@
         <v>280</v>
       </c>
       <c r="V81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82">
@@ -9963,7 +10553,7 @@
         <v>269</v>
       </c>
       <c r="V82" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83">
@@ -9971,7 +10561,7 @@
         <v>264</v>
       </c>
       <c r="V83" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84">
@@ -9979,7 +10569,7 @@
         <v>281</v>
       </c>
       <c r="V84" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85">
@@ -9987,7 +10577,7 @@
         <v>265</v>
       </c>
       <c r="V85" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86">
@@ -9995,7 +10585,7 @@
         <v>266</v>
       </c>
       <c r="V86" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87">
@@ -10003,7 +10593,7 @@
         <v>298</v>
       </c>
       <c r="V87" t="s">
-        <v>197</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88">
@@ -10011,7 +10601,7 @@
         <v>304</v>
       </c>
       <c r="V88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89">
@@ -10019,7 +10609,7 @@
         <v>288</v>
       </c>
       <c r="V89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
@@ -10027,7 +10617,7 @@
         <v>333</v>
       </c>
       <c r="V90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91">
@@ -10035,7 +10625,7 @@
         <v>270</v>
       </c>
       <c r="V91" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
@@ -10043,131 +10633,136 @@
         <v>271</v>
       </c>
       <c r="V92" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6181" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7613" uniqueCount="506">
   <si>
     <t>description</t>
   </si>
@@ -1572,6 +1572,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1588,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="194" x14ac:knownFonts="1">
+  <fonts count="242" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2805,8 +2814,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4661,8 +4973,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -8084,6 +8855,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8091,7 +9708,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="268">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8721,52 +10338,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="180" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="181" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="312" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="312" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="184" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="318" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="318" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="321" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="321" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="196" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="197" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="339" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="199" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="200" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="345" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="348" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="212" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="213" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="366" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="215" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="216" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="372" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="375" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="393" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="399" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="402" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9211,7 +10972,7 @@
         <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>342</v>
+        <v>505</v>
       </c>
       <c r="J2" t="s">
         <v>308</v>
@@ -9294,7 +11055,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J3" t="s">
         <v>334</v>
@@ -9365,7 +11126,7 @@
         <v>460</v>
       </c>
       <c r="I4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J4" t="s">
         <v>231</v>
@@ -9436,7 +11197,7 @@
         <v>491</v>
       </c>
       <c r="I5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J5" t="s">
         <v>496</v>
@@ -9496,6 +11257,9 @@
       </c>
       <c r="G6" t="s">
         <v>461</v>
+      </c>
+      <c r="I6" t="s">
+        <v>341</v>
       </c>
       <c r="J6" t="s">
         <v>71</v>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7613" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8091" uniqueCount="507">
   <si>
     <t>description</t>
   </si>
@@ -1581,6 +1581,9 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1591,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="242" x14ac:knownFonts="1">
+  <fonts count="258" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3117,8 +3120,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5432,8 +5536,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9701,6 +9958,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9708,7 +10247,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="284">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10482,52 +11021,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="228" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="229" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="393" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="393" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="231" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="232" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="399" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="399" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="402" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="402" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="238" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="240" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="420" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="426" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="429" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10852,7 +11439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12245,7 +12832,7 @@
         <v>337</v>
       </c>
       <c r="V73" t="s">
-        <v>136</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74">
@@ -12253,7 +12840,7 @@
         <v>273</v>
       </c>
       <c r="V74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
@@ -12261,7 +12848,7 @@
         <v>279</v>
       </c>
       <c r="V75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
@@ -12269,7 +12856,7 @@
         <v>284</v>
       </c>
       <c r="V76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -12277,7 +12864,7 @@
         <v>422</v>
       </c>
       <c r="V77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -12285,7 +12872,7 @@
         <v>325</v>
       </c>
       <c r="V78" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
@@ -12293,7 +12880,7 @@
         <v>263</v>
       </c>
       <c r="V79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80">
@@ -12301,7 +12888,7 @@
         <v>274</v>
       </c>
       <c r="V80" t="s">
-        <v>489</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81">
@@ -12309,7 +12896,7 @@
         <v>280</v>
       </c>
       <c r="V81" t="s">
-        <v>194</v>
+        <v>489</v>
       </c>
     </row>
     <row r="82">
@@ -12317,7 +12904,7 @@
         <v>269</v>
       </c>
       <c r="V82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83">
@@ -12325,7 +12912,7 @@
         <v>264</v>
       </c>
       <c r="V83" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84">
@@ -12333,7 +12920,7 @@
         <v>281</v>
       </c>
       <c r="V84" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85">
@@ -12341,7 +12928,7 @@
         <v>265</v>
       </c>
       <c r="V85" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86">
@@ -12349,7 +12936,7 @@
         <v>266</v>
       </c>
       <c r="V86" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87">
@@ -12357,7 +12944,7 @@
         <v>298</v>
       </c>
       <c r="V87" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88">
@@ -12365,7 +12952,7 @@
         <v>304</v>
       </c>
       <c r="V88" t="s">
-        <v>197</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89">
@@ -12373,7 +12960,7 @@
         <v>288</v>
       </c>
       <c r="V89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
@@ -12381,7 +12968,7 @@
         <v>333</v>
       </c>
       <c r="V90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
@@ -12389,7 +12976,7 @@
         <v>270</v>
       </c>
       <c r="V91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
@@ -12397,136 +12984,141 @@
         <v>271</v>
       </c>
       <c r="V92" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8091" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9530" uniqueCount="510">
   <si>
     <t>description</t>
   </si>
@@ -1584,6 +1584,15 @@
   </si>
   <si>
     <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1600,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="258" x14ac:knownFonts="1">
+  <fonts count="306" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3221,8 +3230,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5689,8 +6001,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -10240,6 +11011,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10247,7 +11864,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="332">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11069,52 +12686,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="244" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="245" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="420" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="420" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="247" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="248" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="426" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="426" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="429" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="429" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="260" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="261" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="447" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="263" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="264" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="453" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="456" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="459" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="459" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="270" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="276" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="277" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="474" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="279" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="280" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="480" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="483" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="486" fontId="284" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="486" fontId="285" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="286" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="287" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="289" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="501" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="507" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="510" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12307,7 +14068,7 @@
         <v>289</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>509</v>
       </c>
       <c r="V19" t="s">
         <v>100</v>
@@ -12324,7 +14085,7 @@
         <v>290</v>
       </c>
       <c r="J20" t="s">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="V20" t="s">
         <v>101</v>
@@ -12341,7 +14102,7 @@
         <v>291</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>385</v>
       </c>
       <c r="V21" t="s">
         <v>102</v>
@@ -12358,7 +14119,7 @@
         <v>292</v>
       </c>
       <c r="J22" t="s">
-        <v>450</v>
+        <v>84</v>
       </c>
       <c r="V22" t="s">
         <v>103</v>
@@ -12375,7 +14136,7 @@
         <v>283</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="V23" t="s">
         <v>104</v>
@@ -12392,7 +14153,7 @@
         <v>272</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V24" t="s">
         <v>105</v>
@@ -12408,6 +14169,9 @@
       <c r="F25" t="s">
         <v>75</v>
       </c>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
       <c r="V25" t="s">
         <v>106</v>
       </c>
@@ -12442,7 +14206,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>409</v>
+        <v>507</v>
       </c>
       <c r="F28" t="s">
         <v>276</v>
@@ -12453,7 +14217,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>63</v>
+        <v>508</v>
       </c>
       <c r="F29" t="s">
         <v>277</v>
@@ -12464,7 +14228,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>64</v>
+        <v>409</v>
       </c>
       <c r="F30" t="s">
         <v>209</v>
@@ -12475,7 +14239,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
         <v>268</v>
@@ -12486,7 +14250,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
         <v>278</v>
@@ -12497,7 +14261,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
         <v>253</v>
@@ -12508,7 +14272,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
         <v>323</v>
@@ -12519,7 +14283,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
         <v>300</v>
@@ -12530,7 +14294,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
         <v>254</v>
@@ -12540,6 +14304,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
       <c r="F37" t="s">
         <v>301</v>
       </c>
@@ -12548,6 +14315,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
       <c r="F38" t="s">
         <v>260</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9530" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10495" uniqueCount="512">
   <si>
     <t>description</t>
   </si>
@@ -1593,6 +1593,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1606,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="306" x14ac:knownFonts="1">
+  <fonts count="338" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3533,8 +3539,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6460,8 +6668,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="591">
     <border>
       <left/>
       <right/>
@@ -11857,6 +12371,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11864,7 +12942,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="364">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12830,52 +13908,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="292" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="293" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="501" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="501" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="296" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="507" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="507" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="510" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="510" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="513" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="513" fontId="301" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="308" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="309" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="528" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="311" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="312" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="534" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="537" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="540" fontId="316" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="540" fontId="317" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="318" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="319" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="320" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="321" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="555" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="561" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="564" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13857,7 +15031,7 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>451</v>
+        <v>511</v>
       </c>
       <c r="N11" t="s">
         <v>440</v>
@@ -13892,7 +15066,7 @@
         <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>451</v>
       </c>
       <c r="N12" t="s">
         <v>441</v>
@@ -13924,7 +15098,7 @@
         <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>510</v>
       </c>
       <c r="N13" t="s">
         <v>442</v>
@@ -13956,7 +15130,7 @@
         <v>81</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
         <v>443</v>
@@ -13984,6 +15158,9 @@
       <c r="J15" t="s">
         <v>492</v>
       </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" t="s">
         <v>444</v>
       </c>
@@ -14009,6 +15186,9 @@
       </c>
       <c r="J16" t="s">
         <v>82</v>
+      </c>
+      <c r="L16" t="s">
+        <v>42</v>
       </c>
       <c r="O16" t="s">
         <v>245</v>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10495" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10981" uniqueCount="515">
   <si>
     <t>description</t>
   </si>
@@ -1599,6 +1599,15 @@
   </si>
   <si>
     <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1615,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="338" x14ac:knownFonts="1">
+  <fonts count="354" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3741,8 +3750,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6974,8 +7084,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="591">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12935,6 +13198,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12942,7 +13487,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="364">
+  <cellXfs count="380">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14004,52 +14549,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="324" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="325" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="555" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="555" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="328" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="561" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="561" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="564" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="564" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="582" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="588" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="591" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14374,7 +14967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14973,7 +15566,7 @@
         <v>182</v>
       </c>
       <c r="AA9" t="s">
-        <v>228</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10">
@@ -15011,7 +15604,7 @@
         <v>183</v>
       </c>
       <c r="AA10" t="s">
-        <v>229</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11">
@@ -15046,7 +15639,7 @@
         <v>252</v>
       </c>
       <c r="AA11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12">
@@ -15080,6 +15673,9 @@
       <c r="Y12" t="s">
         <v>184</v>
       </c>
+      <c r="AA12" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -15112,6 +15708,9 @@
       <c r="Y13" t="s">
         <v>185</v>
       </c>
+      <c r="AA13" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -15702,7 +16301,7 @@
         <v>363</v>
       </c>
       <c r="V63" t="s">
-        <v>207</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64">
@@ -15710,7 +16309,7 @@
         <v>338</v>
       </c>
       <c r="V64" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65">
@@ -15718,7 +16317,7 @@
         <v>306</v>
       </c>
       <c r="V65" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66">
@@ -15726,7 +16325,7 @@
         <v>262</v>
       </c>
       <c r="V66" t="s">
-        <v>132</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67">
@@ -15734,7 +16333,7 @@
         <v>346</v>
       </c>
       <c r="V67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
@@ -15742,7 +16341,7 @@
         <v>307</v>
       </c>
       <c r="V68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
@@ -15750,7 +16349,7 @@
         <v>403</v>
       </c>
       <c r="V69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
@@ -15758,7 +16357,7 @@
         <v>297</v>
       </c>
       <c r="V70" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
@@ -15766,7 +16365,7 @@
         <v>404</v>
       </c>
       <c r="V71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72">
@@ -15774,7 +16373,7 @@
         <v>255</v>
       </c>
       <c r="V72" t="s">
-        <v>490</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73">
@@ -15782,7 +16381,7 @@
         <v>337</v>
       </c>
       <c r="V73" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74">
@@ -15790,7 +16389,7 @@
         <v>273</v>
       </c>
       <c r="V74" t="s">
-        <v>136</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75">
@@ -15798,7 +16397,7 @@
         <v>279</v>
       </c>
       <c r="V75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
@@ -15806,7 +16405,7 @@
         <v>284</v>
       </c>
       <c r="V76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
@@ -15814,7 +16413,7 @@
         <v>422</v>
       </c>
       <c r="V77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -15822,7 +16421,7 @@
         <v>325</v>
       </c>
       <c r="V78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
@@ -15830,7 +16429,7 @@
         <v>263</v>
       </c>
       <c r="V79" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
@@ -15838,7 +16437,7 @@
         <v>274</v>
       </c>
       <c r="V80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81">
@@ -15846,7 +16445,7 @@
         <v>280</v>
       </c>
       <c r="V81" t="s">
-        <v>489</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82">
@@ -15854,7 +16453,7 @@
         <v>269</v>
       </c>
       <c r="V82" t="s">
-        <v>194</v>
+        <v>489</v>
       </c>
     </row>
     <row r="83">
@@ -15862,7 +16461,7 @@
         <v>264</v>
       </c>
       <c r="V83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84">
@@ -15870,7 +16469,7 @@
         <v>281</v>
       </c>
       <c r="V84" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85">
@@ -15878,7 +16477,7 @@
         <v>265</v>
       </c>
       <c r="V85" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86">
@@ -15886,7 +16485,7 @@
         <v>266</v>
       </c>
       <c r="V86" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
@@ -15894,7 +16493,7 @@
         <v>298</v>
       </c>
       <c r="V87" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88">
@@ -15902,7 +16501,7 @@
         <v>304</v>
       </c>
       <c r="V88" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="89">
@@ -15910,7 +16509,7 @@
         <v>288</v>
       </c>
       <c r="V89" t="s">
-        <v>197</v>
+        <v>447</v>
       </c>
     </row>
     <row r="90">
@@ -15918,7 +16517,7 @@
         <v>333</v>
       </c>
       <c r="V90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91">
@@ -15926,7 +16525,7 @@
         <v>270</v>
       </c>
       <c r="V91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92">
@@ -15934,141 +16533,146 @@
         <v>271</v>
       </c>
       <c r="V92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -24,31 +24,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10981" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11475" uniqueCount="523">
   <si>
     <t>description</t>
   </si>
@@ -1608,6 +1609,30 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1640,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="354" x14ac:knownFonts="1">
+  <fonts count="370" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3851,8 +3876,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="625">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7237,8 +7363,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -13480,6 +13759,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13487,7 +14048,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="380">
+  <cellXfs count="396">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14597,52 +15158,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="340" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="341" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="582" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="582" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="343" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="344" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="588" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="588" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="591" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="591" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="594" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="594" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="353" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="615" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="618" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14967,7 +15576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15016,48 +15625,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>515</v>
+      </c>
+      <c r="N1" t="s">
         <v>189</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>232</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>389</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>405</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>406</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>350</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>390</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>53</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>54</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>407</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -15099,48 +15711,51 @@
         <v>436</v>
       </c>
       <c r="M2" t="s">
+        <v>518</v>
+      </c>
+      <c r="N2" t="s">
         <v>410</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>423</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>246</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>210</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>391</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>412</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>413</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>374</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>400</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>90</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>164</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>169</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>176</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>425</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -15167,7 +15782,7 @@
         <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>516</v>
       </c>
       <c r="I3" t="s">
         <v>342</v>
@@ -15181,43 +15796,46 @@
       <c r="L3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>519</v>
+      </c>
+      <c r="O3" t="s">
         <v>424</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>233</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>211</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>392</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>414</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>375</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>401</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>91</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>165</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>170</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>357</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>177</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>222</v>
       </c>
     </row>
@@ -15240,6 +15858,9 @@
       <c r="G4" t="s">
         <v>460</v>
       </c>
+      <c r="H4" t="s">
+        <v>517</v>
+      </c>
       <c r="I4" t="s">
         <v>343</v>
       </c>
@@ -15252,43 +15873,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>520</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>234</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>212</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>393</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>415</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>351</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>402</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>347</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>166</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>171</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>417</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -15320,40 +15944,40 @@
       <c r="L5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>235</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>213</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>394</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>416</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>352</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>348</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>167</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>172</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>178</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>418</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>224</v>
       </c>
     </row>
@@ -15382,37 +16006,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>236</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>384</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>395</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>354</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>92</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>455</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>173</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>179</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>419</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -15438,37 +16062,37 @@
       <c r="L7" t="s">
         <v>308</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>237</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>411</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>396</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>353</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>93</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>456</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>174</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>180</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>420</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>226</v>
       </c>
     </row>
@@ -15494,34 +16118,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>437</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>238</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>397</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>355</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>94</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>168</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>175</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>181</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>421</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>227</v>
       </c>
     </row>
@@ -15547,25 +16171,25 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>438</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>239</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>398</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>356</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>202</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>182</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>513</v>
       </c>
     </row>
@@ -15588,22 +16212,22 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>439</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>240</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>399</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>250</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>183</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>514</v>
       </c>
     </row>
@@ -15626,19 +16250,19 @@
       <c r="L11" t="s">
         <v>511</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>440</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>241</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>251</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>252</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>228</v>
       </c>
     </row>
@@ -15661,25 +16285,25 @@
       <c r="L12" t="s">
         <v>451</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>441</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>242</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>95</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>184</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>515</v>
       </c>
       <c r="D13" t="s">
         <v>334</v>
@@ -15696,25 +16320,25 @@
       <c r="L13" t="s">
         <v>510</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>442</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>247</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>319</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>185</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -15731,22 +16355,22 @@
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>443</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>243</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>96</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
@@ -15760,22 +16384,22 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>444</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>244</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>97</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
         <v>378</v>
@@ -15789,19 +16413,19 @@
       <c r="L16" t="s">
         <v>42</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>245</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>74</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>379</v>
@@ -15812,16 +16436,16 @@
       <c r="J17" t="s">
         <v>83</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>98</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D18" t="s">
         <v>408</v>
@@ -15832,13 +16456,13 @@
       <c r="J18" t="s">
         <v>373</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
@@ -15849,13 +16473,13 @@
       <c r="J19" t="s">
         <v>509</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
@@ -15866,13 +16490,13 @@
       <c r="J20" t="s">
         <v>43</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="D21" t="s">
         <v>249</v>
@@ -15883,13 +16507,13 @@
       <c r="J21" t="s">
         <v>385</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>390</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -15900,13 +16524,13 @@
       <c r="J22" t="s">
         <v>84</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>314</v>
@@ -15917,13 +16541,13 @@
       <c r="J23" t="s">
         <v>450</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>62</v>
@@ -15934,13 +16558,13 @@
       <c r="J24" t="s">
         <v>44</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>458</v>
@@ -15951,13 +16575,13 @@
       <c r="J25" t="s">
         <v>45</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>407</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>218</v>
@@ -15965,13 +16589,13 @@
       <c r="F26" t="s">
         <v>275</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>407</v>
       </c>
       <c r="D27" t="s">
         <v>219</v>
@@ -15979,18 +16603,21 @@
       <c r="F27" t="s">
         <v>259</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>220</v>
+      </c>
       <c r="D28" t="s">
         <v>507</v>
       </c>
       <c r="F28" t="s">
         <v>276</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>108</v>
       </c>
     </row>
@@ -16001,7 +16628,7 @@
       <c r="F29" t="s">
         <v>277</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>109</v>
       </c>
     </row>
@@ -16012,7 +16639,7 @@
       <c r="F30" t="s">
         <v>209</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>110</v>
       </c>
     </row>
@@ -16023,7 +16650,7 @@
       <c r="F31" t="s">
         <v>268</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>111</v>
       </c>
     </row>
@@ -16034,7 +16661,7 @@
       <c r="F32" t="s">
         <v>278</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>112</v>
       </c>
     </row>
@@ -16045,7 +16672,7 @@
       <c r="F33" t="s">
         <v>253</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>113</v>
       </c>
     </row>
@@ -16056,7 +16683,7 @@
       <c r="F34" t="s">
         <v>323</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>203</v>
       </c>
     </row>
@@ -16067,7 +16694,7 @@
       <c r="F35" t="s">
         <v>300</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>114</v>
       </c>
     </row>
@@ -16078,7 +16705,7 @@
       <c r="F36" t="s">
         <v>254</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>331</v>
       </c>
     </row>
@@ -16089,7 +16716,7 @@
       <c r="F37" t="s">
         <v>301</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>445</v>
       </c>
     </row>
@@ -16100,7 +16727,7 @@
       <c r="F38" t="s">
         <v>260</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>386</v>
       </c>
     </row>
@@ -16108,7 +16735,7 @@
       <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>115</v>
       </c>
     </row>
@@ -16116,7 +16743,7 @@
       <c r="F40" t="s">
         <v>205</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>116</v>
       </c>
     </row>
@@ -16124,7 +16751,7 @@
       <c r="F41" t="s">
         <v>282</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -16132,7 +16759,7 @@
       <c r="F42" t="s">
         <v>293</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>118</v>
       </c>
     </row>
@@ -16140,7 +16767,7 @@
       <c r="F43" t="s">
         <v>294</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>119</v>
       </c>
     </row>
@@ -16148,7 +16775,7 @@
       <c r="F44" t="s">
         <v>336</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>120</v>
       </c>
     </row>
@@ -16156,7 +16783,7 @@
       <c r="F45" t="s">
         <v>335</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>452</v>
       </c>
     </row>
@@ -16164,7 +16791,7 @@
       <c r="F46" t="s">
         <v>204</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>206</v>
       </c>
     </row>
@@ -16172,7 +16799,7 @@
       <c r="F47" t="s">
         <v>313</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>76</v>
       </c>
     </row>
@@ -16180,7 +16807,7 @@
       <c r="F48" t="s">
         <v>332</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>121</v>
       </c>
     </row>
@@ -16188,7 +16815,7 @@
       <c r="F49" t="s">
         <v>361</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>122</v>
       </c>
     </row>
@@ -16196,7 +16823,7 @@
       <c r="F50" t="s">
         <v>295</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>123</v>
       </c>
     </row>
@@ -16204,475 +16831,485 @@
       <c r="F51" t="s">
         <v>349</v>
       </c>
-      <c r="V51" t="s">
-        <v>502</v>
+      <c r="W51" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>324</v>
       </c>
-      <c r="V52" t="s">
-        <v>124</v>
+      <c r="W52" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>261</v>
       </c>
-      <c r="V53" t="s">
-        <v>339</v>
+      <c r="W53" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>285</v>
       </c>
-      <c r="V54" t="s">
-        <v>495</v>
+      <c r="W54" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>286</v>
       </c>
-      <c r="V55" t="s">
-        <v>125</v>
+      <c r="W55" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>287</v>
       </c>
-      <c r="V56" t="s">
-        <v>126</v>
+      <c r="W56" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>296</v>
       </c>
-      <c r="V57" t="s">
-        <v>127</v>
+      <c r="W57" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>305</v>
       </c>
-      <c r="V58" t="s">
-        <v>128</v>
+      <c r="W58" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>330</v>
       </c>
-      <c r="V59" t="s">
-        <v>129</v>
+      <c r="W59" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>302</v>
       </c>
-      <c r="V60" t="s">
-        <v>130</v>
+      <c r="W60" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>303</v>
       </c>
-      <c r="V61" t="s">
-        <v>131</v>
+      <c r="W61" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>362</v>
       </c>
-      <c r="V62" t="s">
-        <v>448</v>
+      <c r="W62" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>363</v>
       </c>
-      <c r="V63" t="s">
-        <v>512</v>
+      <c r="W63" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>338</v>
       </c>
-      <c r="V64" t="s">
-        <v>207</v>
+      <c r="W64" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>306</v>
       </c>
-      <c r="V65" t="s">
-        <v>382</v>
+      <c r="W65" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>262</v>
       </c>
-      <c r="V66" t="s">
-        <v>453</v>
+      <c r="W66" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>346</v>
       </c>
-      <c r="V67" t="s">
-        <v>132</v>
+      <c r="W67" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>307</v>
       </c>
-      <c r="V68" t="s">
-        <v>133</v>
+      <c r="W68" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>403</v>
       </c>
-      <c r="V69" t="s">
-        <v>134</v>
+      <c r="W69" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>297</v>
       </c>
-      <c r="V70" t="s">
-        <v>135</v>
+      <c r="W70" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>404</v>
       </c>
-      <c r="V71" t="s">
-        <v>190</v>
+      <c r="W71" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>255</v>
       </c>
-      <c r="V72" t="s">
-        <v>191</v>
+      <c r="W72" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>337</v>
       </c>
-      <c r="V73" t="s">
-        <v>490</v>
+      <c r="W73" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>273</v>
       </c>
-      <c r="V74" t="s">
-        <v>506</v>
+      <c r="W74" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>279</v>
       </c>
-      <c r="V75" t="s">
-        <v>136</v>
+      <c r="W75" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>284</v>
       </c>
-      <c r="V76" t="s">
-        <v>137</v>
+      <c r="W76" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>422</v>
       </c>
-      <c r="V77" t="s">
-        <v>138</v>
+      <c r="W77" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>325</v>
       </c>
-      <c r="V78" t="s">
-        <v>139</v>
+      <c r="W78" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>263</v>
       </c>
-      <c r="V79" t="s">
-        <v>140</v>
+      <c r="W79" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>274</v>
       </c>
-      <c r="V80" t="s">
-        <v>192</v>
+      <c r="W80" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>280</v>
       </c>
-      <c r="V81" t="s">
-        <v>193</v>
+      <c r="W81" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>269</v>
       </c>
-      <c r="V82" t="s">
-        <v>489</v>
+      <c r="W82" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>264</v>
       </c>
-      <c r="V83" t="s">
-        <v>194</v>
+      <c r="W83" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>281</v>
       </c>
-      <c r="V84" t="s">
-        <v>195</v>
+      <c r="W84" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>265</v>
       </c>
-      <c r="V85" t="s">
-        <v>208</v>
+      <c r="W85" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>266</v>
       </c>
-      <c r="V86" t="s">
-        <v>141</v>
+      <c r="W86" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>298</v>
       </c>
-      <c r="V87" t="s">
-        <v>196</v>
+      <c r="W87" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>304</v>
       </c>
-      <c r="V88" t="s">
-        <v>446</v>
+      <c r="W88" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>288</v>
       </c>
-      <c r="V89" t="s">
-        <v>447</v>
+      <c r="W89" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>333</v>
       </c>
-      <c r="V90" t="s">
-        <v>197</v>
+      <c r="W90" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>270</v>
       </c>
-      <c r="V91" t="s">
-        <v>198</v>
+      <c r="W91" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>271</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11475" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11969" uniqueCount="524">
   <si>
     <t>description</t>
   </si>
@@ -1633,6 +1633,9 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1643,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="370" x14ac:knownFonts="1">
+  <fonts count="386" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3977,8 +3980,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="625">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7516,8 +7620,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -14041,6 +14298,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14048,7 +14587,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="396">
+  <cellXfs count="412">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15206,52 +15745,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="356" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="357" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="609" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="359" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="360" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="615" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="615" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="618" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="618" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="369" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16508,7 +17095,7 @@
         <v>385</v>
       </c>
       <c r="W21" t="s">
-        <v>102</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22">

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11969" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12463" uniqueCount="524">
   <si>
     <t>description</t>
   </si>
@@ -1643,7 +1643,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="386" x14ac:knownFonts="1">
+  <fonts count="402" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4081,8 +4081,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="652">
+  <fills count="679">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7773,8 +7874,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="675">
+  <borders count="703">
     <border>
       <left/>
       <right/>
@@ -14580,6 +14834,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14587,7 +15123,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="412">
+  <cellXfs count="428">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15793,52 +16329,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="372" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="633" fontId="373" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="636" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="375" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="376" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="642" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="645" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="385" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -18,38 +18,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12463" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13951" uniqueCount="529">
   <si>
     <t>description</t>
   </si>
@@ -1636,6 +1637,21 @@
   </si>
   <si>
     <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1659,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="402" x14ac:knownFonts="1">
+  <fonts count="450" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4182,8 +4198,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="679">
+  <fills count="760">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8027,8 +8346,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="703">
+  <borders count="787">
     <border>
       <left/>
       <right/>
@@ -8065,6 +8843,852 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -15123,7 +16747,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="428">
+  <cellXfs count="476">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16377,52 +18001,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="654" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="657" fontId="388" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="660" fontId="389" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="663" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="391" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="392" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="672" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="401" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="681" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="684" fontId="404" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="687" fontId="405" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="690" fontId="406" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="407" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="408" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="409" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="413" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="414" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="416" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="417" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="711" fontId="420" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="714" fontId="421" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="717" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="423" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="424" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="723" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="726" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="735" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="738" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="741" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="744" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="750" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="753" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16747,7 +18515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16769,78 +18537,81 @@
         <v>498</v>
       </c>
       <c r="D1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>340</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>326</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>515</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>189</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>232</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>389</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>405</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>406</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>350</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>390</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>407</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -16855,78 +18626,81 @@
         <v>501</v>
       </c>
       <c r="D2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>459</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>505</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>308</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>377</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>436</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>518</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>410</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>423</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>246</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>210</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>391</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>412</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>413</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>374</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>400</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>90</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>164</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>169</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>176</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>425</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -16941,1546 +18715,1558 @@
         <v>500</v>
       </c>
       <c r="D3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E3" t="s">
         <v>493</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>358</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>87</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>516</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>334</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>327</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>85</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>519</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>424</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>233</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>211</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>392</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>414</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>375</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>401</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>91</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>165</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>170</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>357</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>177</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>524</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>
       </c>
       <c r="D4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>380</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>460</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>517</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>343</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>231</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>328</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>520</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>234</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>212</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>393</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>415</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>351</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>402</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>347</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>166</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>171</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>417</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>368</v>
       </c>
       <c r="D5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E5" t="s">
         <v>494</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>449</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>329</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>491</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>344</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>496</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>235</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>213</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>394</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>416</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>352</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>348</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>167</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>172</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>178</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>418</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>369</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>381</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>461</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>341</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>71</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>236</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>384</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>395</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>354</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>92</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>455</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>173</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>179</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>419</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>370</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>217</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>359</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>457</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>308</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>237</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>411</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>396</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>353</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>93</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>456</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>174</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>180</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>420</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>371</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>311</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>360</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>321</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>79</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>437</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>238</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>397</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>355</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>94</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>168</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>175</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>181</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>421</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>372</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>299</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>322</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>438</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>239</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>398</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>356</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>202</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>182</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" t="s">
         <v>308</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>345</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>462</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>383</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>439</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>240</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>399</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>250</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>183</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>248</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>267</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>315</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>511</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>440</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>241</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>251</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>252</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" t="s">
         <v>312</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>256</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>316</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>41</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>451</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>441</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>242</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>95</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>184</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>515</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>334</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>309</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>317</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>80</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>510</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>442</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>247</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>319</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>185</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" t="s">
+        <v>515</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>257</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>318</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>81</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>443</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>243</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>96</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>258</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>492</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>444</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>244</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>97</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
         <v>378</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>310</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>82</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>42</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>245</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>74</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" t="s">
         <v>379</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>88</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>98</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>389</v>
-      </c>
-      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
         <v>408</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>89</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>373</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>405</v>
-      </c>
-      <c r="D19" t="s">
+        <v>389</v>
+      </c>
+      <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>289</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>509</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D20" t="s">
+        <v>405</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>290</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>43</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>350</v>
-      </c>
-      <c r="D21" t="s">
+        <v>406</v>
+      </c>
+      <c r="E21" t="s">
         <v>249</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>291</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>385</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>390</v>
-      </c>
-      <c r="D22" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>292</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>84</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
+        <v>390</v>
+      </c>
+      <c r="E23" t="s">
         <v>314</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>283</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>450</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>272</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>44</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
         <v>458</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>75</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>45</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
         <v>218</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>275</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>407</v>
-      </c>
-      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
         <v>219</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>259</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>407</v>
+      </c>
+      <c r="E28" t="s">
+        <v>507</v>
+      </c>
+      <c r="G28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>220</v>
       </c>
-      <c r="D28" t="s">
-        <v>507</v>
-      </c>
-      <c r="F28" t="s">
-        <v>276</v>
-      </c>
-      <c r="W28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>508</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>277</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>409</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>209</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>63</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>268</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>64</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>278</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>65</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>253</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>66</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>323</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>67</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>300</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>68</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>254</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>69</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>301</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>70</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>260</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>77</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>205</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>282</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>293</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>294</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>336</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>335</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>204</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>313</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>332</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>361</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>295</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>349</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>324</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>261</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>285</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>286</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>287</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>296</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>305</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>330</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>302</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>303</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>362</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>363</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>338</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>306</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>262</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>346</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>307</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>403</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>297</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>404</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>255</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>337</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>273</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>279</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>284</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>422</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>325</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>263</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>274</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>280</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>269</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>264</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>281</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>265</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>266</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>298</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>304</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>288</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>333</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>270</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>271</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -47,7 +47,7 @@
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13951" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14456" uniqueCount="534">
   <si>
     <t>description</t>
   </si>
@@ -1652,6 +1652,21 @@
   </si>
   <si>
     <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1674,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="450" x14ac:knownFonts="1">
+  <fonts count="466" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4501,8 +4516,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="760">
+  <fills count="787">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8805,8 +8921,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="787">
+  <borders count="815">
     <border>
       <left/>
       <right/>
@@ -8843,6 +9112,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -16747,7 +17298,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="476">
+  <cellXfs count="492">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18145,52 +18696,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="433" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="735" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="735" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="435" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="738" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="738" fontId="436" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="741" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="741" fontId="437" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="744" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="744" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="439" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="440" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="750" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="750" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="753" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="753" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="446" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="449" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="762" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="765" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="768" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="771" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="777" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="780" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18701,7 +19300,7 @@
         <v>425</v>
       </c>
       <c r="AC2" t="s">
-        <v>221</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3">
@@ -18784,7 +19383,7 @@
         <v>177</v>
       </c>
       <c r="AC3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4">
@@ -18864,7 +19463,7 @@
         <v>417</v>
       </c>
       <c r="AC4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5">
@@ -18932,7 +19531,7 @@
         <v>418</v>
       </c>
       <c r="AC5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6">
@@ -18991,7 +19590,7 @@
         <v>419</v>
       </c>
       <c r="AC6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7">
@@ -19047,7 +19646,7 @@
         <v>420</v>
       </c>
       <c r="AC7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8">
@@ -19100,7 +19699,7 @@
         <v>421</v>
       </c>
       <c r="AC8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9">
@@ -19144,7 +19743,7 @@
         <v>182</v>
       </c>
       <c r="AC9" t="s">
-        <v>513</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10">
@@ -19182,7 +19781,7 @@
         <v>183</v>
       </c>
       <c r="AC10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11">
@@ -19217,7 +19816,7 @@
         <v>252</v>
       </c>
       <c r="AC11" t="s">
-        <v>228</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12">
@@ -19252,7 +19851,7 @@
         <v>184</v>
       </c>
       <c r="AC12" t="s">
-        <v>229</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13">
@@ -19287,7 +19886,7 @@
         <v>185</v>
       </c>
       <c r="AC13" t="s">
-        <v>230</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14">
@@ -19321,6 +19920,9 @@
       <c r="AA14" t="s">
         <v>186</v>
       </c>
+      <c r="AC14" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -19350,6 +19952,9 @@
       <c r="AA15" t="s">
         <v>187</v>
       </c>
+      <c r="AC15" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -19376,6 +19981,9 @@
       <c r="AA16" t="s">
         <v>188</v>
       </c>
+      <c r="AC16" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -19396,6 +20004,9 @@
       <c r="AA17" t="s">
         <v>497</v>
       </c>
+      <c r="AC17" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -19412,6 +20023,9 @@
       </c>
       <c r="X18" t="s">
         <v>99</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="19">

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14456" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14965" uniqueCount="538">
   <si>
     <t>description</t>
   </si>
@@ -1667,6 +1667,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1686,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="466" x14ac:knownFonts="1">
+  <fonts count="482" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4617,8 +4629,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="787">
+  <fills count="814">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9074,8 +9187,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="815">
+  <borders count="843">
     <border>
       <left/>
       <right/>
@@ -9112,6 +9378,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -17298,7 +17846,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="492">
+  <cellXfs count="508">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18744,52 +19292,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="449" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="762" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="762" fontId="450" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="765" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="765" fontId="452" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="768" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="768" fontId="453" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="771" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="771" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="455" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="456" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="777" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="777" fontId="458" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="780" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="780" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="460" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="461" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="462" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="463" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="464" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="465" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="789" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="792" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="795" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="798" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="804" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="807" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19114,7 +19710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19886,7 +20482,7 @@
         <v>185</v>
       </c>
       <c r="AC13" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14">
@@ -19921,7 +20517,7 @@
         <v>186</v>
       </c>
       <c r="AC14" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15">
@@ -19953,7 +20549,7 @@
         <v>187</v>
       </c>
       <c r="AC15" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16">
@@ -19982,7 +20578,7 @@
         <v>188</v>
       </c>
       <c r="AC16" t="s">
-        <v>228</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17">
@@ -20005,7 +20601,7 @@
         <v>497</v>
       </c>
       <c r="AC17" t="s">
-        <v>229</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18">
@@ -20025,7 +20621,7 @@
         <v>99</v>
       </c>
       <c r="AC18" t="s">
-        <v>230</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19">
@@ -20044,6 +20640,9 @@
       <c r="X19" t="s">
         <v>100</v>
       </c>
+      <c r="AC19" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -20061,6 +20660,9 @@
       <c r="X20" t="s">
         <v>101</v>
       </c>
+      <c r="AC20" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -20078,6 +20680,9 @@
       <c r="X21" t="s">
         <v>523</v>
       </c>
+      <c r="AC21" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -20627,7 +21232,7 @@
         <v>263</v>
       </c>
       <c r="X79" t="s">
-        <v>139</v>
+        <v>534</v>
       </c>
     </row>
     <row r="80">
@@ -20635,7 +21240,7 @@
         <v>274</v>
       </c>
       <c r="X80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81">
@@ -20643,7 +21248,7 @@
         <v>280</v>
       </c>
       <c r="X81" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82">
@@ -20651,7 +21256,7 @@
         <v>269</v>
       </c>
       <c r="X82" t="s">
-        <v>522</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83">
@@ -20659,7 +21264,7 @@
         <v>264</v>
       </c>
       <c r="X83" t="s">
-        <v>193</v>
+        <v>522</v>
       </c>
     </row>
     <row r="84">
@@ -20667,7 +21272,7 @@
         <v>281</v>
       </c>
       <c r="X84" t="s">
-        <v>489</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85">
@@ -20675,7 +21280,7 @@
         <v>265</v>
       </c>
       <c r="X85" t="s">
-        <v>194</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86">
@@ -20683,7 +21288,7 @@
         <v>266</v>
       </c>
       <c r="X86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87">
@@ -20691,7 +21296,7 @@
         <v>298</v>
       </c>
       <c r="X87" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
@@ -20699,7 +21304,7 @@
         <v>304</v>
       </c>
       <c r="X88" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -20707,7 +21312,7 @@
         <v>288</v>
       </c>
       <c r="X89" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90">
@@ -20715,7 +21320,7 @@
         <v>333</v>
       </c>
       <c r="X90" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91">
@@ -20723,7 +21328,7 @@
         <v>270</v>
       </c>
       <c r="X91" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92">
@@ -20731,156 +21336,161 @@
         <v>271</v>
       </c>
       <c r="X92" t="s">
-        <v>197</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -33,7 +33,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14965" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15986" uniqueCount="541">
   <si>
     <t>description</t>
   </si>
@@ -1679,6 +1679,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1695,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="482" x14ac:knownFonts="1">
+  <fonts count="514" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4730,8 +4739,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="814">
+  <fills count="868">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9340,8 +9551,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="843">
+  <borders count="899">
     <border>
       <left/>
       <right/>
@@ -9378,6 +9895,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -17846,7 +18927,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="508">
+  <cellXfs count="540">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19340,52 +20421,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="465" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="789" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="789" fontId="466" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="792" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="792" fontId="468" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="795" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="795" fontId="469" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="798" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="798" fontId="470" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="471" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="472" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="473" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="804" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="804" fontId="474" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="807" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="807" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="477" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="478" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="480" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="481" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="816" fontId="482" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="819" fontId="484" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="822" fontId="485" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="825" fontId="486" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="487" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="488" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="489" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="831" fontId="490" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="834" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="492" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="493" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="494" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="495" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="496" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="497" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19710,7 +20887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20537,7 +21714,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>444</v>
+        <v>538</v>
       </c>
       <c r="Q15" t="s">
         <v>244</v>
@@ -20568,6 +21745,9 @@
       <c r="M16" t="s">
         <v>42</v>
       </c>
+      <c r="P16" t="s">
+        <v>539</v>
+      </c>
       <c r="Q16" t="s">
         <v>245</v>
       </c>
@@ -20595,7 +21775,7 @@
         <v>83</v>
       </c>
       <c r="X17" t="s">
-        <v>98</v>
+        <v>540</v>
       </c>
       <c r="AA17" t="s">
         <v>497</v>
@@ -20618,7 +21798,7 @@
         <v>373</v>
       </c>
       <c r="X18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC18" t="s">
         <v>537</v>
@@ -20638,7 +21818,7 @@
         <v>509</v>
       </c>
       <c r="X19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC19" t="s">
         <v>228</v>
@@ -20658,7 +21838,7 @@
         <v>43</v>
       </c>
       <c r="X20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC20" t="s">
         <v>229</v>
@@ -20678,7 +21858,7 @@
         <v>385</v>
       </c>
       <c r="X21" t="s">
-        <v>523</v>
+        <v>101</v>
       </c>
       <c r="AC21" t="s">
         <v>230</v>
@@ -20698,7 +21878,7 @@
         <v>84</v>
       </c>
       <c r="X22" t="s">
-        <v>103</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23">
@@ -20715,7 +21895,7 @@
         <v>450</v>
       </c>
       <c r="X23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
@@ -20732,7 +21912,7 @@
         <v>44</v>
       </c>
       <c r="X24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
@@ -20749,7 +21929,7 @@
         <v>45</v>
       </c>
       <c r="X25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -20763,7 +21943,7 @@
         <v>275</v>
       </c>
       <c r="X26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
@@ -20777,7 +21957,7 @@
         <v>259</v>
       </c>
       <c r="X27" t="s">
-        <v>320</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
@@ -20791,7 +21971,7 @@
         <v>276</v>
       </c>
       <c r="X28" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29">
@@ -20805,7 +21985,7 @@
         <v>277</v>
       </c>
       <c r="X29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -20816,7 +21996,7 @@
         <v>209</v>
       </c>
       <c r="X30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -20827,7 +22007,7 @@
         <v>268</v>
       </c>
       <c r="X31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -20838,7 +22018,7 @@
         <v>278</v>
       </c>
       <c r="X32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -20849,7 +22029,7 @@
         <v>253</v>
       </c>
       <c r="X33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -20860,7 +22040,7 @@
         <v>323</v>
       </c>
       <c r="X34" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -20871,7 +22051,7 @@
         <v>300</v>
       </c>
       <c r="X35" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36">
@@ -20882,7 +22062,7 @@
         <v>254</v>
       </c>
       <c r="X36" t="s">
-        <v>331</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
@@ -20893,7 +22073,7 @@
         <v>301</v>
       </c>
       <c r="X37" t="s">
-        <v>445</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
@@ -20904,7 +22084,7 @@
         <v>260</v>
       </c>
       <c r="X38" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39">
@@ -20912,7 +22092,7 @@
         <v>77</v>
       </c>
       <c r="X39" t="s">
-        <v>115</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40">
@@ -20920,7 +22100,7 @@
         <v>205</v>
       </c>
       <c r="X40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41">
@@ -20928,7 +22108,7 @@
         <v>282</v>
       </c>
       <c r="X41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42">
@@ -20936,7 +22116,7 @@
         <v>293</v>
       </c>
       <c r="X42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43">
@@ -20944,7 +22124,7 @@
         <v>294</v>
       </c>
       <c r="X43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
@@ -20952,7 +22132,7 @@
         <v>336</v>
       </c>
       <c r="X44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
@@ -20960,7 +22140,7 @@
         <v>335</v>
       </c>
       <c r="X45" t="s">
-        <v>452</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -20968,7 +22148,7 @@
         <v>204</v>
       </c>
       <c r="X46" t="s">
-        <v>206</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47">
@@ -20976,7 +22156,7 @@
         <v>313</v>
       </c>
       <c r="X47" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48">
@@ -20984,7 +22164,7 @@
         <v>332</v>
       </c>
       <c r="X48" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
@@ -20992,7 +22172,7 @@
         <v>361</v>
       </c>
       <c r="X49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
@@ -21000,7 +22180,7 @@
         <v>295</v>
       </c>
       <c r="X50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
@@ -21008,7 +22188,7 @@
         <v>349</v>
       </c>
       <c r="X51" t="s">
-        <v>521</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
@@ -21016,7 +22196,7 @@
         <v>324</v>
       </c>
       <c r="X52" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
     </row>
     <row r="53">
@@ -21024,7 +22204,7 @@
         <v>261</v>
       </c>
       <c r="X53" t="s">
-        <v>124</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54">
@@ -21032,7 +22212,7 @@
         <v>285</v>
       </c>
       <c r="X54" t="s">
-        <v>339</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -21040,7 +22220,7 @@
         <v>286</v>
       </c>
       <c r="X55" t="s">
-        <v>495</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56">
@@ -21048,7 +22228,7 @@
         <v>287</v>
       </c>
       <c r="X56" t="s">
-        <v>125</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57">
@@ -21056,7 +22236,7 @@
         <v>296</v>
       </c>
       <c r="X57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
@@ -21064,7 +22244,7 @@
         <v>305</v>
       </c>
       <c r="X58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
@@ -21072,7 +22252,7 @@
         <v>330</v>
       </c>
       <c r="X59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
@@ -21080,7 +22260,7 @@
         <v>302</v>
       </c>
       <c r="X60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61">
@@ -21088,7 +22268,7 @@
         <v>303</v>
       </c>
       <c r="X61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
@@ -21096,7 +22276,7 @@
         <v>362</v>
       </c>
       <c r="X62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63">
@@ -21104,7 +22284,7 @@
         <v>363</v>
       </c>
       <c r="X63" t="s">
-        <v>448</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
@@ -21112,7 +22292,7 @@
         <v>338</v>
       </c>
       <c r="X64" t="s">
-        <v>512</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65">
@@ -21120,7 +22300,7 @@
         <v>306</v>
       </c>
       <c r="X65" t="s">
-        <v>207</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66">
@@ -21128,7 +22308,7 @@
         <v>262</v>
       </c>
       <c r="X66" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67">
@@ -21136,7 +22316,7 @@
         <v>346</v>
       </c>
       <c r="X67" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68">
@@ -21144,7 +22324,7 @@
         <v>307</v>
       </c>
       <c r="X68" t="s">
-        <v>132</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69">
@@ -21152,7 +22332,7 @@
         <v>403</v>
       </c>
       <c r="X69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70">
@@ -21160,7 +22340,7 @@
         <v>297</v>
       </c>
       <c r="X70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71">
@@ -21168,7 +22348,7 @@
         <v>404</v>
       </c>
       <c r="X71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72">
@@ -21176,7 +22356,7 @@
         <v>255</v>
       </c>
       <c r="X72" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73">
@@ -21184,7 +22364,7 @@
         <v>337</v>
       </c>
       <c r="X73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74">
@@ -21192,7 +22372,7 @@
         <v>273</v>
       </c>
       <c r="X74" t="s">
-        <v>490</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75">
@@ -21200,7 +22380,7 @@
         <v>279</v>
       </c>
       <c r="X75" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76">
@@ -21208,7 +22388,7 @@
         <v>284</v>
       </c>
       <c r="X76" t="s">
-        <v>136</v>
+        <v>506</v>
       </c>
     </row>
     <row r="77">
@@ -21216,7 +22396,7 @@
         <v>422</v>
       </c>
       <c r="X77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78">
@@ -21224,7 +22404,7 @@
         <v>325</v>
       </c>
       <c r="X78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79">
@@ -21232,7 +22412,7 @@
         <v>263</v>
       </c>
       <c r="X79" t="s">
-        <v>534</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80">
@@ -21240,7 +22420,7 @@
         <v>274</v>
       </c>
       <c r="X80" t="s">
-        <v>139</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81">
@@ -21248,7 +22428,7 @@
         <v>280</v>
       </c>
       <c r="X81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
@@ -21256,7 +22436,7 @@
         <v>269</v>
       </c>
       <c r="X82" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
@@ -21264,7 +22444,7 @@
         <v>264</v>
       </c>
       <c r="X83" t="s">
-        <v>522</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84">
@@ -21272,7 +22452,7 @@
         <v>281</v>
       </c>
       <c r="X84" t="s">
-        <v>193</v>
+        <v>522</v>
       </c>
     </row>
     <row r="85">
@@ -21280,7 +22460,7 @@
         <v>265</v>
       </c>
       <c r="X85" t="s">
-        <v>489</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86">
@@ -21288,7 +22468,7 @@
         <v>266</v>
       </c>
       <c r="X86" t="s">
-        <v>194</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87">
@@ -21296,7 +22476,7 @@
         <v>298</v>
       </c>
       <c r="X87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88">
@@ -21304,7 +22484,7 @@
         <v>304</v>
       </c>
       <c r="X88" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89">
@@ -21312,7 +22492,7 @@
         <v>288</v>
       </c>
       <c r="X89" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -21320,7 +22500,7 @@
         <v>333</v>
       </c>
       <c r="X90" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91">
@@ -21328,7 +22508,7 @@
         <v>270</v>
       </c>
       <c r="X91" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92">
@@ -21336,161 +22516,166 @@
         <v>271</v>
       </c>
       <c r="X92" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>197</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15986" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17009" uniqueCount="542">
   <si>
     <t>description</t>
   </si>
@@ -1688,6 +1688,9 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1698,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="514" x14ac:knownFonts="1">
+  <fonts count="546" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4941,8 +4944,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="868">
+  <fills count="922">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9857,8 +10062,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="899">
+  <borders count="955">
     <border>
       <left/>
       <right/>
@@ -9895,6 +10406,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -18927,7 +20002,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="540">
+  <cellXfs count="572">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20517,52 +21592,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="497" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="843" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="846" fontId="500" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="849" fontId="501" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="852" fontId="502" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="503" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="504" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="505" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="858" fontId="506" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="861" fontId="507" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="508" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="509" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="510" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="513" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="870" fontId="514" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="515" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="873" fontId="516" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="876" fontId="517" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="879" fontId="518" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="519" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="520" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="521" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="885" fontId="522" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="888" fontId="523" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="524" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="525" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="526" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="527" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="528" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="529" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20887,7 +22058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22556,126 +23727,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>142</v>
+        <v>541</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17009" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17525" uniqueCount="546">
   <si>
     <t>description</t>
   </si>
@@ -1691,6 +1691,18 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1710,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="546" x14ac:knownFonts="1">
+  <fonts count="562" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5146,8 +5158,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="922">
+  <fills count="949">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10368,8 +10481,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="955">
+  <borders count="983">
     <border>
       <left/>
       <right/>
@@ -10406,6 +10672,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -20002,7 +20550,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="572">
+  <cellXfs count="588">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21688,52 +22236,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="529" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="897" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="900" fontId="532" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="903" fontId="533" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="906" fontId="534" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="535" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="536" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="537" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="912" fontId="538" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="915" fontId="539" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="541" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="542" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="543" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="544" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="545" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22488,6 +23084,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>542</v>
+      </c>
       <c r="G6" t="s">
         <v>381</v>
       </c>
@@ -22610,7 +23209,7 @@
         <v>321</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -22663,7 +23262,7 @@
         <v>322</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -22704,7 +23303,7 @@
         <v>462</v>
       </c>
       <c r="K10" t="s">
-        <v>383</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -22742,7 +23341,7 @@
         <v>315</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>544</v>
       </c>
       <c r="M11" t="s">
         <v>511</v>
@@ -22777,7 +23376,7 @@
         <v>316</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="M12" t="s">
         <v>451</v>
@@ -22812,7 +23411,7 @@
         <v>317</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>510</v>
@@ -22847,7 +23446,7 @@
         <v>318</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -22879,7 +23478,7 @@
         <v>258</v>
       </c>
       <c r="K15" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -22911,7 +23510,7 @@
         <v>310</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s">
         <v>42</v>
@@ -22943,7 +23542,7 @@
         <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s">
         <v>540</v>
@@ -22966,7 +23565,7 @@
         <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>373</v>
+        <v>492</v>
       </c>
       <c r="X18" t="s">
         <v>98</v>
@@ -22986,7 +23585,7 @@
         <v>289</v>
       </c>
       <c r="K19" t="s">
-        <v>509</v>
+        <v>82</v>
       </c>
       <c r="X19" t="s">
         <v>99</v>
@@ -23006,7 +23605,7 @@
         <v>290</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="X20" t="s">
         <v>100</v>
@@ -23026,7 +23625,7 @@
         <v>291</v>
       </c>
       <c r="K21" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="X21" t="s">
         <v>101</v>
@@ -23046,7 +23645,7 @@
         <v>292</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>509</v>
       </c>
       <c r="X22" t="s">
         <v>523</v>
@@ -23063,7 +23662,7 @@
         <v>283</v>
       </c>
       <c r="K23" t="s">
-        <v>450</v>
+        <v>43</v>
       </c>
       <c r="X23" t="s">
         <v>103</v>
@@ -23080,7 +23679,7 @@
         <v>272</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="X24" t="s">
         <v>104</v>
@@ -23097,7 +23696,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="X25" t="s">
         <v>105</v>
@@ -23113,6 +23712,9 @@
       <c r="G26" t="s">
         <v>275</v>
       </c>
+      <c r="K26" t="s">
+        <v>450</v>
+      </c>
       <c r="X26" t="s">
         <v>106</v>
       </c>
@@ -23127,6 +23729,9 @@
       <c r="G27" t="s">
         <v>259</v>
       </c>
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
       <c r="X27" t="s">
         <v>107</v>
       </c>
@@ -23140,6 +23745,9 @@
       </c>
       <c r="G28" t="s">
         <v>276</v>
+      </c>
+      <c r="K28" t="s">
+        <v>45</v>
       </c>
       <c r="X28" t="s">
         <v>320</v>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -22,7 +22,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17525" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18043" uniqueCount="548">
   <si>
     <t>description</t>
   </si>
@@ -1703,6 +1703,12 @@
   </si>
   <si>
     <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1716,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="562" x14ac:knownFonts="1">
+  <fonts count="578" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5259,8 +5265,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="949">
+  <fills count="976">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10634,8 +10741,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="983">
+  <borders count="1011">
     <border>
       <left/>
       <right/>
@@ -10672,6 +10932,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -20550,7 +21092,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="588">
+  <cellXfs count="604">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22284,52 +22826,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="545" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="924" fontId="546" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="927" fontId="548" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="930" fontId="549" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="933" fontId="550" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="551" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="552" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="553" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="939" fontId="554" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="942" fontId="555" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="556" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="556" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="557" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="557" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="558" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="558" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="948" fontId="559" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="560" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="560" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="561" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="951" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="954" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="957" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="960" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="966" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="969" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23805,7 +24395,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>253</v>
+        <v>546</v>
       </c>
       <c r="X33" t="s">
         <v>112</v>
@@ -23816,7 +24406,7 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="X34" t="s">
         <v>113</v>
@@ -23827,7 +24417,7 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="X35" t="s">
         <v>203</v>
@@ -23838,7 +24428,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="X36" t="s">
         <v>114</v>
@@ -23849,7 +24439,7 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="X37" t="s">
         <v>331</v>
@@ -23860,7 +24450,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="X38" t="s">
         <v>445</v>
@@ -23868,7 +24458,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="X39" t="s">
         <v>386</v>
@@ -23876,7 +24466,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s">
         <v>115</v>
@@ -23884,7 +24474,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="X41" t="s">
         <v>116</v>
@@ -23892,7 +24482,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="X42" t="s">
         <v>117</v>
@@ -23900,7 +24490,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X43" t="s">
         <v>118</v>
@@ -23908,7 +24498,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="X44" t="s">
         <v>119</v>
@@ -23916,7 +24506,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="X45" t="s">
         <v>120</v>
@@ -23924,7 +24514,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>204</v>
+        <v>335</v>
       </c>
       <c r="X46" t="s">
         <v>452</v>
@@ -23932,7 +24522,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>313</v>
+        <v>204</v>
       </c>
       <c r="X47" t="s">
         <v>206</v>
@@ -23940,7 +24530,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="X48" t="s">
         <v>76</v>
@@ -23948,7 +24538,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="X49" t="s">
         <v>121</v>
@@ -23956,7 +24546,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="X50" t="s">
         <v>122</v>
@@ -23964,7 +24554,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="X51" t="s">
         <v>123</v>
@@ -23972,7 +24562,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="X52" t="s">
         <v>521</v>
@@ -23980,7 +24570,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="X53" t="s">
         <v>502</v>
@@ -23988,7 +24578,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="X54" t="s">
         <v>124</v>
@@ -23996,7 +24586,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X55" t="s">
         <v>339</v>
@@ -24004,7 +24594,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X56" t="s">
         <v>495</v>
@@ -24012,7 +24602,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="X57" t="s">
         <v>125</v>
@@ -24020,7 +24610,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="X58" t="s">
         <v>126</v>
@@ -24028,7 +24618,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="X59" t="s">
         <v>127</v>
@@ -24036,7 +24626,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="X60" t="s">
         <v>128</v>
@@ -24044,7 +24634,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X61" t="s">
         <v>129</v>
@@ -24052,7 +24642,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="X62" t="s">
         <v>130</v>
@@ -24060,7 +24650,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X63" t="s">
         <v>131</v>
@@ -24068,7 +24658,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="X64" t="s">
         <v>448</v>
@@ -24076,7 +24666,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="X65" t="s">
         <v>512</v>
@@ -24084,7 +24674,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="X66" t="s">
         <v>207</v>
@@ -24092,7 +24682,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="X67" t="s">
         <v>382</v>
@@ -24100,7 +24690,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="X68" t="s">
         <v>453</v>
@@ -24108,7 +24698,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="X69" t="s">
         <v>132</v>
@@ -24116,7 +24706,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>297</v>
+        <v>403</v>
       </c>
       <c r="X70" t="s">
         <v>133</v>
@@ -24124,7 +24714,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>404</v>
+        <v>297</v>
       </c>
       <c r="X71" t="s">
         <v>134</v>
@@ -24132,7 +24722,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>255</v>
+        <v>404</v>
       </c>
       <c r="X72" t="s">
         <v>135</v>
@@ -24140,7 +24730,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="X73" t="s">
         <v>190</v>
@@ -24148,7 +24738,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>273</v>
+        <v>547</v>
       </c>
       <c r="X74" t="s">
         <v>191</v>
@@ -24156,7 +24746,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="X75" t="s">
         <v>490</v>
@@ -24164,7 +24754,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="X76" t="s">
         <v>506</v>
@@ -24172,7 +24762,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>422</v>
+        <v>279</v>
       </c>
       <c r="X77" t="s">
         <v>136</v>
@@ -24180,7 +24770,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="X78" t="s">
         <v>137</v>
@@ -24188,7 +24778,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>263</v>
+        <v>422</v>
       </c>
       <c r="X79" t="s">
         <v>138</v>
@@ -24196,7 +24786,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="X80" t="s">
         <v>534</v>
@@ -24204,7 +24794,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="X81" t="s">
         <v>139</v>
@@ -24212,7 +24802,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="X82" t="s">
         <v>140</v>
@@ -24220,7 +24810,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="X83" t="s">
         <v>192</v>
@@ -24228,7 +24818,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="X84" t="s">
         <v>522</v>
@@ -24236,7 +24826,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X85" t="s">
         <v>193</v>
@@ -24244,7 +24834,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="X86" t="s">
         <v>489</v>
@@ -24252,7 +24842,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="X87" t="s">
         <v>194</v>
@@ -24260,7 +24850,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="X88" t="s">
         <v>195</v>
@@ -24268,7 +24858,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="X89" t="s">
         <v>208</v>
@@ -24276,7 +24866,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="X90" t="s">
         <v>141</v>
@@ -24284,7 +24874,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="X91" t="s">
         <v>196</v>
@@ -24292,18 +24882,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="X92" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>270</v>
+      </c>
       <c r="X93" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>271</v>
+      </c>
       <c r="X94" t="s">
         <v>197</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18043" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19083" uniqueCount="550">
   <si>
     <t>description</t>
   </si>
@@ -1709,6 +1709,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1722,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="578" x14ac:knownFonts="1">
+  <fonts count="610" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5366,8 +5372,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="976">
+  <fills count="1036">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10894,8 +11102,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1011">
+  <borders count="1067">
     <border>
       <left/>
       <right/>
@@ -10932,6 +11480,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -21092,7 +22204,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="604">
+  <cellXfs count="636">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22874,52 +23986,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="561" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="562" fillId="951" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="951" fontId="562" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="563" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="564" fillId="954" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="954" fontId="564" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="565" fillId="957" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="957" fontId="565" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="566" fillId="960" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="960" fontId="566" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="567" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="567" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="568" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="568" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="569" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="569" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="570" fillId="966" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="966" fontId="570" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="571" fillId="969" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="969" fontId="571" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="572" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="972" fontId="572" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="573" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="972" fontId="573" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="574" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="574" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="575" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="975" fontId="575" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="576" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="576" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="577" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="978" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="981" fontId="580" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="984" fontId="581" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="987" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="583" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="990" fontId="584" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="585" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="993" fontId="586" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="996" fontId="587" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="999" fontId="588" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="999" fontId="589" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="590" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="591" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="592" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1005" fontId="593" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="1008" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="1011" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="1014" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="1017" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="1020" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="1023" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="1026" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="1029" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="1029" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="1032" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="1035" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23244,7 +24452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -24936,126 +26144,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>142</v>
+        <v>548</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>143</v>
+        <v>549</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>144</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>454</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>157</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -29,28 +29,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19083" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19611" uniqueCount="557">
   <si>
     <t>description</t>
   </si>
@@ -1715,6 +1716,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1744,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="610" x14ac:knownFonts="1">
+  <fonts count="626" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5574,8 +5596,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1036">
+  <fills count="1066">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11442,8 +11565,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1067">
+  <borders count="1095">
     <border>
       <left/>
       <right/>
@@ -11480,6 +11773,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -22204,7 +22779,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="636">
+  <cellXfs count="652">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24082,52 +24657,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1005" fontId="593" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="594" fillId="1008" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="1008" fontId="594" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="595" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="596" fillId="1011" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1011" fontId="596" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="597" fillId="1014" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1014" fontId="597" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="598" fillId="1017" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1017" fontId="598" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="599" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="599" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="600" fillId="1020" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1020" fontId="600" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="602" fillId="1023" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="603" fillId="1026" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="604" fillId="1029" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="605" fillId="1029" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="606" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="607" fillId="1032" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="608" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="609" fillId="1035" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="601" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1023" fontId="602" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1026" fontId="603" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1029" fontId="604" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1029" fontId="605" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="606" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1032" fontId="607" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="608" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1035" fontId="609" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="1038" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="1041" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="1044" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="1047" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1050" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1053" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="1056" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1059" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="1059" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="1047" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="1062" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="1047" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="1065" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24452,7 +25075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -24504,51 +25127,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>550</v>
+      </c>
+      <c r="O1" t="s">
         <v>515</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>189</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>232</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>389</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>405</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>406</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>350</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>390</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>407</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -24593,51 +25219,54 @@
         <v>436</v>
       </c>
       <c r="N2" t="s">
+        <v>551</v>
+      </c>
+      <c r="O2" t="s">
         <v>518</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>410</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>423</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>246</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>210</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>391</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>412</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>413</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>374</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>400</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>90</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>164</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>176</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>425</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -24682,45 +25311,48 @@
         <v>85</v>
       </c>
       <c r="N3" t="s">
+        <v>552</v>
+      </c>
+      <c r="O3" t="s">
         <v>519</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>424</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>233</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>211</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>392</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>414</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>375</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>401</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>91</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>165</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>357</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>177</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -24762,45 +25394,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>553</v>
+      </c>
+      <c r="O4" t="s">
         <v>520</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>234</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>212</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>393</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>415</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>351</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>402</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>347</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>166</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>417</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -24835,40 +25470,43 @@
       <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>235</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>213</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>394</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>416</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>352</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>348</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>167</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>418</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -24900,37 +25538,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>236</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>384</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>395</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>354</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>92</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>455</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>173</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>179</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>419</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -24956,37 +25597,40 @@
       <c r="M7" t="s">
         <v>308</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>237</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>411</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>396</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>353</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>93</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>456</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>174</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>420</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>225</v>
       </c>
     </row>
@@ -25012,34 +25656,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>437</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>238</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>397</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>355</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>94</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>168</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>175</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>421</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>226</v>
       </c>
     </row>
@@ -25065,25 +25709,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>438</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>239</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>398</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>356</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>202</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>182</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>227</v>
       </c>
     </row>
@@ -25106,22 +25750,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>439</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>240</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>399</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>250</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>183</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>513</v>
       </c>
     </row>
@@ -25144,19 +25788,19 @@
       <c r="M11" t="s">
         <v>511</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>440</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>241</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>251</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>252</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>530</v>
       </c>
     </row>
@@ -25179,19 +25823,19 @@
       <c r="M12" t="s">
         <v>451</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>441</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>242</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>95</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>184</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>531</v>
       </c>
     </row>
@@ -25214,25 +25858,25 @@
       <c r="M13" t="s">
         <v>510</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>442</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>247</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>319</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>185</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -25249,25 +25893,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>443</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>243</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>96</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>186</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>515</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
@@ -25281,25 +25925,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>538</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>244</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>97</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>187</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
         <v>378</v>
@@ -25313,25 +25957,25 @@
       <c r="M16" t="s">
         <v>42</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>539</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>245</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>74</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>188</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>379</v>
@@ -25342,19 +25986,19 @@
       <c r="K17" t="s">
         <v>81</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>540</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>497</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="E18" t="s">
         <v>408</v>
@@ -25365,16 +26009,16 @@
       <c r="K18" t="s">
         <v>492</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>98</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>389</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
@@ -25385,16 +26029,16 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>99</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -25405,16 +26049,16 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>100</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E21" t="s">
         <v>249</v>
@@ -25425,16 +26069,16 @@
       <c r="K21" t="s">
         <v>373</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>101</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
@@ -25445,13 +26089,13 @@
       <c r="K22" t="s">
         <v>509</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="E23" t="s">
         <v>314</v>
@@ -25462,13 +26106,13 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>390</v>
       </c>
       <c r="E24" t="s">
         <v>62</v>
@@ -25479,13 +26123,13 @@
       <c r="K24" t="s">
         <v>385</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>458</v>
@@ -25496,13 +26140,13 @@
       <c r="K25" t="s">
         <v>84</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>218</v>
@@ -25513,13 +26157,13 @@
       <c r="K26" t="s">
         <v>450</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>219</v>
@@ -25530,13 +26174,13 @@
       <c r="K27" t="s">
         <v>44</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>407</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>507</v>
@@ -25547,13 +26191,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>407</v>
       </c>
       <c r="E29" t="s">
         <v>508</v>
@@ -25561,18 +26205,21 @@
       <c r="G29" t="s">
         <v>277</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>220</v>
+      </c>
       <c r="E30" t="s">
         <v>409</v>
       </c>
       <c r="G30" t="s">
         <v>209</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>109</v>
       </c>
     </row>
@@ -25583,7 +26230,7 @@
       <c r="G31" t="s">
         <v>268</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>110</v>
       </c>
     </row>
@@ -25594,7 +26241,7 @@
       <c r="G32" t="s">
         <v>278</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>111</v>
       </c>
     </row>
@@ -25605,7 +26252,7 @@
       <c r="G33" t="s">
         <v>546</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>112</v>
       </c>
     </row>
@@ -25616,7 +26263,7 @@
       <c r="G34" t="s">
         <v>253</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>113</v>
       </c>
     </row>
@@ -25627,7 +26274,7 @@
       <c r="G35" t="s">
         <v>323</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>203</v>
       </c>
     </row>
@@ -25638,7 +26285,7 @@
       <c r="G36" t="s">
         <v>300</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>114</v>
       </c>
     </row>
@@ -25649,7 +26296,7 @@
       <c r="G37" t="s">
         <v>254</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>331</v>
       </c>
     </row>
@@ -25660,7 +26307,7 @@
       <c r="G38" t="s">
         <v>301</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>445</v>
       </c>
     </row>
@@ -25668,7 +26315,7 @@
       <c r="G39" t="s">
         <v>260</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>386</v>
       </c>
     </row>
@@ -25676,7 +26323,7 @@
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -25684,7 +26331,7 @@
       <c r="G41" t="s">
         <v>205</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>116</v>
       </c>
     </row>
@@ -25692,7 +26339,7 @@
       <c r="G42" t="s">
         <v>282</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>117</v>
       </c>
     </row>
@@ -25700,7 +26347,7 @@
       <c r="G43" t="s">
         <v>293</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>118</v>
       </c>
     </row>
@@ -25708,7 +26355,7 @@
       <c r="G44" t="s">
         <v>294</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>119</v>
       </c>
     </row>
@@ -25716,7 +26363,7 @@
       <c r="G45" t="s">
         <v>336</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>120</v>
       </c>
     </row>
@@ -25724,7 +26371,7 @@
       <c r="G46" t="s">
         <v>335</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>452</v>
       </c>
     </row>
@@ -25732,7 +26379,7 @@
       <c r="G47" t="s">
         <v>204</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>206</v>
       </c>
     </row>
@@ -25740,7 +26387,7 @@
       <c r="G48" t="s">
         <v>313</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -25748,7 +26395,7 @@
       <c r="G49" t="s">
         <v>332</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>121</v>
       </c>
     </row>
@@ -25756,7 +26403,7 @@
       <c r="G50" t="s">
         <v>361</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>122</v>
       </c>
     </row>
@@ -25764,7 +26411,7 @@
       <c r="G51" t="s">
         <v>295</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>123</v>
       </c>
     </row>
@@ -25772,7 +26419,7 @@
       <c r="G52" t="s">
         <v>349</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>521</v>
       </c>
     </row>
@@ -25780,7 +26427,7 @@
       <c r="G53" t="s">
         <v>324</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>502</v>
       </c>
     </row>
@@ -25788,7 +26435,7 @@
       <c r="G54" t="s">
         <v>261</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>124</v>
       </c>
     </row>
@@ -25796,7 +26443,7 @@
       <c r="G55" t="s">
         <v>285</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>339</v>
       </c>
     </row>
@@ -25804,7 +26451,7 @@
       <c r="G56" t="s">
         <v>286</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>495</v>
       </c>
     </row>
@@ -25812,7 +26459,7 @@
       <c r="G57" t="s">
         <v>287</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>125</v>
       </c>
     </row>
@@ -25820,7 +26467,7 @@
       <c r="G58" t="s">
         <v>296</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>126</v>
       </c>
     </row>
@@ -25828,7 +26475,7 @@
       <c r="G59" t="s">
         <v>305</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>127</v>
       </c>
     </row>
@@ -25836,7 +26483,7 @@
       <c r="G60" t="s">
         <v>330</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>128</v>
       </c>
     </row>
@@ -25844,7 +26491,7 @@
       <c r="G61" t="s">
         <v>302</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>129</v>
       </c>
     </row>
@@ -25852,7 +26499,7 @@
       <c r="G62" t="s">
         <v>303</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>130</v>
       </c>
     </row>
@@ -25860,7 +26507,7 @@
       <c r="G63" t="s">
         <v>362</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>131</v>
       </c>
     </row>
@@ -25868,7 +26515,7 @@
       <c r="G64" t="s">
         <v>363</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>448</v>
       </c>
     </row>
@@ -25876,7 +26523,7 @@
       <c r="G65" t="s">
         <v>338</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>512</v>
       </c>
     </row>
@@ -25884,7 +26531,7 @@
       <c r="G66" t="s">
         <v>306</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>207</v>
       </c>
     </row>
@@ -25892,7 +26539,7 @@
       <c r="G67" t="s">
         <v>262</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>382</v>
       </c>
     </row>
@@ -25900,7 +26547,7 @@
       <c r="G68" t="s">
         <v>346</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>453</v>
       </c>
     </row>
@@ -25908,7 +26555,7 @@
       <c r="G69" t="s">
         <v>307</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>132</v>
       </c>
     </row>
@@ -25916,7 +26563,7 @@
       <c r="G70" t="s">
         <v>403</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>133</v>
       </c>
     </row>
@@ -25924,7 +26571,7 @@
       <c r="G71" t="s">
         <v>297</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>134</v>
       </c>
     </row>
@@ -25932,7 +26579,7 @@
       <c r="G72" t="s">
         <v>404</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>135</v>
       </c>
     </row>
@@ -25940,7 +26587,7 @@
       <c r="G73" t="s">
         <v>255</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>190</v>
       </c>
     </row>
@@ -25948,7 +26595,7 @@
       <c r="G74" t="s">
         <v>547</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>191</v>
       </c>
     </row>
@@ -25956,7 +26603,7 @@
       <c r="G75" t="s">
         <v>337</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>490</v>
       </c>
     </row>
@@ -25964,7 +26611,7 @@
       <c r="G76" t="s">
         <v>273</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>506</v>
       </c>
     </row>
@@ -25972,7 +26619,7 @@
       <c r="G77" t="s">
         <v>279</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>136</v>
       </c>
     </row>
@@ -25980,7 +26627,7 @@
       <c r="G78" t="s">
         <v>284</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>137</v>
       </c>
     </row>
@@ -25988,7 +26635,7 @@
       <c r="G79" t="s">
         <v>422</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>138</v>
       </c>
     </row>
@@ -25996,7 +26643,7 @@
       <c r="G80" t="s">
         <v>325</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>534</v>
       </c>
     </row>
@@ -26004,7 +26651,7 @@
       <c r="G81" t="s">
         <v>263</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>139</v>
       </c>
     </row>
@@ -26012,7 +26659,7 @@
       <c r="G82" t="s">
         <v>274</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>140</v>
       </c>
     </row>
@@ -26020,7 +26667,7 @@
       <c r="G83" t="s">
         <v>280</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>192</v>
       </c>
     </row>
@@ -26028,7 +26675,7 @@
       <c r="G84" t="s">
         <v>269</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>522</v>
       </c>
     </row>
@@ -26036,7 +26683,7 @@
       <c r="G85" t="s">
         <v>264</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>193</v>
       </c>
     </row>
@@ -26044,7 +26691,7 @@
       <c r="G86" t="s">
         <v>281</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>489</v>
       </c>
     </row>
@@ -26052,7 +26699,7 @@
       <c r="G87" t="s">
         <v>265</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>194</v>
       </c>
     </row>
@@ -26060,7 +26707,7 @@
       <c r="G88" t="s">
         <v>266</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>195</v>
       </c>
     </row>
@@ -26068,7 +26715,7 @@
       <c r="G89" t="s">
         <v>298</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>208</v>
       </c>
     </row>
@@ -26076,7 +26723,7 @@
       <c r="G90" t="s">
         <v>304</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>141</v>
       </c>
     </row>
@@ -26084,7 +26731,7 @@
       <c r="G91" t="s">
         <v>288</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>196</v>
       </c>
     </row>
@@ -26092,7 +26739,7 @@
       <c r="G92" t="s">
         <v>333</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>446</v>
       </c>
     </row>
@@ -26100,7 +26747,7 @@
       <c r="G93" t="s">
         <v>270</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>447</v>
       </c>
     </row>
@@ -26108,172 +26755,172 @@
       <c r="G94" t="s">
         <v>271</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -51,7 +51,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19611" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21737" uniqueCount="561">
   <si>
     <t>description</t>
   </si>
@@ -1737,6 +1737,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1756,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="626" x14ac:knownFonts="1">
+  <fonts count="690" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5697,8 +5709,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1066">
+  <fills count="1186">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11735,8 +12151,688 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1095">
+  <borders count="1207">
     <border>
       <left/>
       <right/>
@@ -11773,6 +12869,1134 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -22779,7 +25003,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="652">
+  <cellXfs count="716">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24705,52 +26929,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1035" fontId="609" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="610" fillId="1038" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1038" fontId="610" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="611" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="1041" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1041" fontId="612" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="613" fillId="1044" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1044" fontId="613" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="614" fillId="1047" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1047" fontId="614" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="615" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="615" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="616" fillId="1050" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1050" fontId="616" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="618" fillId="1053" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="619" fillId="1056" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="620" fillId="1059" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="621" fillId="1059" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="622" fillId="1047" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="623" fillId="1062" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="624" fillId="1047" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="625" fillId="1065" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="617" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1053" fontId="618" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1056" fontId="619" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1059" fontId="620" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1059" fontId="621" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1047" fontId="622" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1062" fontId="623" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1047" fontId="624" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1065" fontId="625" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1068" fontId="626" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="627" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1071" fontId="628" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1074" fontId="629" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1077" fontId="630" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="631" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1080" fontId="632" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="633" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1083" fontId="634" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1086" fontId="635" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1089" fontId="636" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1089" fontId="637" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1077" fontId="638" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1092" fontId="639" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1077" fontId="640" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="641" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1130" fillId="1098" fontId="642" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="643" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1101" fontId="644" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1104" fontId="645" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1107" fontId="646" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="647" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1110" fontId="648" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="649" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1113" fontId="650" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1146" fillId="1116" fontId="651" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1119" fontId="652" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1119" fontId="653" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1107" fontId="654" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="655" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1107" fontId="656" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1125" fontId="657" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1128" fontId="658" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="659" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1131" fontId="660" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1134" fontId="661" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1137" fontId="662" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="663" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1140" fontId="664" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="665" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1143" fontId="666" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1174" fillId="1146" fontId="667" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1149" fontId="668" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1149" fontId="669" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1137" fontId="670" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1152" fontId="671" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1137" fontId="672" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1155" fontId="673" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="1158" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="1161" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="1164" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="1167" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1170" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="1173" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="1176" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1179" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1179" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="1182" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1185" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25471,7 +27887,7 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -25539,7 +27955,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -25598,7 +28014,7 @@
         <v>308</v>
       </c>
       <c r="N7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -25656,6 +28072,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>554</v>
+      </c>
       <c r="Q8" t="s">
         <v>437</v>
       </c>
@@ -25709,6 +28128,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>555</v>
+      </c>
       <c r="Q9" t="s">
         <v>438</v>
       </c>
@@ -25750,6 +28172,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>556</v>
+      </c>
       <c r="Q10" t="s">
         <v>439</v>
       </c>
@@ -26138,7 +28563,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>560</v>
       </c>
       <c r="Y25" t="s">
         <v>105</v>
@@ -26155,7 +28580,7 @@
         <v>275</v>
       </c>
       <c r="K26" t="s">
-        <v>450</v>
+        <v>84</v>
       </c>
       <c r="Y26" t="s">
         <v>106</v>
@@ -26172,7 +28597,7 @@
         <v>259</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="Y27" t="s">
         <v>107</v>
@@ -26189,7 +28614,7 @@
         <v>276</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s">
         <v>320</v>
@@ -26204,6 +28629,9 @@
       </c>
       <c r="G29" t="s">
         <v>277</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
       </c>
       <c r="Y29" t="s">
         <v>108</v>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -50,8 +50,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21737" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22272" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1749,6 +1749,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1768,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="690" x14ac:knownFonts="1">
+  <fonts count="706" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6113,8 +6125,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1186">
+  <fills count="1216">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12831,8 +12944,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1207">
+  <borders count="1235">
     <border>
       <left/>
       <right/>
@@ -12869,6 +13152,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -25003,7 +25568,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="716">
+  <cellXfs count="732">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27121,52 +27686,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1155" fontId="673" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="674" fillId="1158" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1186" fillId="1158" fontId="674" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="675" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="676" fillId="1161" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1161" fontId="676" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="677" fillId="1164" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1164" fontId="677" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="678" fillId="1167" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1167" fontId="678" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="679" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="679" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="680" fillId="1170" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1170" fontId="680" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="682" fillId="1173" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="683" fillId="1176" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="684" fillId="1179" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="685" fillId="1179" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="686" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="687" fillId="1182" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="688" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="689" fillId="1185" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="681" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1173" fontId="682" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1176" fontId="683" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1179" fontId="684" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1179" fontId="685" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1167" fontId="686" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1182" fontId="687" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1167" fontId="688" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1185" fontId="689" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="1188" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="1191" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="1194" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="1197" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="1200" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="1203" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="1206" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="1209" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="1209" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="1212" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="1215" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27697,7 +28310,7 @@
         <v>500</v>
       </c>
       <c r="D3" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="E3" t="s">
         <v>493</v>
@@ -27780,7 +28393,7 @@
         <v>367</v>
       </c>
       <c r="D4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -27863,7 +28476,7 @@
         <v>368</v>
       </c>
       <c r="D5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E5" t="s">
         <v>494</v>
@@ -27887,7 +28500,7 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -27933,6 +28546,9 @@
       <c r="B6" t="s">
         <v>369</v>
       </c>
+      <c r="D6" t="s">
+        <v>528</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -27955,7 +28571,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -28014,7 +28630,7 @@
         <v>308</v>
       </c>
       <c r="N7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -28073,7 +28689,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="Q8" t="s">
         <v>437</v>
@@ -28129,7 +28745,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="Q9" t="s">
         <v>438</v>
@@ -28173,7 +28789,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Q10" t="s">
         <v>439</v>
@@ -28213,6 +28829,9 @@
       <c r="M11" t="s">
         <v>511</v>
       </c>
+      <c r="N11" t="s">
+        <v>555</v>
+      </c>
       <c r="Q11" t="s">
         <v>440</v>
       </c>
@@ -28248,6 +28867,9 @@
       <c r="M12" t="s">
         <v>451</v>
       </c>
+      <c r="N12" t="s">
+        <v>556</v>
+      </c>
       <c r="Q12" t="s">
         <v>441</v>
       </c>
@@ -28563,7 +29185,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="Y25" t="s">
         <v>105</v>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22272" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22809" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1761,6 +1761,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1774,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="706" x14ac:knownFonts="1">
+  <fonts count="722" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6226,8 +6232,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1216">
+  <fills count="1246">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13114,8 +13221,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1235">
+  <borders count="1263">
     <border>
       <left/>
       <right/>
@@ -13152,6 +13429,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -25568,7 +26127,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="732">
+  <cellXfs count="748">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27734,52 +28293,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1185" fontId="689" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="690" fillId="1188" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1188" fontId="690" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="691" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="692" fillId="1191" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1191" fontId="692" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="693" fillId="1194" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1194" fontId="693" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="694" fillId="1197" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1197" fontId="694" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="695" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="695" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="696" fillId="1200" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1200" fontId="696" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="698" fillId="1203" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="699" fillId="1206" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="700" fillId="1209" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="701" fillId="1209" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="702" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="703" fillId="1212" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="704" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="705" fillId="1215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="697" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1226" fillId="1203" fontId="698" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1206" fontId="699" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1209" fontId="700" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1209" fontId="701" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1197" fontId="702" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1212" fontId="703" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1197" fontId="704" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1215" fontId="705" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="1218" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="1221" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="1224" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="1227" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="1233" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="1236" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="1239" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="1239" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="1242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28104,7 +28711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -28490,6 +29097,9 @@
       <c r="H5" t="s">
         <v>491</v>
       </c>
+      <c r="I5" t="s">
+        <v>565</v>
+      </c>
       <c r="J5" t="s">
         <v>344</v>
       </c>
@@ -29366,7 +29976,7 @@
         <v>260</v>
       </c>
       <c r="Y39" t="s">
-        <v>386</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40">
@@ -29374,7 +29984,7 @@
         <v>77</v>
       </c>
       <c r="Y40" t="s">
-        <v>115</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41">
@@ -29382,7 +29992,7 @@
         <v>205</v>
       </c>
       <c r="Y41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
@@ -29390,7 +30000,7 @@
         <v>282</v>
       </c>
       <c r="Y42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
@@ -29398,7 +30008,7 @@
         <v>293</v>
       </c>
       <c r="Y43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
@@ -29406,7 +30016,7 @@
         <v>294</v>
       </c>
       <c r="Y44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -29414,7 +30024,7 @@
         <v>336</v>
       </c>
       <c r="Y45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -29422,7 +30032,7 @@
         <v>335</v>
       </c>
       <c r="Y46" t="s">
-        <v>452</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -29430,7 +30040,7 @@
         <v>204</v>
       </c>
       <c r="Y47" t="s">
-        <v>206</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48">
@@ -29438,7 +30048,7 @@
         <v>313</v>
       </c>
       <c r="Y48" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49">
@@ -29446,7 +30056,7 @@
         <v>332</v>
       </c>
       <c r="Y49" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
@@ -29454,7 +30064,7 @@
         <v>361</v>
       </c>
       <c r="Y50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51">
@@ -29462,7 +30072,7 @@
         <v>295</v>
       </c>
       <c r="Y51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52">
@@ -29470,7 +30080,7 @@
         <v>349</v>
       </c>
       <c r="Y52" t="s">
-        <v>521</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -29478,7 +30088,7 @@
         <v>324</v>
       </c>
       <c r="Y53" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54">
@@ -29486,7 +30096,7 @@
         <v>261</v>
       </c>
       <c r="Y54" t="s">
-        <v>124</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55">
@@ -29494,7 +30104,7 @@
         <v>285</v>
       </c>
       <c r="Y55" t="s">
-        <v>339</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
@@ -29502,7 +30112,7 @@
         <v>286</v>
       </c>
       <c r="Y56" t="s">
-        <v>495</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57">
@@ -29510,7 +30120,7 @@
         <v>287</v>
       </c>
       <c r="Y57" t="s">
-        <v>125</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58">
@@ -29518,7 +30128,7 @@
         <v>296</v>
       </c>
       <c r="Y58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
@@ -29526,7 +30136,7 @@
         <v>305</v>
       </c>
       <c r="Y59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60">
@@ -29534,7 +30144,7 @@
         <v>330</v>
       </c>
       <c r="Y60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
@@ -29542,7 +30152,7 @@
         <v>302</v>
       </c>
       <c r="Y61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
@@ -29550,7 +30160,7 @@
         <v>303</v>
       </c>
       <c r="Y62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
@@ -29558,7 +30168,7 @@
         <v>362</v>
       </c>
       <c r="Y63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
@@ -29566,7 +30176,7 @@
         <v>363</v>
       </c>
       <c r="Y64" t="s">
-        <v>448</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -29574,7 +30184,7 @@
         <v>338</v>
       </c>
       <c r="Y65" t="s">
-        <v>512</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66">
@@ -29582,7 +30192,7 @@
         <v>306</v>
       </c>
       <c r="Y66" t="s">
-        <v>207</v>
+        <v>512</v>
       </c>
     </row>
     <row r="67">
@@ -29590,7 +30200,7 @@
         <v>262</v>
       </c>
       <c r="Y67" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68">
@@ -29598,7 +30208,7 @@
         <v>346</v>
       </c>
       <c r="Y68" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69">
@@ -29606,7 +30216,7 @@
         <v>307</v>
       </c>
       <c r="Y69" t="s">
-        <v>132</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70">
@@ -29614,7 +30224,7 @@
         <v>403</v>
       </c>
       <c r="Y70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71">
@@ -29622,7 +30232,7 @@
         <v>297</v>
       </c>
       <c r="Y71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72">
@@ -29630,7 +30240,7 @@
         <v>404</v>
       </c>
       <c r="Y72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73">
@@ -29638,7 +30248,7 @@
         <v>255</v>
       </c>
       <c r="Y73" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
@@ -29646,7 +30256,7 @@
         <v>547</v>
       </c>
       <c r="Y74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75">
@@ -29654,7 +30264,7 @@
         <v>337</v>
       </c>
       <c r="Y75" t="s">
-        <v>490</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76">
@@ -29662,7 +30272,7 @@
         <v>273</v>
       </c>
       <c r="Y76" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77">
@@ -29670,7 +30280,7 @@
         <v>279</v>
       </c>
       <c r="Y77" t="s">
-        <v>136</v>
+        <v>506</v>
       </c>
     </row>
     <row r="78">
@@ -29678,7 +30288,7 @@
         <v>284</v>
       </c>
       <c r="Y78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79">
@@ -29686,7 +30296,7 @@
         <v>422</v>
       </c>
       <c r="Y79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80">
@@ -29694,7 +30304,7 @@
         <v>325</v>
       </c>
       <c r="Y80" t="s">
-        <v>534</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81">
@@ -29702,7 +30312,7 @@
         <v>263</v>
       </c>
       <c r="Y81" t="s">
-        <v>139</v>
+        <v>534</v>
       </c>
     </row>
     <row r="82">
@@ -29710,7 +30320,7 @@
         <v>274</v>
       </c>
       <c r="Y82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
@@ -29718,7 +30328,7 @@
         <v>280</v>
       </c>
       <c r="Y83" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -29726,7 +30336,7 @@
         <v>269</v>
       </c>
       <c r="Y84" t="s">
-        <v>522</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85">
@@ -29734,7 +30344,7 @@
         <v>264</v>
       </c>
       <c r="Y85" t="s">
-        <v>193</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86">
@@ -29742,7 +30352,7 @@
         <v>281</v>
       </c>
       <c r="Y86" t="s">
-        <v>489</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87">
@@ -29750,7 +30360,7 @@
         <v>265</v>
       </c>
       <c r="Y87" t="s">
-        <v>194</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88">
@@ -29758,7 +30368,7 @@
         <v>266</v>
       </c>
       <c r="Y88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89">
@@ -29766,7 +30376,7 @@
         <v>298</v>
       </c>
       <c r="Y89" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90">
@@ -29774,7 +30384,7 @@
         <v>304</v>
       </c>
       <c r="Y90" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -29782,7 +30392,7 @@
         <v>288</v>
       </c>
       <c r="Y91" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92">
@@ -29790,7 +30400,7 @@
         <v>333</v>
       </c>
       <c r="Y92" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93">
@@ -29798,7 +30408,7 @@
         <v>270</v>
       </c>
       <c r="Y93" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94">
@@ -29806,171 +30416,176 @@
         <v>271</v>
       </c>
       <c r="Y94" t="s">
-        <v>197</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>541</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>142</v>
+        <v>548</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>549</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>376</v>
+        <v>549</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -22,13 +22,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22809" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23356" uniqueCount="578">
   <si>
     <t>description</t>
   </si>
@@ -1767,6 +1767,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1807,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="722" x14ac:knownFonts="1">
+  <fonts count="738" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6333,8 +6366,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1246">
+  <fills count="1273">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13391,8 +13525,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1263">
+  <borders count="1295">
     <border>
       <left/>
       <right/>
@@ -25942,6 +26229,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -26127,7 +26740,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="748">
+  <cellXfs count="764">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28341,52 +28954,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1215" fontId="705" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="706" fillId="1218" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1218" fontId="706" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="707" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="708" fillId="1221" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1221" fontId="708" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="709" fillId="1224" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1224" fontId="709" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="710" fillId="1227" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1227" fontId="710" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="711" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="711" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="712" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1230" fontId="712" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="714" fillId="1233" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="715" fillId="1236" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="716" fillId="1239" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="717" fillId="1239" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="718" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="719" fillId="1242" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="720" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="721" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="713" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1233" fontId="714" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1258" fillId="1236" fontId="715" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1239" fontId="716" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1239" fontId="717" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1227" fontId="718" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1242" fontId="719" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1227" fontId="720" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1245" fontId="721" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="1248" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="1251" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="1254" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="1257" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="1263" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="1254" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="1266" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="1266" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1272" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28711,7 +29372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -29233,6 +29894,9 @@
       <c r="H7" t="s">
         <v>457</v>
       </c>
+      <c r="J7" t="s">
+        <v>569</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -29273,7 +29937,7 @@
         <v>420</v>
       </c>
       <c r="AD7" t="s">
-        <v>225</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8">
@@ -29329,7 +29993,7 @@
         <v>421</v>
       </c>
       <c r="AD8" t="s">
-        <v>226</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9">
@@ -29376,7 +30040,7 @@
         <v>182</v>
       </c>
       <c r="AD9" t="s">
-        <v>227</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10">
@@ -29417,7 +30081,7 @@
         <v>183</v>
       </c>
       <c r="AD10" t="s">
-        <v>513</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
@@ -29455,7 +30119,7 @@
         <v>252</v>
       </c>
       <c r="AD11" t="s">
-        <v>530</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
@@ -29475,7 +30139,7 @@
         <v>383</v>
       </c>
       <c r="M12" t="s">
-        <v>451</v>
+        <v>570</v>
       </c>
       <c r="N12" t="s">
         <v>556</v>
@@ -29493,7 +30157,7 @@
         <v>184</v>
       </c>
       <c r="AD12" t="s">
-        <v>531</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
@@ -29513,7 +30177,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>510</v>
+        <v>451</v>
       </c>
       <c r="Q13" t="s">
         <v>442</v>
@@ -29528,7 +30192,7 @@
         <v>185</v>
       </c>
       <c r="AD13" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14">
@@ -29548,7 +30212,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>510</v>
       </c>
       <c r="Q14" t="s">
         <v>443</v>
@@ -29563,7 +30227,7 @@
         <v>186</v>
       </c>
       <c r="AD14" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15">
@@ -29580,7 +30244,7 @@
         <v>545</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>538</v>
@@ -29595,7 +30259,7 @@
         <v>187</v>
       </c>
       <c r="AD15" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16">
@@ -29612,7 +30276,7 @@
         <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="s">
         <v>539</v>
@@ -29627,7 +30291,7 @@
         <v>188</v>
       </c>
       <c r="AD16" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17">
@@ -29643,6 +30307,9 @@
       <c r="K17" t="s">
         <v>81</v>
       </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
       <c r="Y17" t="s">
         <v>540</v>
       </c>
@@ -29650,7 +30317,7 @@
         <v>497</v>
       </c>
       <c r="AD17" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18">
@@ -29670,7 +30337,7 @@
         <v>98</v>
       </c>
       <c r="AD18" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19">
@@ -29690,7 +30357,7 @@
         <v>99</v>
       </c>
       <c r="AD19" t="s">
-        <v>228</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20">
@@ -29710,7 +30377,7 @@
         <v>100</v>
       </c>
       <c r="AD20" t="s">
-        <v>229</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21">
@@ -29730,7 +30397,7 @@
         <v>101</v>
       </c>
       <c r="AD21" t="s">
-        <v>230</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22">
@@ -29749,6 +30416,9 @@
       <c r="Y22" t="s">
         <v>523</v>
       </c>
+      <c r="AD22" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -29766,6 +30436,9 @@
       <c r="Y23" t="s">
         <v>103</v>
       </c>
+      <c r="AD23" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -29783,6 +30456,9 @@
       <c r="Y24" t="s">
         <v>104</v>
       </c>
+      <c r="AD24" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -29800,6 +30476,9 @@
       <c r="Y25" t="s">
         <v>105</v>
       </c>
+      <c r="AD25" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -29817,6 +30496,9 @@
       <c r="Y26" t="s">
         <v>106</v>
       </c>
+      <c r="AD26" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -29834,6 +30516,9 @@
       <c r="Y27" t="s">
         <v>107</v>
       </c>
+      <c r="AD27" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -30064,7 +30749,7 @@
         <v>361</v>
       </c>
       <c r="Y50" t="s">
-        <v>121</v>
+        <v>571</v>
       </c>
     </row>
     <row r="51">
@@ -30072,7 +30757,7 @@
         <v>295</v>
       </c>
       <c r="Y51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
@@ -30080,7 +30765,7 @@
         <v>349</v>
       </c>
       <c r="Y52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53">
@@ -30088,7 +30773,7 @@
         <v>324</v>
       </c>
       <c r="Y53" t="s">
-        <v>521</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54">
@@ -30096,7 +30781,7 @@
         <v>261</v>
       </c>
       <c r="Y54" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55">
@@ -30104,7 +30789,7 @@
         <v>285</v>
       </c>
       <c r="Y55" t="s">
-        <v>124</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56">
@@ -30112,7 +30797,7 @@
         <v>286</v>
       </c>
       <c r="Y56" t="s">
-        <v>339</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
@@ -30120,7 +30805,7 @@
         <v>287</v>
       </c>
       <c r="Y57" t="s">
-        <v>495</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58">
@@ -30128,7 +30813,7 @@
         <v>296</v>
       </c>
       <c r="Y58" t="s">
-        <v>125</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59">
@@ -30136,7 +30821,7 @@
         <v>305</v>
       </c>
       <c r="Y59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60">
@@ -30144,7 +30829,7 @@
         <v>330</v>
       </c>
       <c r="Y60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61">
@@ -30152,7 +30837,7 @@
         <v>302</v>
       </c>
       <c r="Y61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
@@ -30160,7 +30845,7 @@
         <v>303</v>
       </c>
       <c r="Y62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -30168,7 +30853,7 @@
         <v>362</v>
       </c>
       <c r="Y63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -30176,7 +30861,7 @@
         <v>363</v>
       </c>
       <c r="Y64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -30184,7 +30869,7 @@
         <v>338</v>
       </c>
       <c r="Y65" t="s">
-        <v>448</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -30192,7 +30877,7 @@
         <v>306</v>
       </c>
       <c r="Y66" t="s">
-        <v>512</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67">
@@ -30200,15 +30885,15 @@
         <v>262</v>
       </c>
       <c r="Y67" t="s">
-        <v>207</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>346</v>
+        <v>567</v>
       </c>
       <c r="Y68" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69">
@@ -30216,7 +30901,7 @@
         <v>307</v>
       </c>
       <c r="Y69" t="s">
-        <v>453</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70">
@@ -30224,7 +30909,7 @@
         <v>403</v>
       </c>
       <c r="Y70" t="s">
-        <v>132</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71">
@@ -30232,7 +30917,7 @@
         <v>297</v>
       </c>
       <c r="Y71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72">
@@ -30240,7 +30925,7 @@
         <v>404</v>
       </c>
       <c r="Y72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73">
@@ -30248,7 +30933,7 @@
         <v>255</v>
       </c>
       <c r="Y73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74">
@@ -30256,7 +30941,7 @@
         <v>547</v>
       </c>
       <c r="Y74" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
@@ -30264,7 +30949,7 @@
         <v>337</v>
       </c>
       <c r="Y75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76">
@@ -30272,7 +30957,7 @@
         <v>273</v>
       </c>
       <c r="Y76" t="s">
-        <v>490</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77">
@@ -30280,7 +30965,7 @@
         <v>279</v>
       </c>
       <c r="Y77" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78">
@@ -30288,7 +30973,7 @@
         <v>284</v>
       </c>
       <c r="Y78" t="s">
-        <v>136</v>
+        <v>506</v>
       </c>
     </row>
     <row r="79">
@@ -30296,7 +30981,7 @@
         <v>422</v>
       </c>
       <c r="Y79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80">
@@ -30304,7 +30989,7 @@
         <v>325</v>
       </c>
       <c r="Y80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81">
@@ -30312,7 +30997,7 @@
         <v>263</v>
       </c>
       <c r="Y81" t="s">
-        <v>534</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82">
@@ -30320,7 +31005,7 @@
         <v>274</v>
       </c>
       <c r="Y82" t="s">
-        <v>139</v>
+        <v>534</v>
       </c>
     </row>
     <row r="83">
@@ -30328,7 +31013,7 @@
         <v>280</v>
       </c>
       <c r="Y83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
@@ -30336,256 +31021,264 @@
         <v>269</v>
       </c>
       <c r="Y84" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>264</v>
+        <v>568</v>
       </c>
       <c r="Y85" t="s">
-        <v>522</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="Y86" t="s">
-        <v>193</v>
+        <v>522</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="Y87" t="s">
-        <v>489</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y88" t="s">
-        <v>194</v>
+        <v>489</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="Y89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Y90" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="Y91" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="Y92" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="Y93" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>271</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>541</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>142</v>
+        <v>548</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>549</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>376</v>
+        <v>549</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -41,17 +41,18 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23356" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23907" uniqueCount="581">
   <si>
     <t>description</t>
   </si>
@@ -1800,6 +1801,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1817,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="738" x14ac:knownFonts="1">
+  <fonts count="754" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6467,8 +6477,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1273">
+  <fills count="1300">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13678,8 +13789,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1295">
+  <borders count="1327">
     <border>
       <left/>
       <right/>
@@ -26229,6 +26493,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -26740,7 +27330,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="764">
+  <cellXfs count="780">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29002,52 +29592,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1245" fontId="721" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="722" fillId="1248" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1248" fontId="722" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="723" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="724" fillId="1251" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1251" fontId="724" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="725" fillId="1254" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1254" fontId="725" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="726" fillId="1257" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1257" fontId="726" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="727" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="727" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="728" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1260" fontId="728" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="730" fillId="1263" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="731" fillId="1254" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="732" fillId="1266" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="733" fillId="1266" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="734" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="735" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="736" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="737" fillId="1272" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="729" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1263" fontId="730" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1254" fontId="731" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1294" fillId="1266" fontId="732" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1294" fillId="1266" fontId="733" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="734" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1269" fontId="735" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="736" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1272" fontId="737" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="1275" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="1278" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="1281" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="1284" borderId="1314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="1287" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="1290" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="1281" borderId="1322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="1293" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="1293" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="1284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="1296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="1284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="1299" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29372,7 +30010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -29457,21 +30095,24 @@
         <v>390</v>
       </c>
       <c r="Y1" t="s">
+        <v>578</v>
+      </c>
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>407</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -29549,21 +30190,24 @@
         <v>400</v>
       </c>
       <c r="Y2" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z2" t="s">
         <v>90</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>164</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>176</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>425</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -29634,22 +30278,22 @@
       <c r="X3" t="s">
         <v>401</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>91</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>165</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>357</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>177</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -29717,22 +30361,22 @@
       <c r="X4" t="s">
         <v>402</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>347</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>166</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>177</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>417</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -29791,22 +30435,22 @@
       <c r="W5" t="s">
         <v>352</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>348</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>167</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>178</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>418</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -29859,22 +30503,22 @@
       <c r="W6" t="s">
         <v>354</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>92</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>455</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>173</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>179</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>419</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -29921,22 +30565,22 @@
       <c r="W7" t="s">
         <v>353</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>93</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>456</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>174</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>180</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>420</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>572</v>
       </c>
     </row>
@@ -29977,22 +30621,22 @@
       <c r="W8" t="s">
         <v>355</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>94</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>168</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>175</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>181</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>421</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>573</v>
       </c>
     </row>
@@ -30033,13 +30677,13 @@
       <c r="W9" t="s">
         <v>356</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>202</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>182</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>574</v>
       </c>
     </row>
@@ -30074,13 +30718,13 @@
       <c r="T10" t="s">
         <v>399</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>250</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>183</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>225</v>
       </c>
     </row>
@@ -30112,13 +30756,13 @@
       <c r="R11" t="s">
         <v>241</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>251</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>252</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -30150,13 +30794,13 @@
       <c r="R12" t="s">
         <v>242</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>95</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>184</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>227</v>
       </c>
     </row>
@@ -30185,13 +30829,13 @@
       <c r="R13" t="s">
         <v>247</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>319</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>185</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>513</v>
       </c>
     </row>
@@ -30220,13 +30864,13 @@
       <c r="R14" t="s">
         <v>243</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>96</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>186</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>530</v>
       </c>
     </row>
@@ -30252,13 +30896,13 @@
       <c r="R15" t="s">
         <v>244</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>97</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>187</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>531</v>
       </c>
     </row>
@@ -30284,13 +30928,13 @@
       <c r="R16" t="s">
         <v>245</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>188</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>535</v>
       </c>
     </row>
@@ -30310,13 +30954,13 @@
       <c r="M17" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>540</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>497</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>536</v>
       </c>
     </row>
@@ -30333,10 +30977,10 @@
       <c r="K18" t="s">
         <v>492</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>98</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>514</v>
       </c>
     </row>
@@ -30353,10 +30997,10 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>99</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>532</v>
       </c>
     </row>
@@ -30373,10 +31017,10 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>100</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>533</v>
       </c>
     </row>
@@ -30393,10 +31037,10 @@
       <c r="K21" t="s">
         <v>373</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>101</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>537</v>
       </c>
     </row>
@@ -30405,7 +31049,7 @@
         <v>406</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>579</v>
       </c>
       <c r="G22" t="s">
         <v>292</v>
@@ -30413,10 +31057,10 @@
       <c r="K22" t="s">
         <v>509</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>523</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>228</v>
       </c>
     </row>
@@ -30425,7 +31069,7 @@
         <v>350</v>
       </c>
       <c r="E23" t="s">
-        <v>314</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
         <v>283</v>
@@ -30433,10 +31077,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>103</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>575</v>
       </c>
     </row>
@@ -30445,7 +31089,7 @@
         <v>390</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
       <c r="G24" t="s">
         <v>272</v>
@@ -30453,19 +31097,19 @@
       <c r="K24" t="s">
         <v>385</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>104</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>578</v>
       </c>
       <c r="E25" t="s">
-        <v>458</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
         <v>75</v>
@@ -30473,19 +31117,19 @@
       <c r="K25" t="s">
         <v>562</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>105</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>218</v>
+        <v>458</v>
       </c>
       <c r="G26" t="s">
         <v>275</v>
@@ -30493,19 +31137,19 @@
       <c r="K26" t="s">
         <v>84</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>106</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
         <v>259</v>
@@ -30513,19 +31157,19 @@
       <c r="K27" t="s">
         <v>450</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>107</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>507</v>
+        <v>219</v>
       </c>
       <c r="G28" t="s">
         <v>276</v>
@@ -30533,16 +31177,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>407</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G29" t="s">
         <v>277</v>
@@ -30550,117 +31194,123 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>407</v>
       </c>
       <c r="E30" t="s">
-        <v>409</v>
+        <v>508</v>
       </c>
       <c r="G30" t="s">
         <v>209</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>220</v>
+      </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>409</v>
       </c>
       <c r="G31" t="s">
         <v>268</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
         <v>278</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
         <v>546</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
         <v>253</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
         <v>323</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
         <v>300</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
         <v>254</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
         <v>301</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
       <c r="G39" t="s">
         <v>260</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>566</v>
       </c>
     </row>
@@ -30668,7 +31318,7 @@
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>386</v>
       </c>
     </row>
@@ -30676,7 +31326,7 @@
       <c r="G41" t="s">
         <v>205</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>115</v>
       </c>
     </row>
@@ -30684,7 +31334,7 @@
       <c r="G42" t="s">
         <v>282</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>116</v>
       </c>
     </row>
@@ -30692,7 +31342,7 @@
       <c r="G43" t="s">
         <v>293</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>117</v>
       </c>
     </row>
@@ -30700,7 +31350,7 @@
       <c r="G44" t="s">
         <v>294</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>118</v>
       </c>
     </row>
@@ -30708,7 +31358,7 @@
       <c r="G45" t="s">
         <v>336</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -30716,7 +31366,7 @@
       <c r="G46" t="s">
         <v>335</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>120</v>
       </c>
     </row>
@@ -30724,7 +31374,7 @@
       <c r="G47" t="s">
         <v>204</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>452</v>
       </c>
     </row>
@@ -30732,7 +31382,7 @@
       <c r="G48" t="s">
         <v>313</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>206</v>
       </c>
     </row>
@@ -30740,7 +31390,7 @@
       <c r="G49" t="s">
         <v>332</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>76</v>
       </c>
     </row>
@@ -30748,7 +31398,7 @@
       <c r="G50" t="s">
         <v>361</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>571</v>
       </c>
     </row>
@@ -30756,7 +31406,7 @@
       <c r="G51" t="s">
         <v>295</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>121</v>
       </c>
     </row>
@@ -30764,7 +31414,7 @@
       <c r="G52" t="s">
         <v>349</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>122</v>
       </c>
     </row>
@@ -30772,7 +31422,7 @@
       <c r="G53" t="s">
         <v>324</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>123</v>
       </c>
     </row>
@@ -30780,7 +31430,7 @@
       <c r="G54" t="s">
         <v>261</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>521</v>
       </c>
     </row>
@@ -30788,7 +31438,7 @@
       <c r="G55" t="s">
         <v>285</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>502</v>
       </c>
     </row>
@@ -30796,7 +31446,7 @@
       <c r="G56" t="s">
         <v>286</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>124</v>
       </c>
     </row>
@@ -30804,7 +31454,7 @@
       <c r="G57" t="s">
         <v>287</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>339</v>
       </c>
     </row>
@@ -30812,7 +31462,7 @@
       <c r="G58" t="s">
         <v>296</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>495</v>
       </c>
     </row>
@@ -30820,7 +31470,7 @@
       <c r="G59" t="s">
         <v>305</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>125</v>
       </c>
     </row>
@@ -30828,7 +31478,7 @@
       <c r="G60" t="s">
         <v>330</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>126</v>
       </c>
     </row>
@@ -30836,7 +31486,7 @@
       <c r="G61" t="s">
         <v>302</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>127</v>
       </c>
     </row>
@@ -30844,7 +31494,7 @@
       <c r="G62" t="s">
         <v>303</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>128</v>
       </c>
     </row>
@@ -30852,7 +31502,7 @@
       <c r="G63" t="s">
         <v>362</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>129</v>
       </c>
     </row>
@@ -30860,7 +31510,7 @@
       <c r="G64" t="s">
         <v>363</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>130</v>
       </c>
     </row>
@@ -30868,7 +31518,7 @@
       <c r="G65" t="s">
         <v>338</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>131</v>
       </c>
     </row>
@@ -30876,7 +31526,7 @@
       <c r="G66" t="s">
         <v>306</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>448</v>
       </c>
     </row>
@@ -30884,7 +31534,7 @@
       <c r="G67" t="s">
         <v>262</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>512</v>
       </c>
     </row>
@@ -30892,7 +31542,7 @@
       <c r="G68" t="s">
         <v>567</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>207</v>
       </c>
     </row>
@@ -30900,7 +31550,7 @@
       <c r="G69" t="s">
         <v>307</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>382</v>
       </c>
     </row>
@@ -30908,7 +31558,7 @@
       <c r="G70" t="s">
         <v>403</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>453</v>
       </c>
     </row>
@@ -30916,7 +31566,7 @@
       <c r="G71" t="s">
         <v>297</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>132</v>
       </c>
     </row>
@@ -30924,7 +31574,7 @@
       <c r="G72" t="s">
         <v>404</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>133</v>
       </c>
     </row>
@@ -30932,7 +31582,7 @@
       <c r="G73" t="s">
         <v>255</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>134</v>
       </c>
     </row>
@@ -30940,7 +31590,7 @@
       <c r="G74" t="s">
         <v>547</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>135</v>
       </c>
     </row>
@@ -30948,7 +31598,7 @@
       <c r="G75" t="s">
         <v>337</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>190</v>
       </c>
     </row>
@@ -30956,7 +31606,7 @@
       <c r="G76" t="s">
         <v>273</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>191</v>
       </c>
     </row>
@@ -30964,7 +31614,7 @@
       <c r="G77" t="s">
         <v>279</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>490</v>
       </c>
     </row>
@@ -30972,7 +31622,7 @@
       <c r="G78" t="s">
         <v>284</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>506</v>
       </c>
     </row>
@@ -30980,7 +31630,7 @@
       <c r="G79" t="s">
         <v>422</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>136</v>
       </c>
     </row>
@@ -30988,7 +31638,7 @@
       <c r="G80" t="s">
         <v>325</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>137</v>
       </c>
     </row>
@@ -30996,7 +31646,7 @@
       <c r="G81" t="s">
         <v>263</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>138</v>
       </c>
     </row>
@@ -31004,7 +31654,7 @@
       <c r="G82" t="s">
         <v>274</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>534</v>
       </c>
     </row>
@@ -31012,7 +31662,7 @@
       <c r="G83" t="s">
         <v>280</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>139</v>
       </c>
     </row>
@@ -31020,7 +31670,7 @@
       <c r="G84" t="s">
         <v>269</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>140</v>
       </c>
     </row>
@@ -31028,7 +31678,7 @@
       <c r="G85" t="s">
         <v>568</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>192</v>
       </c>
     </row>
@@ -31036,7 +31686,7 @@
       <c r="G86" t="s">
         <v>264</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>522</v>
       </c>
     </row>
@@ -31044,7 +31694,7 @@
       <c r="G87" t="s">
         <v>281</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>193</v>
       </c>
     </row>
@@ -31052,7 +31702,7 @@
       <c r="G88" t="s">
         <v>265</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>489</v>
       </c>
     </row>
@@ -31060,7 +31710,7 @@
       <c r="G89" t="s">
         <v>266</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>194</v>
       </c>
     </row>
@@ -31068,7 +31718,7 @@
       <c r="G90" t="s">
         <v>298</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>195</v>
       </c>
     </row>
@@ -31076,7 +31726,7 @@
       <c r="G91" t="s">
         <v>304</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>208</v>
       </c>
     </row>
@@ -31084,7 +31734,7 @@
       <c r="G92" t="s">
         <v>288</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>141</v>
       </c>
     </row>
@@ -31092,7 +31742,7 @@
       <c r="G93" t="s">
         <v>333</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>196</v>
       </c>
     </row>
@@ -31100,7 +31750,7 @@
       <c r="G94" t="s">
         <v>270</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>446</v>
       </c>
     </row>
@@ -31108,177 +31758,177 @@
       <c r="G95" t="s">
         <v>271</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -22,7 +22,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23907" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25013" uniqueCount="583">
   <si>
     <t>description</t>
   </si>
@@ -1810,6 +1810,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1823,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="754" x14ac:knownFonts="1">
+  <fonts count="786" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6578,8 +6584,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1300">
+  <fills count="1354">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13942,8 +14150,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1327">
+  <borders count="1391">
     <border>
       <left/>
       <right/>
@@ -26493,6 +27007,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -27330,7 +28496,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="780">
+  <cellXfs count="812">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29640,52 +30806,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1272" fontId="737" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="738" fillId="1275" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="739" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1275" fontId="738" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="739" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="740" fillId="1278" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1278" fontId="740" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="741" fillId="1281" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1281" fontId="741" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="742" fillId="1284" borderId="1314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1314" fillId="1284" fontId="742" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="743" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="743" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="744" fillId="1287" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1287" fontId="744" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="746" fillId="1290" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="747" fillId="1281" borderId="1322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="748" fillId="1293" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="749" fillId="1293" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="750" fillId="1284" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="751" fillId="1296" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="752" fillId="1284" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="753" fillId="1299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="745" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1290" fontId="746" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1322" fillId="1281" fontId="747" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1326" fillId="1293" fontId="748" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1326" fillId="1293" fontId="749" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="750" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1296" fontId="751" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="752" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1299" fontId="753" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1334" fillId="1302" fontId="754" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="755" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1338" fillId="1305" fontId="756" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1342" fillId="1308" fontId="757" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1346" fillId="1311" fontId="758" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="759" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1314" fontId="760" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="761" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1350" fillId="1317" fontId="762" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1354" fillId="1308" fontId="763" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1358" fillId="1320" fontId="764" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1358" fillId="1320" fontId="765" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1311" fontId="766" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1323" fontId="767" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1311" fontId="768" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1326" fontId="769" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="1329" borderId="1366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="1332" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="1335" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="1338" borderId="1378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="1344" borderId="1382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="1335" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="1347" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="1347" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="1350" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="1353" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31332,7 +32594,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>282</v>
+        <v>581</v>
       </c>
       <c r="Z42" t="s">
         <v>116</v>
@@ -31340,7 +32602,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="Z43" t="s">
         <v>117</v>
@@ -31348,7 +32610,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z44" t="s">
         <v>118</v>
@@ -31356,7 +32618,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="Z45" t="s">
         <v>119</v>
@@ -31364,7 +32626,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z46" t="s">
         <v>120</v>
@@ -31372,7 +32634,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>204</v>
+        <v>335</v>
       </c>
       <c r="Z47" t="s">
         <v>452</v>
@@ -31380,7 +32642,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>313</v>
+        <v>204</v>
       </c>
       <c r="Z48" t="s">
         <v>206</v>
@@ -31388,7 +32650,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="Z49" t="s">
         <v>76</v>
@@ -31396,7 +32658,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="Z50" t="s">
         <v>571</v>
@@ -31404,7 +32666,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="Z51" t="s">
         <v>121</v>
@@ -31412,7 +32674,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="Z52" t="s">
         <v>122</v>
@@ -31420,7 +32682,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="Z53" t="s">
         <v>123</v>
@@ -31428,7 +32690,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="Z54" t="s">
         <v>521</v>
@@ -31436,7 +32698,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="Z55" t="s">
         <v>502</v>
@@ -31444,7 +32706,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z56" t="s">
         <v>124</v>
@@ -31452,7 +32714,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z57" t="s">
         <v>339</v>
@@ -31460,7 +32722,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>296</v>
+        <v>582</v>
       </c>
       <c r="Z58" t="s">
         <v>495</v>
@@ -31468,7 +32730,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="Z59" t="s">
         <v>125</v>
@@ -31476,7 +32738,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="Z60" t="s">
         <v>126</v>
@@ -31484,7 +32746,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Z61" t="s">
         <v>127</v>
@@ -31492,7 +32754,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="Z62" t="s">
         <v>128</v>
@@ -31500,7 +32762,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>362</v>
+        <v>302</v>
       </c>
       <c r="Z63" t="s">
         <v>129</v>
@@ -31508,7 +32770,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="Z64" t="s">
         <v>130</v>
@@ -31516,7 +32778,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="Z65" t="s">
         <v>131</v>
@@ -31524,7 +32786,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="Z66" t="s">
         <v>448</v>
@@ -31532,7 +32794,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="Z67" t="s">
         <v>512</v>
@@ -31540,7 +32802,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>567</v>
+        <v>306</v>
       </c>
       <c r="Z68" t="s">
         <v>207</v>
@@ -31548,7 +32810,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="Z69" t="s">
         <v>382</v>
@@ -31556,7 +32818,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>403</v>
+        <v>567</v>
       </c>
       <c r="Z70" t="s">
         <v>453</v>
@@ -31564,7 +32826,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Z71" t="s">
         <v>132</v>
@@ -31572,7 +32834,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Z72" t="s">
         <v>133</v>
@@ -31580,7 +32842,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="Z73" t="s">
         <v>134</v>
@@ -31588,7 +32850,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>547</v>
+        <v>404</v>
       </c>
       <c r="Z74" t="s">
         <v>135</v>
@@ -31596,7 +32858,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="Z75" t="s">
         <v>190</v>
@@ -31604,7 +32866,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>273</v>
+        <v>547</v>
       </c>
       <c r="Z76" t="s">
         <v>191</v>
@@ -31612,7 +32874,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="Z77" t="s">
         <v>490</v>
@@ -31620,7 +32882,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="Z78" t="s">
         <v>506</v>
@@ -31628,7 +32890,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>422</v>
+        <v>279</v>
       </c>
       <c r="Z79" t="s">
         <v>136</v>
@@ -31636,7 +32898,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="Z80" t="s">
         <v>137</v>
@@ -31644,7 +32906,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>263</v>
+        <v>422</v>
       </c>
       <c r="Z81" t="s">
         <v>138</v>
@@ -31652,7 +32914,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="Z82" t="s">
         <v>534</v>
@@ -31660,7 +32922,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="Z83" t="s">
         <v>139</v>
@@ -31668,7 +32930,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Z84" t="s">
         <v>140</v>
@@ -31676,7 +32938,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>568</v>
+        <v>280</v>
       </c>
       <c r="Z85" t="s">
         <v>192</v>
@@ -31684,7 +32946,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Z86" t="s">
         <v>522</v>
@@ -31692,7 +32954,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>281</v>
+        <v>568</v>
       </c>
       <c r="Z87" t="s">
         <v>193</v>
@@ -31700,7 +32962,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z88" t="s">
         <v>489</v>
@@ -31708,7 +32970,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="Z89" t="s">
         <v>194</v>
@@ -31716,7 +32978,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="Z90" t="s">
         <v>195</v>
@@ -31724,7 +32986,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="Z91" t="s">
         <v>208</v>
@@ -31732,7 +32994,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="Z92" t="s">
         <v>141</v>
@@ -31740,7 +33002,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="Z93" t="s">
         <v>196</v>
@@ -31748,7 +33010,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="Z94" t="s">
         <v>446</v>
@@ -31756,18 +33018,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="Z95" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>270</v>
+      </c>
       <c r="Z96" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>271</v>
+      </c>
       <c r="Z97" t="s">
         <v>198</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -41,13 +41,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25013" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25564" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1816,6 +1816,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1826,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="786" x14ac:knownFonts="1">
+  <fonts count="802" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6786,8 +6789,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1354">
+  <fills count="1381">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14456,8 +14560,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1391">
+  <borders count="1423">
     <border>
       <left/>
       <right/>
@@ -27007,6 +27264,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -28496,7 +29079,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="812">
+  <cellXfs count="828">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30902,52 +31485,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1326" fontId="769" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="770" fillId="1329" borderId="1366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="771" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1366" fillId="1329" fontId="770" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="771" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="772" fillId="1332" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1370" fillId="1332" fontId="772" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="773" fillId="1335" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1335" fontId="773" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="774" fillId="1338" borderId="1378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1378" fillId="1338" fontId="774" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="775" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="775" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="776" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1341" fontId="776" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="777" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="778" fillId="1344" borderId="1382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="779" fillId="1335" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="780" fillId="1347" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="781" fillId="1347" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="782" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="783" fillId="1350" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="784" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="785" fillId="1353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="777" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1382" fillId="1344" fontId="778" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1386" fillId="1335" fontId="779" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1390" fillId="1347" fontId="780" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1390" fillId="1347" fontId="781" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1338" fontId="782" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1350" fontId="783" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1338" fontId="784" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1353" fontId="785" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="1356" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="1359" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="1362" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="1365" borderId="1410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="1371" borderId="1414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="1362" borderId="1418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="1374" borderId="1422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="1374" borderId="1422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="1377" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="1380" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31272,7 +31903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -31357,24 +31988,21 @@
         <v>390</v>
       </c>
       <c r="Y1" t="s">
-        <v>578</v>
+        <v>53</v>
       </c>
       <c r="Z1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC1" t="s">
-        <v>56</v>
+        <v>407</v>
       </c>
       <c r="AD1" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -31452,24 +32080,21 @@
         <v>400</v>
       </c>
       <c r="Y2" t="s">
-        <v>580</v>
+        <v>90</v>
       </c>
       <c r="Z2" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="AA2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AB2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AC2" t="s">
-        <v>176</v>
+        <v>425</v>
       </c>
       <c r="AD2" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -31540,22 +32165,22 @@
       <c r="X3" t="s">
         <v>401</v>
       </c>
+      <c r="Y3" t="s">
+        <v>91</v>
+      </c>
       <c r="Z3" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="AA3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AB3" t="s">
-        <v>170</v>
+        <v>357</v>
       </c>
       <c r="AC3" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="AD3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -31623,22 +32248,22 @@
       <c r="X4" t="s">
         <v>402</v>
       </c>
+      <c r="Y4" t="s">
+        <v>347</v>
+      </c>
       <c r="Z4" t="s">
-        <v>347</v>
+        <v>166</v>
       </c>
       <c r="AA4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AB4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AC4" t="s">
-        <v>177</v>
+        <v>417</v>
       </c>
       <c r="AD4" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -31697,22 +32322,22 @@
       <c r="W5" t="s">
         <v>352</v>
       </c>
+      <c r="Y5" t="s">
+        <v>348</v>
+      </c>
       <c r="Z5" t="s">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="AA5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AC5" t="s">
-        <v>178</v>
+        <v>418</v>
       </c>
       <c r="AD5" t="s">
-        <v>418</v>
-      </c>
-      <c r="AE5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -31765,22 +32390,22 @@
       <c r="W6" t="s">
         <v>354</v>
       </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
       <c r="Z6" t="s">
-        <v>92</v>
+        <v>455</v>
       </c>
       <c r="AA6" t="s">
-        <v>455</v>
+        <v>173</v>
       </c>
       <c r="AB6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AC6" t="s">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="AD6" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -31827,22 +32452,22 @@
       <c r="W7" t="s">
         <v>353</v>
       </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
       <c r="Z7" t="s">
-        <v>93</v>
+        <v>456</v>
       </c>
       <c r="AA7" t="s">
-        <v>456</v>
+        <v>174</v>
       </c>
       <c r="AB7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AC7" t="s">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="AD7" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE7" t="s">
         <v>572</v>
       </c>
     </row>
@@ -31883,22 +32508,22 @@
       <c r="W8" t="s">
         <v>355</v>
       </c>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
       <c r="Z8" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="AA8" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AB8" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC8" t="s">
-        <v>181</v>
+        <v>421</v>
       </c>
       <c r="AD8" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE8" t="s">
         <v>573</v>
       </c>
     </row>
@@ -31939,13 +32564,13 @@
       <c r="W9" t="s">
         <v>356</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>202</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>182</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>574</v>
       </c>
     </row>
@@ -31980,13 +32605,13 @@
       <c r="T10" t="s">
         <v>399</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>250</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>183</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>225</v>
       </c>
     </row>
@@ -32018,13 +32643,13 @@
       <c r="R11" t="s">
         <v>241</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>251</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>252</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -32056,13 +32681,13 @@
       <c r="R12" t="s">
         <v>242</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>95</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>184</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>227</v>
       </c>
     </row>
@@ -32091,13 +32716,13 @@
       <c r="R13" t="s">
         <v>247</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>319</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>185</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>513</v>
       </c>
     </row>
@@ -32126,13 +32751,13 @@
       <c r="R14" t="s">
         <v>243</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>96</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>186</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>530</v>
       </c>
     </row>
@@ -32158,13 +32783,13 @@
       <c r="R15" t="s">
         <v>244</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>97</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>187</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>531</v>
       </c>
     </row>
@@ -32182,7 +32807,7 @@
         <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>583</v>
       </c>
       <c r="Q16" t="s">
         <v>539</v>
@@ -32190,13 +32815,13 @@
       <c r="R16" t="s">
         <v>245</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>74</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>188</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>535</v>
       </c>
     </row>
@@ -32214,15 +32839,15 @@
         <v>81</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
         <v>540</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>497</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>536</v>
       </c>
     </row>
@@ -32239,10 +32864,13 @@
       <c r="K18" t="s">
         <v>492</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>98</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>514</v>
       </c>
     </row>
@@ -32259,10 +32887,10 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>99</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>532</v>
       </c>
     </row>
@@ -32279,10 +32907,10 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>100</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>533</v>
       </c>
     </row>
@@ -32299,10 +32927,10 @@
       <c r="K21" t="s">
         <v>373</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>101</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>537</v>
       </c>
     </row>
@@ -32319,10 +32947,10 @@
       <c r="K22" t="s">
         <v>509</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>523</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>228</v>
       </c>
     </row>
@@ -32339,10 +32967,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>103</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>575</v>
       </c>
     </row>
@@ -32359,16 +32987,16 @@
       <c r="K24" t="s">
         <v>385</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>104</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>578</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>62</v>
@@ -32379,16 +33007,16 @@
       <c r="K25" t="s">
         <v>562</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>105</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>458</v>
@@ -32399,16 +33027,16 @@
       <c r="K26" t="s">
         <v>84</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>106</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>218</v>
@@ -32419,16 +33047,16 @@
       <c r="K27" t="s">
         <v>450</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>107</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>219</v>
@@ -32439,13 +33067,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>407</v>
       </c>
       <c r="E29" t="s">
         <v>507</v>
@@ -32456,13 +33084,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>407</v>
+        <v>220</v>
       </c>
       <c r="E30" t="s">
         <v>508</v>
@@ -32470,21 +33098,18 @@
       <c r="G30" t="s">
         <v>209</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>220</v>
-      </c>
       <c r="E31" t="s">
         <v>409</v>
       </c>
       <c r="G31" t="s">
         <v>268</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>110</v>
       </c>
     </row>
@@ -32495,7 +33120,7 @@
       <c r="G32" t="s">
         <v>278</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>111</v>
       </c>
     </row>
@@ -32506,7 +33131,7 @@
       <c r="G33" t="s">
         <v>546</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>112</v>
       </c>
     </row>
@@ -32517,7 +33142,7 @@
       <c r="G34" t="s">
         <v>253</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>113</v>
       </c>
     </row>
@@ -32528,7 +33153,7 @@
       <c r="G35" t="s">
         <v>323</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>203</v>
       </c>
     </row>
@@ -32539,7 +33164,7 @@
       <c r="G36" t="s">
         <v>300</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>114</v>
       </c>
     </row>
@@ -32550,7 +33175,7 @@
       <c r="G37" t="s">
         <v>254</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>331</v>
       </c>
     </row>
@@ -32561,7 +33186,7 @@
       <c r="G38" t="s">
         <v>301</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>445</v>
       </c>
     </row>
@@ -32572,7 +33197,7 @@
       <c r="G39" t="s">
         <v>260</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>566</v>
       </c>
     </row>
@@ -32580,7 +33205,7 @@
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>386</v>
       </c>
     </row>
@@ -32588,7 +33213,7 @@
       <c r="G41" t="s">
         <v>205</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>115</v>
       </c>
     </row>
@@ -32596,7 +33221,7 @@
       <c r="G42" t="s">
         <v>581</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>116</v>
       </c>
     </row>
@@ -32604,7 +33229,7 @@
       <c r="G43" t="s">
         <v>282</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>117</v>
       </c>
     </row>
@@ -32612,7 +33237,7 @@
       <c r="G44" t="s">
         <v>293</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>118</v>
       </c>
     </row>
@@ -32620,7 +33245,7 @@
       <c r="G45" t="s">
         <v>294</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -32628,7 +33253,7 @@
       <c r="G46" t="s">
         <v>336</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>120</v>
       </c>
     </row>
@@ -32636,7 +33261,7 @@
       <c r="G47" t="s">
         <v>335</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>452</v>
       </c>
     </row>
@@ -32644,7 +33269,7 @@
       <c r="G48" t="s">
         <v>204</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>206</v>
       </c>
     </row>
@@ -32652,7 +33277,7 @@
       <c r="G49" t="s">
         <v>313</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>76</v>
       </c>
     </row>
@@ -32660,7 +33285,7 @@
       <c r="G50" t="s">
         <v>332</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>571</v>
       </c>
     </row>
@@ -32668,7 +33293,7 @@
       <c r="G51" t="s">
         <v>361</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>121</v>
       </c>
     </row>
@@ -32676,7 +33301,7 @@
       <c r="G52" t="s">
         <v>295</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>122</v>
       </c>
     </row>
@@ -32684,7 +33309,7 @@
       <c r="G53" t="s">
         <v>349</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>123</v>
       </c>
     </row>
@@ -32692,7 +33317,7 @@
       <c r="G54" t="s">
         <v>324</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>521</v>
       </c>
     </row>
@@ -32700,7 +33325,7 @@
       <c r="G55" t="s">
         <v>261</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>502</v>
       </c>
     </row>
@@ -32708,7 +33333,7 @@
       <c r="G56" t="s">
         <v>285</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>124</v>
       </c>
     </row>
@@ -32716,7 +33341,7 @@
       <c r="G57" t="s">
         <v>286</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>339</v>
       </c>
     </row>
@@ -32724,7 +33349,7 @@
       <c r="G58" t="s">
         <v>582</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>495</v>
       </c>
     </row>
@@ -32732,7 +33357,7 @@
       <c r="G59" t="s">
         <v>287</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>125</v>
       </c>
     </row>
@@ -32740,7 +33365,7 @@
       <c r="G60" t="s">
         <v>296</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>126</v>
       </c>
     </row>
@@ -32748,7 +33373,7 @@
       <c r="G61" t="s">
         <v>305</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>127</v>
       </c>
     </row>
@@ -32756,7 +33381,7 @@
       <c r="G62" t="s">
         <v>330</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>128</v>
       </c>
     </row>
@@ -32764,7 +33389,7 @@
       <c r="G63" t="s">
         <v>302</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>129</v>
       </c>
     </row>
@@ -32772,7 +33397,7 @@
       <c r="G64" t="s">
         <v>303</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>130</v>
       </c>
     </row>
@@ -32780,7 +33405,7 @@
       <c r="G65" t="s">
         <v>362</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>131</v>
       </c>
     </row>
@@ -32788,7 +33413,7 @@
       <c r="G66" t="s">
         <v>363</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>448</v>
       </c>
     </row>
@@ -32796,7 +33421,7 @@
       <c r="G67" t="s">
         <v>338</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>512</v>
       </c>
     </row>
@@ -32804,7 +33429,7 @@
       <c r="G68" t="s">
         <v>306</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>207</v>
       </c>
     </row>
@@ -32812,7 +33437,7 @@
       <c r="G69" t="s">
         <v>262</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>382</v>
       </c>
     </row>
@@ -32820,7 +33445,7 @@
       <c r="G70" t="s">
         <v>567</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>453</v>
       </c>
     </row>
@@ -32828,7 +33453,7 @@
       <c r="G71" t="s">
         <v>307</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>132</v>
       </c>
     </row>
@@ -32836,7 +33461,7 @@
       <c r="G72" t="s">
         <v>403</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>133</v>
       </c>
     </row>
@@ -32844,7 +33469,7 @@
       <c r="G73" t="s">
         <v>297</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>134</v>
       </c>
     </row>
@@ -32852,7 +33477,7 @@
       <c r="G74" t="s">
         <v>404</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>135</v>
       </c>
     </row>
@@ -32860,7 +33485,7 @@
       <c r="G75" t="s">
         <v>255</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>190</v>
       </c>
     </row>
@@ -32868,7 +33493,7 @@
       <c r="G76" t="s">
         <v>547</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>191</v>
       </c>
     </row>
@@ -32876,7 +33501,7 @@
       <c r="G77" t="s">
         <v>337</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>490</v>
       </c>
     </row>
@@ -32884,7 +33509,7 @@
       <c r="G78" t="s">
         <v>273</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>506</v>
       </c>
     </row>
@@ -32892,7 +33517,7 @@
       <c r="G79" t="s">
         <v>279</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>136</v>
       </c>
     </row>
@@ -32900,7 +33525,7 @@
       <c r="G80" t="s">
         <v>284</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>137</v>
       </c>
     </row>
@@ -32908,7 +33533,7 @@
       <c r="G81" t="s">
         <v>422</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>138</v>
       </c>
     </row>
@@ -32916,7 +33541,7 @@
       <c r="G82" t="s">
         <v>325</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>534</v>
       </c>
     </row>
@@ -32924,7 +33549,7 @@
       <c r="G83" t="s">
         <v>263</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>139</v>
       </c>
     </row>
@@ -32932,7 +33557,7 @@
       <c r="G84" t="s">
         <v>274</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>140</v>
       </c>
     </row>
@@ -32940,7 +33565,7 @@
       <c r="G85" t="s">
         <v>280</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>192</v>
       </c>
     </row>
@@ -32948,7 +33573,7 @@
       <c r="G86" t="s">
         <v>269</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>522</v>
       </c>
     </row>
@@ -32956,7 +33581,7 @@
       <c r="G87" t="s">
         <v>568</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>193</v>
       </c>
     </row>
@@ -32964,7 +33589,7 @@
       <c r="G88" t="s">
         <v>264</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>489</v>
       </c>
     </row>
@@ -32972,7 +33597,7 @@
       <c r="G89" t="s">
         <v>281</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>194</v>
       </c>
     </row>
@@ -32980,7 +33605,7 @@
       <c r="G90" t="s">
         <v>265</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>195</v>
       </c>
     </row>
@@ -32988,7 +33613,7 @@
       <c r="G91" t="s">
         <v>266</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>208</v>
       </c>
     </row>
@@ -32996,7 +33621,7 @@
       <c r="G92" t="s">
         <v>298</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>141</v>
       </c>
     </row>
@@ -33004,7 +33629,7 @@
       <c r="G93" t="s">
         <v>304</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>196</v>
       </c>
     </row>
@@ -33012,7 +33637,7 @@
       <c r="G94" t="s">
         <v>288</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>446</v>
       </c>
     </row>
@@ -33020,7 +33645,7 @@
       <c r="G95" t="s">
         <v>333</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>447</v>
       </c>
     </row>
@@ -33028,7 +33653,7 @@
       <c r="G96" t="s">
         <v>270</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>197</v>
       </c>
     </row>
@@ -33036,167 +33661,167 @@
       <c r="G97" t="s">
         <v>271</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25564" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27227" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -1819,6 +1819,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +1838,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="802" x14ac:knownFonts="1">
+  <fonts count="850" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6890,8 +6902,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1381">
+  <fills count="1462">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14713,8 +15028,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1423">
+  <borders count="1519">
     <border>
       <left/>
       <right/>
@@ -27264,6 +28038,984 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -29079,7 +30831,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="828">
+  <cellXfs count="876">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31533,52 +33285,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1353" fontId="785" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="786" fillId="1356" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="787" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1398" fillId="1356" fontId="786" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="787" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="788" fillId="1359" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1402" fillId="1359" fontId="788" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="789" fillId="1362" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1406" fillId="1362" fontId="789" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="790" fillId="1365" borderId="1410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1410" fillId="1365" fontId="790" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="791" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="791" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="792" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1368" fontId="792" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="793" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="794" fillId="1371" borderId="1414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="795" fillId="1362" borderId="1418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="796" fillId="1374" borderId="1422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="797" fillId="1374" borderId="1422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="798" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="799" fillId="1377" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="800" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="801" fillId="1380" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="793" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1414" fillId="1371" fontId="794" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1418" fillId="1362" fontId="795" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1422" fillId="1374" fontId="796" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1422" fillId="1374" fontId="797" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1365" fontId="798" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1377" fontId="799" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1365" fontId="800" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1380" fontId="801" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1430" fillId="1383" fontId="802" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="803" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1434" fillId="1386" fontId="804" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1438" fillId="1389" fontId="805" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1442" fillId="1392" fontId="806" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="807" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1395" fontId="808" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="809" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1446" fillId="1398" fontId="810" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1450" fillId="1389" fontId="811" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1454" fillId="1401" fontId="812" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1454" fillId="1401" fontId="813" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1392" fontId="814" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1404" fontId="815" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1392" fontId="816" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1407" fontId="817" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1462" fillId="1410" fontId="818" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="819" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1466" fillId="1413" fontId="820" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1470" fillId="1416" fontId="821" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1474" fillId="1419" fontId="822" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="823" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1422" fontId="824" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="825" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1478" fillId="1425" fontId="826" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1482" fillId="1416" fontId="827" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1486" fillId="1428" fontId="828" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1486" fillId="1428" fontId="829" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1419" fontId="830" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1431" fontId="831" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1419" fontId="832" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1434" fontId="833" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="1437" borderId="1494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="1440" borderId="1498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="1443" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="1446" borderId="1506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="1449" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="1452" borderId="1510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="1443" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="1455" borderId="1518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="1455" borderId="1518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="1446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="1458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="1446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="1461" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31903,7 +33799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -32988,7 +34884,7 @@
         <v>385</v>
       </c>
       <c r="Y24" t="s">
-        <v>104</v>
+        <v>584</v>
       </c>
       <c r="AD24" t="s">
         <v>576</v>
@@ -33008,7 +34904,7 @@
         <v>562</v>
       </c>
       <c r="Y25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD25" t="s">
         <v>577</v>
@@ -33028,7 +34924,7 @@
         <v>84</v>
       </c>
       <c r="Y26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD26" t="s">
         <v>229</v>
@@ -33048,7 +34944,7 @@
         <v>450</v>
       </c>
       <c r="Y27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD27" t="s">
         <v>230</v>
@@ -33068,7 +34964,7 @@
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>320</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -33085,7 +34981,7 @@
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30">
@@ -33099,7 +34995,7 @@
         <v>209</v>
       </c>
       <c r="Y30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -33110,7 +35006,7 @@
         <v>268</v>
       </c>
       <c r="Y31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
@@ -33121,7 +35017,7 @@
         <v>278</v>
       </c>
       <c r="Y32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -33132,7 +35028,7 @@
         <v>546</v>
       </c>
       <c r="Y33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -33143,7 +35039,7 @@
         <v>253</v>
       </c>
       <c r="Y34" t="s">
-        <v>113</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35">
@@ -33154,7 +35050,7 @@
         <v>323</v>
       </c>
       <c r="Y35" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -33165,7 +35061,7 @@
         <v>300</v>
       </c>
       <c r="Y36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -33176,7 +35072,7 @@
         <v>254</v>
       </c>
       <c r="Y37" t="s">
-        <v>331</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38">
@@ -33187,7 +35083,7 @@
         <v>301</v>
       </c>
       <c r="Y38" t="s">
-        <v>445</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39">
@@ -33198,7 +35094,7 @@
         <v>260</v>
       </c>
       <c r="Y39" t="s">
-        <v>566</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40">
@@ -33206,7 +35102,7 @@
         <v>77</v>
       </c>
       <c r="Y40" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41">
@@ -33214,7 +35110,7 @@
         <v>205</v>
       </c>
       <c r="Y41" t="s">
-        <v>115</v>
+        <v>566</v>
       </c>
     </row>
     <row r="42">
@@ -33222,7 +35118,7 @@
         <v>581</v>
       </c>
       <c r="Y42" t="s">
-        <v>116</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43">
@@ -33230,7 +35126,7 @@
         <v>282</v>
       </c>
       <c r="Y43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44">
@@ -33238,7 +35134,7 @@
         <v>293</v>
       </c>
       <c r="Y44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
@@ -33246,7 +35142,7 @@
         <v>294</v>
       </c>
       <c r="Y45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46">
@@ -33254,7 +35150,7 @@
         <v>336</v>
       </c>
       <c r="Y46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
@@ -33262,7 +35158,7 @@
         <v>335</v>
       </c>
       <c r="Y47" t="s">
-        <v>452</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48">
@@ -33270,7 +35166,7 @@
         <v>204</v>
       </c>
       <c r="Y48" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
@@ -33278,7 +35174,7 @@
         <v>313</v>
       </c>
       <c r="Y49" t="s">
-        <v>76</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50">
@@ -33286,7 +35182,7 @@
         <v>332</v>
       </c>
       <c r="Y50" t="s">
-        <v>571</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51">
@@ -33294,7 +35190,7 @@
         <v>361</v>
       </c>
       <c r="Y51" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
@@ -33302,7 +35198,7 @@
         <v>295</v>
       </c>
       <c r="Y52" t="s">
-        <v>122</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53">
@@ -33310,7 +35206,7 @@
         <v>349</v>
       </c>
       <c r="Y53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54">
@@ -33318,7 +35214,7 @@
         <v>324</v>
       </c>
       <c r="Y54" t="s">
-        <v>521</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55">
@@ -33326,7 +35222,7 @@
         <v>261</v>
       </c>
       <c r="Y55" t="s">
-        <v>502</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56">
@@ -33334,7 +35230,7 @@
         <v>285</v>
       </c>
       <c r="Y56" t="s">
-        <v>124</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57">
@@ -33342,7 +35238,7 @@
         <v>286</v>
       </c>
       <c r="Y57" t="s">
-        <v>339</v>
+        <v>502</v>
       </c>
     </row>
     <row r="58">
@@ -33350,7 +35246,7 @@
         <v>582</v>
       </c>
       <c r="Y58" t="s">
-        <v>495</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
@@ -33358,7 +35254,7 @@
         <v>287</v>
       </c>
       <c r="Y59" t="s">
-        <v>125</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60">
@@ -33366,7 +35262,7 @@
         <v>296</v>
       </c>
       <c r="Y60" t="s">
-        <v>126</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61">
@@ -33374,7 +35270,7 @@
         <v>305</v>
       </c>
       <c r="Y61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62">
@@ -33382,7 +35278,7 @@
         <v>330</v>
       </c>
       <c r="Y62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
@@ -33390,7 +35286,7 @@
         <v>302</v>
       </c>
       <c r="Y63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64">
@@ -33398,7 +35294,7 @@
         <v>303</v>
       </c>
       <c r="Y64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
@@ -33406,7 +35302,7 @@
         <v>362</v>
       </c>
       <c r="Y65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
@@ -33414,7 +35310,7 @@
         <v>363</v>
       </c>
       <c r="Y66" t="s">
-        <v>448</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67">
@@ -33422,7 +35318,7 @@
         <v>338</v>
       </c>
       <c r="Y67" t="s">
-        <v>512</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
@@ -33430,7 +35326,7 @@
         <v>306</v>
       </c>
       <c r="Y68" t="s">
-        <v>207</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69">
@@ -33438,7 +35334,7 @@
         <v>262</v>
       </c>
       <c r="Y69" t="s">
-        <v>382</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70">
@@ -33446,7 +35342,7 @@
         <v>567</v>
       </c>
       <c r="Y70" t="s">
-        <v>453</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71">
@@ -33454,7 +35350,7 @@
         <v>307</v>
       </c>
       <c r="Y71" t="s">
-        <v>132</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72">
@@ -33462,7 +35358,7 @@
         <v>403</v>
       </c>
       <c r="Y72" t="s">
-        <v>133</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73">
@@ -33470,7 +35366,7 @@
         <v>297</v>
       </c>
       <c r="Y73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74">
@@ -33478,7 +35374,7 @@
         <v>404</v>
       </c>
       <c r="Y74" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75">
@@ -33486,7 +35382,7 @@
         <v>255</v>
       </c>
       <c r="Y75" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76">
@@ -33494,7 +35390,7 @@
         <v>547</v>
       </c>
       <c r="Y76" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
@@ -33502,7 +35398,7 @@
         <v>337</v>
       </c>
       <c r="Y77" t="s">
-        <v>490</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78">
@@ -33510,7 +35406,7 @@
         <v>273</v>
       </c>
       <c r="Y78" t="s">
-        <v>506</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79">
@@ -33518,7 +35414,7 @@
         <v>279</v>
       </c>
       <c r="Y79" t="s">
-        <v>136</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80">
@@ -33526,7 +35422,7 @@
         <v>284</v>
       </c>
       <c r="Y80" t="s">
-        <v>137</v>
+        <v>506</v>
       </c>
     </row>
     <row r="81">
@@ -33534,7 +35430,7 @@
         <v>422</v>
       </c>
       <c r="Y81" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82">
@@ -33542,7 +35438,7 @@
         <v>325</v>
       </c>
       <c r="Y82" t="s">
-        <v>534</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83">
@@ -33550,7 +35446,7 @@
         <v>263</v>
       </c>
       <c r="Y83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84">
@@ -33558,7 +35454,7 @@
         <v>274</v>
       </c>
       <c r="Y84" t="s">
-        <v>140</v>
+        <v>534</v>
       </c>
     </row>
     <row r="85">
@@ -33566,7 +35462,7 @@
         <v>280</v>
       </c>
       <c r="Y85" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86">
@@ -33574,7 +35470,7 @@
         <v>269</v>
       </c>
       <c r="Y86" t="s">
-        <v>522</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87">
@@ -33582,7 +35478,7 @@
         <v>568</v>
       </c>
       <c r="Y87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88">
@@ -33590,7 +35486,7 @@
         <v>264</v>
       </c>
       <c r="Y88" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89">
@@ -33598,7 +35494,7 @@
         <v>281</v>
       </c>
       <c r="Y89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90">
@@ -33606,7 +35502,7 @@
         <v>265</v>
       </c>
       <c r="Y90" t="s">
-        <v>195</v>
+        <v>489</v>
       </c>
     </row>
     <row r="91">
@@ -33614,7 +35510,7 @@
         <v>266</v>
       </c>
       <c r="Y91" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92">
@@ -33622,7 +35518,7 @@
         <v>298</v>
       </c>
       <c r="Y92" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93">
@@ -33630,7 +35526,7 @@
         <v>304</v>
       </c>
       <c r="Y93" t="s">
-        <v>196</v>
+        <v>587</v>
       </c>
     </row>
     <row r="94">
@@ -33638,7 +35534,7 @@
         <v>288</v>
       </c>
       <c r="Y94" t="s">
-        <v>446</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95">
@@ -33646,7 +35542,7 @@
         <v>333</v>
       </c>
       <c r="Y95" t="s">
-        <v>447</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96">
@@ -33654,7 +35550,7 @@
         <v>270</v>
       </c>
       <c r="Y96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97">
@@ -33662,166 +35558,186 @@
         <v>271</v>
       </c>
       <c r="Y97" t="s">
-        <v>198</v>
+        <v>446</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>199</v>
+        <v>447</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>541</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>548</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>376</v>
+        <v>548</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>144</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>145</v>
+        <v>376</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>454</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>158</v>
+        <v>454</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>586</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -22,7 +22,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27227" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27783" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1831,6 +1831,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +1844,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="850" x14ac:knownFonts="1">
+  <fonts count="866" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7205,8 +7211,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1462">
+  <fills count="1489">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15487,8 +15594,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1519">
+  <borders count="1551">
     <border>
       <left/>
       <right/>
@@ -28038,6 +28298,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -30831,7 +31417,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="876">
+  <cellXfs count="892">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -33429,52 +34015,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1434" fontId="833" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="834" fillId="1437" borderId="1494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="835" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1494" fillId="1437" fontId="834" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="835" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="836" fillId="1440" borderId="1498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1498" fillId="1440" fontId="836" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="837" fillId="1443" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1502" fillId="1443" fontId="837" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="838" fillId="1446" borderId="1506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1506" fillId="1446" fontId="838" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="839" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="839" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="840" fillId="1449" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1449" fontId="840" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="841" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="842" fillId="1452" borderId="1510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="843" fillId="1443" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="844" fillId="1455" borderId="1518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="845" fillId="1455" borderId="1518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="846" fillId="1446" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="847" fillId="1458" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="848" fillId="1446" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="849" fillId="1461" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="841" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1510" fillId="1452" fontId="842" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1514" fillId="1443" fontId="843" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1518" fillId="1455" fontId="844" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1518" fillId="1455" fontId="845" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1446" fontId="846" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1458" fontId="847" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1446" fontId="848" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1461" fontId="849" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="1464" borderId="1526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="851" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="1467" borderId="1530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="853" fillId="1470" borderId="1534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="854" fillId="1473" borderId="1538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="855" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="1476" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="857" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="1479" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="1470" borderId="1546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="1482" borderId="1550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="861" fillId="1482" borderId="1550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="1473" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="1485" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="1473" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="865" fillId="1488" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34180,7 +34814,7 @@
         <v>449</v>
       </c>
       <c r="G5" t="s">
-        <v>329</v>
+        <v>588</v>
       </c>
       <c r="H5" t="s">
         <v>491</v>
@@ -34254,7 +34888,7 @@
         <v>542</v>
       </c>
       <c r="G6" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="H6" t="s">
         <v>461</v>
@@ -34316,7 +34950,7 @@
         <v>217</v>
       </c>
       <c r="G7" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="H7" t="s">
         <v>457</v>
@@ -34378,7 +35012,7 @@
         <v>311</v>
       </c>
       <c r="G8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H8" t="s">
         <v>321</v>
@@ -34434,7 +35068,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="H9" t="s">
         <v>322</v>
@@ -34478,7 +35112,7 @@
         <v>308</v>
       </c>
       <c r="G10" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="H10" t="s">
         <v>462</v>
@@ -34519,7 +35153,7 @@
         <v>248</v>
       </c>
       <c r="G11" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
       <c r="H11" t="s">
         <v>315</v>
@@ -34557,7 +35191,7 @@
         <v>312</v>
       </c>
       <c r="G12" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H12" t="s">
         <v>316</v>
@@ -34595,7 +35229,7 @@
         <v>334</v>
       </c>
       <c r="G13" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="H13" t="s">
         <v>317</v>
@@ -34630,7 +35264,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="H14" t="s">
         <v>318</v>
@@ -34665,7 +35299,7 @@
         <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K15" t="s">
         <v>545</v>
@@ -34697,7 +35331,7 @@
         <v>378</v>
       </c>
       <c r="G16" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="K16" t="s">
         <v>80</v>
@@ -34729,7 +35363,7 @@
         <v>379</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="K17" t="s">
         <v>81</v>
@@ -34755,7 +35389,7 @@
         <v>408</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
         <v>492</v>
@@ -34778,7 +35412,7 @@
         <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>289</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
         <v>82</v>
@@ -34798,7 +35432,7 @@
         <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K20" t="s">
         <v>83</v>
@@ -34818,7 +35452,7 @@
         <v>249</v>
       </c>
       <c r="G21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K21" t="s">
         <v>373</v>
@@ -34838,7 +35472,7 @@
         <v>579</v>
       </c>
       <c r="G22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K22" t="s">
         <v>509</v>
@@ -34858,7 +35492,7 @@
         <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -34878,7 +35512,7 @@
         <v>314</v>
       </c>
       <c r="G24" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="K24" t="s">
         <v>385</v>
@@ -34898,7 +35532,7 @@
         <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="K25" t="s">
         <v>562</v>
@@ -34918,7 +35552,7 @@
         <v>458</v>
       </c>
       <c r="G26" t="s">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s">
         <v>84</v>
@@ -34938,7 +35572,7 @@
         <v>218</v>
       </c>
       <c r="G27" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s">
         <v>450</v>
@@ -34958,7 +35592,7 @@
         <v>219</v>
       </c>
       <c r="G28" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
@@ -34975,7 +35609,7 @@
         <v>507</v>
       </c>
       <c r="G29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
@@ -34992,7 +35626,7 @@
         <v>508</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="Y30" t="s">
         <v>108</v>
@@ -35003,7 +35637,7 @@
         <v>409</v>
       </c>
       <c r="G31" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="Y31" t="s">
         <v>109</v>
@@ -35014,7 +35648,7 @@
         <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="Y32" t="s">
         <v>110</v>
@@ -35025,7 +35659,7 @@
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>546</v>
+        <v>278</v>
       </c>
       <c r="Y33" t="s">
         <v>111</v>
@@ -35036,7 +35670,7 @@
         <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>253</v>
+        <v>546</v>
       </c>
       <c r="Y34" t="s">
         <v>585</v>
@@ -35047,7 +35681,7 @@
         <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="Y35" t="s">
         <v>112</v>
@@ -35058,7 +35692,7 @@
         <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="Y36" t="s">
         <v>113</v>
@@ -35069,7 +35703,7 @@
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="Y37" t="s">
         <v>203</v>
@@ -35080,7 +35714,7 @@
         <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="Y38" t="s">
         <v>114</v>
@@ -35091,7 +35725,7 @@
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="Y39" t="s">
         <v>331</v>
@@ -35099,7 +35733,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Y40" t="s">
         <v>445</v>
@@ -35107,7 +35741,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s">
         <v>566</v>
@@ -35115,7 +35749,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>581</v>
+        <v>205</v>
       </c>
       <c r="Y42" t="s">
         <v>386</v>
@@ -35123,7 +35757,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>282</v>
+        <v>581</v>
       </c>
       <c r="Y43" t="s">
         <v>115</v>
@@ -35131,7 +35765,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="Y44" t="s">
         <v>116</v>
@@ -35139,7 +35773,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y45" t="s">
         <v>117</v>
@@ -35147,7 +35781,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="Y46" t="s">
         <v>118</v>
@@ -35155,7 +35789,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y47" t="s">
         <v>119</v>
@@ -35163,7 +35797,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>204</v>
+        <v>335</v>
       </c>
       <c r="Y48" t="s">
         <v>120</v>
@@ -35171,7 +35805,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>313</v>
+        <v>204</v>
       </c>
       <c r="Y49" t="s">
         <v>452</v>
@@ -35179,7 +35813,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="Y50" t="s">
         <v>206</v>
@@ -35187,7 +35821,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="Y51" t="s">
         <v>76</v>
@@ -35195,7 +35829,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="Y52" t="s">
         <v>571</v>
@@ -35203,7 +35837,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="Y53" t="s">
         <v>121</v>
@@ -35211,7 +35845,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="Y54" t="s">
         <v>122</v>
@@ -35219,7 +35853,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="Y55" t="s">
         <v>123</v>
@@ -35227,7 +35861,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="Y56" t="s">
         <v>521</v>
@@ -35235,7 +35869,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y57" t="s">
         <v>502</v>
@@ -35243,7 +35877,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>582</v>
+        <v>286</v>
       </c>
       <c r="Y58" t="s">
         <v>124</v>
@@ -35251,7 +35885,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>287</v>
+        <v>582</v>
       </c>
       <c r="Y59" t="s">
         <v>339</v>
@@ -35259,7 +35893,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Y60" t="s">
         <v>495</v>
@@ -35267,7 +35901,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="Y61" t="s">
         <v>125</v>
@@ -35275,7 +35909,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="Y62" t="s">
         <v>126</v>
@@ -35283,7 +35917,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="Y63" t="s">
         <v>127</v>
@@ -35291,7 +35925,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y64" t="s">
         <v>128</v>
@@ -35299,7 +35933,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="Y65" t="s">
         <v>129</v>
@@ -35307,7 +35941,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y66" t="s">
         <v>130</v>
@@ -35315,7 +35949,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="Y67" t="s">
         <v>131</v>
@@ -35323,7 +35957,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="Y68" t="s">
         <v>448</v>
@@ -35331,7 +35965,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="Y69" t="s">
         <v>512</v>
@@ -35339,7 +35973,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>567</v>
+        <v>262</v>
       </c>
       <c r="Y70" t="s">
         <v>207</v>
@@ -35347,7 +35981,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>307</v>
+        <v>567</v>
       </c>
       <c r="Y71" t="s">
         <v>382</v>
@@ -35355,7 +35989,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="Y72" t="s">
         <v>453</v>
@@ -35363,7 +35997,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>297</v>
+        <v>403</v>
       </c>
       <c r="Y73" t="s">
         <v>132</v>
@@ -35371,7 +36005,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>404</v>
+        <v>297</v>
       </c>
       <c r="Y74" t="s">
         <v>133</v>
@@ -35379,7 +36013,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>255</v>
+        <v>404</v>
       </c>
       <c r="Y75" t="s">
         <v>134</v>
@@ -35387,7 +36021,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>547</v>
+        <v>255</v>
       </c>
       <c r="Y76" t="s">
         <v>135</v>
@@ -35395,7 +36029,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>337</v>
+        <v>547</v>
       </c>
       <c r="Y77" t="s">
         <v>190</v>
@@ -35403,7 +36037,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="Y78" t="s">
         <v>191</v>
@@ -35411,7 +36045,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Y79" t="s">
         <v>490</v>
@@ -35419,7 +36053,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Y80" t="s">
         <v>506</v>
@@ -35427,7 +36061,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>422</v>
+        <v>284</v>
       </c>
       <c r="Y81" t="s">
         <v>136</v>
@@ -35435,7 +36069,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>325</v>
+        <v>422</v>
       </c>
       <c r="Y82" t="s">
         <v>137</v>
@@ -35443,7 +36077,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="Y83" t="s">
         <v>138</v>
@@ -35451,7 +36085,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="Y84" t="s">
         <v>534</v>
@@ -35459,7 +36093,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Y85" t="s">
         <v>139</v>
@@ -35467,7 +36101,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Y86" t="s">
         <v>140</v>
@@ -35475,7 +36109,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>568</v>
+        <v>269</v>
       </c>
       <c r="Y87" t="s">
         <v>192</v>
@@ -35483,7 +36117,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>264</v>
+        <v>568</v>
       </c>
       <c r="Y88" t="s">
         <v>522</v>
@@ -35491,7 +36125,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="Y89" t="s">
         <v>193</v>
@@ -35499,7 +36133,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="Y90" t="s">
         <v>489</v>
@@ -35507,7 +36141,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y91" t="s">
         <v>194</v>
@@ -35515,7 +36149,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="Y92" t="s">
         <v>195</v>
@@ -35523,15 +36157,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Y93" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="Y94" t="s">
         <v>208</v>
@@ -35539,7 +36173,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="Y95" t="s">
         <v>141</v>
@@ -35547,7 +36181,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="Y96" t="s">
         <v>196</v>
@@ -35555,13 +36189,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y97" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>271</v>
+      </c>
       <c r="Y98" t="s">
         <v>447</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27783" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28340" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1837,6 +1837,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1847,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="866" x14ac:knownFonts="1">
+  <fonts count="882" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7312,8 +7315,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1489">
+  <fills count="1516">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15747,8 +15851,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1551">
+  <borders count="1583">
     <border>
       <left/>
       <right/>
@@ -28298,6 +28555,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -31417,7 +32000,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="892">
+  <cellXfs count="908">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -34063,52 +34646,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1461" fontId="849" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="850" fillId="1464" borderId="1526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="851" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1526" fillId="1464" fontId="850" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="851" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="852" fillId="1467" borderId="1530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1530" fillId="1467" fontId="852" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="853" fillId="1470" borderId="1534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1534" fillId="1470" fontId="853" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="854" fillId="1473" borderId="1538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1538" fillId="1473" fontId="854" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="855" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="855" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="856" fillId="1476" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1476" fontId="856" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="857" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="858" fillId="1479" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="859" fillId="1470" borderId="1546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="860" fillId="1482" borderId="1550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="861" fillId="1482" borderId="1550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="862" fillId="1473" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="863" fillId="1485" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="864" fillId="1473" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="865" fillId="1488" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="857" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1542" fillId="1479" fontId="858" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1546" fillId="1470" fontId="859" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1550" fillId="1482" fontId="860" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1550" fillId="1482" fontId="861" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1473" fontId="862" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1485" fontId="863" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1473" fontId="864" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1488" fontId="865" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="866" fillId="1491" borderId="1558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="1494" borderId="1562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="869" fillId="1497" borderId="1566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="870" fillId="1500" borderId="1570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="1503" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="1506" borderId="1574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="1497" borderId="1578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="1509" borderId="1582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="1509" borderId="1582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="878" fillId="1500" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="1500" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="1515" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34433,7 +35064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -36168,7 +36799,7 @@
         <v>304</v>
       </c>
       <c r="Y94" t="s">
-        <v>208</v>
+        <v>590</v>
       </c>
     </row>
     <row r="95">
@@ -36176,7 +36807,7 @@
         <v>288</v>
       </c>
       <c r="Y95" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96">
@@ -36184,7 +36815,7 @@
         <v>333</v>
       </c>
       <c r="Y96" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97">
@@ -36192,7 +36823,7 @@
         <v>270</v>
       </c>
       <c r="Y97" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98">
@@ -36200,181 +36831,186 @@
         <v>271</v>
       </c>
       <c r="Y98" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>197</v>
+        <v>447</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>541</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>142</v>
+        <v>548</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>549</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>376</v>
+        <v>549</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>454</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>586</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>157</v>
+        <v>586</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -18,41 +18,42 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28340" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28901" uniqueCount="597">
   <si>
     <t>description</t>
   </si>
@@ -1840,6 +1841,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1866,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="882" x14ac:knownFonts="1">
+  <fonts count="898" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7416,8 +7435,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1516">
+  <fills count="1543">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16004,8 +16124,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1583">
+  <borders count="1615">
     <border>
       <left/>
       <right/>
@@ -28555,6 +28828,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -32000,7 +32599,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="908">
+  <cellXfs count="924">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -34694,52 +35293,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1488" fontId="865" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="866" fillId="1491" borderId="1558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="867" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1558" fillId="1491" fontId="866" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="867" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="868" fillId="1494" borderId="1562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1562" fillId="1494" fontId="868" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="869" fillId="1497" borderId="1566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1566" fillId="1497" fontId="869" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="870" fillId="1500" borderId="1570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1570" fillId="1500" fontId="870" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="871" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="871" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="872" fillId="1503" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1503" fontId="872" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="873" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="874" fillId="1506" borderId="1574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="875" fillId="1497" borderId="1578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="876" fillId="1509" borderId="1582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="877" fillId="1509" borderId="1582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="878" fillId="1500" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="879" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="880" fillId="1500" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="881" fillId="1515" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="873" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1574" fillId="1506" fontId="874" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1578" fillId="1497" fontId="875" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1582" fillId="1509" fontId="876" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1582" fillId="1509" fontId="877" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1500" fontId="878" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1512" fontId="879" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1500" fontId="880" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1515" fontId="881" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="1518" borderId="1590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="1521" borderId="1594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="1524" borderId="1598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="1527" borderId="1602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="1530" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="889" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="890" fillId="1533" borderId="1606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="1524" borderId="1610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="1536" borderId="1614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="893" fillId="1536" borderId="1614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="1527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="1539" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="1527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="897" fillId="1542" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -35064,7 +35711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -35089,81 +35736,84 @@
         <v>524</v>
       </c>
       <c r="E1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>340</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>326</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>550</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>515</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>232</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>389</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>405</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>406</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>350</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>390</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>407</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -35181,81 +35831,84 @@
         <v>525</v>
       </c>
       <c r="E2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>459</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>505</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>308</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>377</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>436</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>551</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>518</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>410</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>423</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>246</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>210</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>391</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>412</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>413</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>374</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>400</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>90</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>164</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>176</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>425</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -35272,76 +35925,76 @@
       <c r="D3" t="s">
         <v>561</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>493</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>358</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>516</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>334</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>327</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>552</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>519</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>424</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>233</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>211</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>392</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>414</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>375</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>401</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>91</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>165</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>357</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>177</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -35355,82 +36008,82 @@
       <c r="D4" t="s">
         <v>526</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>380</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>460</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>517</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>343</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>231</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>328</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>553</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>520</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>234</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>212</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>393</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>415</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>351</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>402</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>347</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>166</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>177</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>417</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>591</v>
       </c>
       <c r="B5" t="s">
         <v>368</v>
@@ -35438,73 +36091,73 @@
       <c r="D5" t="s">
         <v>527</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>494</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>449</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>588</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>491</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>565</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>344</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>496</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>563</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>235</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>213</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>394</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>416</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>352</v>
       </c>
-      <c r="Y5" t="s">
-        <v>348</v>
-      </c>
       <c r="Z5" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA5" t="s">
         <v>167</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>178</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>418</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>369</v>
@@ -35512,1505 +36165,1513 @@
       <c r="D6" t="s">
         <v>528</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>542</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>329</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>461</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>341</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>71</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>557</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>236</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>384</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>395</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>354</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>92</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>455</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>173</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>179</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>419</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>370</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>217</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>381</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>457</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>569</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>308</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>558</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>237</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>411</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>396</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>353</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>93</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>456</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>174</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>180</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>420</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>371</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>311</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>359</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>321</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>543</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>559</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>437</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>238</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>397</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>355</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>94</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>168</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>175</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>181</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>421</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>372</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>360</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>322</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>79</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>564</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>438</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>239</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>398</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>356</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>202</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>182</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>308</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>299</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>462</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>38</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>554</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>439</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>240</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>399</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>250</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>183</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" t="s">
+        <v>593</v>
+      </c>
+      <c r="H11" t="s">
         <v>345</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>315</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>544</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>511</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>555</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>440</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>241</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>251</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>252</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>312</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>267</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>316</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>383</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>570</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>556</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>441</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>242</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>95</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>184</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" t="s">
         <v>334</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>256</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>317</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>451</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>442</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>247</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>319</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>185</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>550</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>309</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>318</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>510</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>443</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>243</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>96</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>186</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>515</v>
-      </c>
-      <c r="E15" t="s">
+        <v>550</v>
+      </c>
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>257</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>545</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>538</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>244</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>97</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>187</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" t="s">
+        <v>515</v>
+      </c>
+      <c r="F16" t="s">
         <v>378</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>258</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>80</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>583</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>539</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>245</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>188</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" t="s">
         <v>379</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>310</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>81</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>540</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>497</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
         <v>408</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>88</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>492</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>98</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" t="s">
         <v>59</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>89</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>82</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>99</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>389</v>
-      </c>
-      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
         <v>60</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>289</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>83</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>100</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>405</v>
-      </c>
-      <c r="E21" t="s">
+        <v>389</v>
+      </c>
+      <c r="F21" t="s">
         <v>249</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>290</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>373</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>101</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>406</v>
-      </c>
-      <c r="E22" t="s">
+        <v>405</v>
+      </c>
+      <c r="F22" t="s">
         <v>579</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>291</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>509</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>523</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E23" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" t="s">
         <v>61</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>292</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>103</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>390</v>
-      </c>
-      <c r="E24" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" t="s">
         <v>314</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>283</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>385</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>584</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
+        <v>390</v>
+      </c>
+      <c r="F25" t="s">
         <v>62</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>272</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>562</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>104</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
         <v>458</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>75</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>84</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>105</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
         <v>218</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>275</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>450</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>106</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
         <v>219</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>259</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>407</v>
-      </c>
-      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>507</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>276</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>407</v>
+      </c>
+      <c r="F30" t="s">
+        <v>508</v>
+      </c>
+      <c r="H30" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>220</v>
       </c>
-      <c r="E30" t="s">
-        <v>508</v>
-      </c>
-      <c r="G30" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>409</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>209</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>268</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>64</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>278</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>65</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>546</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>66</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>253</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>67</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>323</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>68</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>300</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>69</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>254</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>301</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>260</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="Y41" t="s">
-        <v>566</v>
+      <c r="Z41" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>205</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>581</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>282</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>293</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>294</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>336</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>335</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>204</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>313</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>332</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>295</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>349</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>324</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>261</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>285</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>286</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>582</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>287</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>296</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>305</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>330</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>302</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>303</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>362</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>363</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>338</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>306</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>262</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>567</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>307</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>403</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>297</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>404</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>255</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>547</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>337</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>273</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>279</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>284</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>422</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>325</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>263</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>274</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>280</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>269</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>568</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>264</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>281</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>265</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>266</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>298</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>304</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>288</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>333</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>270</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>271</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28901" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29463" uniqueCount="599">
   <si>
     <t>description</t>
   </si>
@@ -1859,6 +1859,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1872,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="898" x14ac:knownFonts="1">
+  <fonts count="914" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7536,8 +7542,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1543">
+  <fills count="1570">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16277,8 +16384,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1615">
+  <borders count="1647">
     <border>
       <left/>
       <right/>
@@ -28828,6 +29088,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -32599,7 +33185,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="924">
+  <cellXfs count="940">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -35341,52 +35927,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1515" fontId="881" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="882" fillId="1518" borderId="1590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="883" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1590" fillId="1518" fontId="882" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="883" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="884" fillId="1521" borderId="1594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1594" fillId="1521" fontId="884" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="885" fillId="1524" borderId="1598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1598" fillId="1524" fontId="885" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="886" fillId="1527" borderId="1602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1602" fillId="1527" fontId="886" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="887" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="887" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="888" fillId="1530" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1530" fontId="888" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="889" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="890" fillId="1533" borderId="1606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="891" fillId="1524" borderId="1610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="892" fillId="1536" borderId="1614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="893" fillId="1536" borderId="1614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="894" fillId="1527" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="895" fillId="1539" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="896" fillId="1527" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="897" fillId="1542" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="889" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1606" fillId="1533" fontId="890" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1610" fillId="1524" fontId="891" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1614" fillId="1536" fontId="892" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1614" fillId="1536" fontId="893" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1527" fontId="894" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1539" fontId="895" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1527" fontId="896" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1542" fontId="897" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="1545" borderId="1622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="1548" borderId="1626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="1551" borderId="1630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="1554" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="1557" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="1560" borderId="1638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="907" fillId="1551" borderId="1642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="908" fillId="1563" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="909" fillId="1563" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="1554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="911" fillId="1566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="1554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="1569" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -36670,7 +37304,7 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>408</v>
+        <v>597</v>
       </c>
       <c r="H18" t="s">
         <v>88</v>
@@ -36693,7 +37327,7 @@
         <v>232</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>408</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -36713,7 +37347,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>289</v>
@@ -36733,13 +37367,13 @@
         <v>389</v>
       </c>
       <c r="F21" t="s">
-        <v>249</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
         <v>290</v>
       </c>
       <c r="L21" t="s">
-        <v>373</v>
+        <v>598</v>
       </c>
       <c r="Z21" t="s">
         <v>101</v>
@@ -36753,7 +37387,7 @@
         <v>405</v>
       </c>
       <c r="F22" t="s">
-        <v>579</v>
+        <v>249</v>
       </c>
       <c r="H22" t="s">
         <v>291</v>
@@ -36773,7 +37407,7 @@
         <v>406</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>579</v>
       </c>
       <c r="H23" t="s">
         <v>292</v>
@@ -36793,7 +37427,7 @@
         <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>314</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>283</v>
@@ -36813,7 +37447,7 @@
         <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
       <c r="H25" t="s">
         <v>272</v>
@@ -36833,7 +37467,7 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>458</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -36853,7 +37487,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>458</v>
       </c>
       <c r="H27" t="s">
         <v>275</v>
@@ -36873,7 +37507,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H28" t="s">
         <v>259</v>
@@ -36890,7 +37524,7 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>507</v>
+        <v>219</v>
       </c>
       <c r="H29" t="s">
         <v>276</v>
@@ -36907,7 +37541,7 @@
         <v>407</v>
       </c>
       <c r="F30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H30" t="s">
         <v>277</v>
@@ -36921,7 +37555,7 @@
         <v>220</v>
       </c>
       <c r="F31" t="s">
-        <v>409</v>
+        <v>508</v>
       </c>
       <c r="H31" t="s">
         <v>209</v>
@@ -36932,7 +37566,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>63</v>
+        <v>409</v>
       </c>
       <c r="H32" t="s">
         <v>268</v>
@@ -36943,7 +37577,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>278</v>
@@ -36954,7 +37588,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>546</v>
@@ -36965,7 +37599,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>253</v>
@@ -36976,7 +37610,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>323</v>
@@ -36987,7 +37621,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>300</v>
@@ -36998,7 +37632,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>254</v>
@@ -37009,7 +37643,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>301</v>
@@ -37019,6 +37653,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
       <c r="H40" t="s">
         <v>260</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -18,15 +18,15 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29463" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30028" uniqueCount="604">
   <si>
     <t>description</t>
   </si>
@@ -1865,6 +1865,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +1887,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="914" x14ac:knownFonts="1">
+  <fonts count="930" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7643,8 +7658,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1570">
+  <fills count="1597">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16537,8 +16653,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1647">
+  <borders count="1679">
     <border>
       <left/>
       <right/>
@@ -29088,6 +29357,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -33185,7 +33780,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="940">
+  <cellXfs count="956">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -35975,52 +36570,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1542" fontId="897" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="898" fillId="1545" borderId="1622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="899" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1622" fillId="1545" fontId="898" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="899" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="900" fillId="1548" borderId="1626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1626" fillId="1548" fontId="900" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="901" fillId="1551" borderId="1630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1630" fillId="1551" fontId="901" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="902" fillId="1554" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1634" fillId="1554" fontId="902" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="903" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="903" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="904" fillId="1557" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1557" fontId="904" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="905" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="906" fillId="1560" borderId="1638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="907" fillId="1551" borderId="1642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="908" fillId="1563" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="909" fillId="1563" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="910" fillId="1554" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="911" fillId="1566" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="912" fillId="1554" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="913" fillId="1569" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="905" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1638" fillId="1560" fontId="906" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1642" fillId="1551" fontId="907" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1646" fillId="1563" fontId="908" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1646" fillId="1563" fontId="909" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1554" fontId="910" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1566" fontId="911" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1554" fontId="912" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1569" fontId="913" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="914" fillId="1572" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="915" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="1575" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="917" fillId="1578" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="1581" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="1587" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="1578" borderId="1674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="1590" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="1590" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="1581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="1593" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="1581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="1596" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -36345,7 +36988,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -36661,7 +37304,7 @@
         <v>343</v>
       </c>
       <c r="L4" t="s">
-        <v>231</v>
+        <v>600</v>
       </c>
       <c r="M4" t="s">
         <v>328</v>
@@ -36697,7 +37340,7 @@
         <v>402</v>
       </c>
       <c r="Z4" t="s">
-        <v>347</v>
+        <v>601</v>
       </c>
       <c r="AA4" t="s">
         <v>166</v>
@@ -36744,7 +37387,7 @@
         <v>344</v>
       </c>
       <c r="L5" t="s">
-        <v>496</v>
+        <v>231</v>
       </c>
       <c r="N5" t="s">
         <v>86</v>
@@ -36811,11 +37454,14 @@
       <c r="I6" t="s">
         <v>461</v>
       </c>
+      <c r="J6" t="s">
+        <v>599</v>
+      </c>
       <c r="K6" t="s">
         <v>341</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>496</v>
       </c>
       <c r="N6" t="s">
         <v>29</v>
@@ -36877,7 +37523,7 @@
         <v>569</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
         <v>308</v>
@@ -36936,7 +37582,7 @@
         <v>321</v>
       </c>
       <c r="L8" t="s">
-        <v>543</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
@@ -36992,7 +37638,7 @@
         <v>322</v>
       </c>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="N9" t="s">
         <v>35</v>
@@ -37036,7 +37682,7 @@
         <v>462</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -37077,7 +37723,7 @@
         <v>315</v>
       </c>
       <c r="L11" t="s">
-        <v>544</v>
+        <v>38</v>
       </c>
       <c r="N11" t="s">
         <v>511</v>
@@ -37115,7 +37761,7 @@
         <v>316</v>
       </c>
       <c r="L12" t="s">
-        <v>383</v>
+        <v>544</v>
       </c>
       <c r="N12" t="s">
         <v>570</v>
@@ -37153,7 +37799,7 @@
         <v>317</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>383</v>
       </c>
       <c r="N13" t="s">
         <v>451</v>
@@ -37188,7 +37834,7 @@
         <v>318</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>510</v>
@@ -37220,7 +37866,7 @@
         <v>257</v>
       </c>
       <c r="L15" t="s">
-        <v>545</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>39</v>
@@ -37252,7 +37898,7 @@
         <v>258</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>545</v>
       </c>
       <c r="N16" t="s">
         <v>583</v>
@@ -37284,7 +37930,7 @@
         <v>310</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
         <v>40</v>
@@ -37304,13 +37950,13 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>597</v>
+        <v>408</v>
       </c>
       <c r="H18" t="s">
         <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -37327,13 +37973,13 @@
         <v>232</v>
       </c>
       <c r="F19" t="s">
-        <v>408</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="Z19" t="s">
         <v>99</v>
@@ -37347,13 +37993,13 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>289</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s">
         <v>100</v>
@@ -37367,13 +38013,13 @@
         <v>389</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="H21" t="s">
         <v>290</v>
       </c>
       <c r="L21" t="s">
-        <v>598</v>
+        <v>83</v>
       </c>
       <c r="Z21" t="s">
         <v>101</v>
@@ -37387,13 +38033,13 @@
         <v>405</v>
       </c>
       <c r="F22" t="s">
-        <v>249</v>
+        <v>579</v>
       </c>
       <c r="H22" t="s">
         <v>291</v>
       </c>
       <c r="L22" t="s">
-        <v>509</v>
+        <v>598</v>
       </c>
       <c r="Z22" t="s">
         <v>523</v>
@@ -37407,13 +38053,13 @@
         <v>406</v>
       </c>
       <c r="F23" t="s">
-        <v>579</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>292</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>509</v>
       </c>
       <c r="Z23" t="s">
         <v>103</v>
@@ -37427,13 +38073,13 @@
         <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>314</v>
       </c>
       <c r="H24" t="s">
         <v>283</v>
       </c>
       <c r="L24" t="s">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>584</v>
@@ -37447,13 +38093,13 @@
         <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>314</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
         <v>272</v>
       </c>
       <c r="L25" t="s">
-        <v>562</v>
+        <v>385</v>
       </c>
       <c r="Z25" t="s">
         <v>104</v>
@@ -37467,13 +38113,13 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>458</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>562</v>
       </c>
       <c r="Z26" t="s">
         <v>105</v>
@@ -37487,13 +38133,13 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>458</v>
+        <v>218</v>
       </c>
       <c r="H27" t="s">
         <v>275</v>
       </c>
       <c r="L27" t="s">
-        <v>450</v>
+        <v>84</v>
       </c>
       <c r="Z27" t="s">
         <v>106</v>
@@ -37507,13 +38153,13 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H28" t="s">
         <v>259</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="Z28" t="s">
         <v>107</v>
@@ -37524,13 +38170,13 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>219</v>
+        <v>507</v>
       </c>
       <c r="H29" t="s">
         <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>320</v>
@@ -37541,10 +38187,13 @@
         <v>407</v>
       </c>
       <c r="F30" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H30" t="s">
         <v>277</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>108</v>
@@ -37555,7 +38204,7 @@
         <v>220</v>
       </c>
       <c r="F31" t="s">
-        <v>508</v>
+        <v>409</v>
       </c>
       <c r="H31" t="s">
         <v>209</v>
@@ -37566,7 +38215,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>409</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>268</v>
@@ -37577,7 +38226,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>278</v>
@@ -37588,7 +38237,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>546</v>
@@ -37599,7 +38248,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>253</v>
@@ -37610,7 +38259,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>323</v>
@@ -37621,7 +38270,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>300</v>
@@ -37632,7 +38281,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>254</v>
@@ -37643,7 +38292,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>301</v>
@@ -37653,9 +38302,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>70</v>
-      </c>
       <c r="H40" t="s">
         <v>260</v>
       </c>
@@ -38129,186 +38775,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>447</v>
+        <v>602</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>197</v>
+        <v>603</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>541</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>596</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>142</v>
+        <v>596</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>143</v>
+        <v>549</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>144</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>454</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>586</v>
+        <v>454</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>158</v>
+        <v>586</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>163</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30028" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30593" uniqueCount="604">
   <si>
     <t>description</t>
   </si>
@@ -1887,7 +1887,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="930" x14ac:knownFonts="1">
+  <fonts count="946" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7759,8 +7759,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1597">
+  <fills count="1624">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16806,8 +16907,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1679">
+  <borders count="1711">
     <border>
       <left/>
       <right/>
@@ -29357,6 +29611,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -33780,7 +34360,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="956">
+  <cellXfs count="972">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -36618,52 +37198,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1569" fontId="913" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="914" fillId="1572" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="915" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1654" fillId="1572" fontId="914" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="915" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="916" fillId="1575" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1658" fillId="1575" fontId="916" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="917" fillId="1578" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1662" fillId="1578" fontId="917" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="918" fillId="1581" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1666" fillId="1581" fontId="918" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="919" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="919" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="920" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1584" fontId="920" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="921" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="922" fillId="1587" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="923" fillId="1578" borderId="1674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="924" fillId="1590" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="925" fillId="1590" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="926" fillId="1581" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="927" fillId="1593" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="928" fillId="1581" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="929" fillId="1596" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="921" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1670" fillId="1587" fontId="922" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1674" fillId="1578" fontId="923" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1678" fillId="1590" fontId="924" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1678" fillId="1590" fontId="925" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1581" fontId="926" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1593" fontId="927" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1581" fontId="928" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1596" fontId="929" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="1599" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="1602" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="933" fillId="1605" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="1608" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="1611" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="1614" borderId="1702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="1605" borderId="1706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="1617" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="1617" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="1608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="1620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="1608" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="1623" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/electron-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30593" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31159" uniqueCount="605">
   <si>
     <t>description</t>
   </si>
@@ -1880,6 +1880,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1890,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="946" x14ac:knownFonts="1">
+  <fonts count="962" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7860,8 +7863,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1624">
+  <fills count="1651">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17060,8 +17164,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1711">
+  <borders count="1743">
     <border>
       <left/>
       <right/>
@@ -29611,6 +29868,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -34360,7 +34943,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="972">
+  <cellXfs count="988">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -37246,52 +37829,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1596" fontId="929" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="930" fillId="1599" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="931" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1686" fillId="1599" fontId="930" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="931" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="932" fillId="1602" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1690" fillId="1602" fontId="932" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="933" fillId="1605" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1694" fillId="1605" fontId="933" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="934" fillId="1608" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1698" fillId="1608" fontId="934" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="935" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="935" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="936" fillId="1611" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1611" fontId="936" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="937" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="938" fillId="1614" borderId="1702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="939" fillId="1605" borderId="1706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="940" fillId="1617" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="941" fillId="1617" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="942" fillId="1608" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="943" fillId="1620" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="944" fillId="1608" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="945" fillId="1623" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="937" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1702" fillId="1614" fontId="938" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1706" fillId="1605" fontId="939" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1710" fillId="1617" fontId="940" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1710" fillId="1617" fontId="941" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1608" fontId="942" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1620" fontId="943" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1608" fontId="944" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1623" fontId="945" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="1626" borderId="1718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="1629" borderId="1722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="1632" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="1635" borderId="1730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="951" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="1638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="953" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="1641" borderId="1734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="955" fillId="1632" borderId="1738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="1644" borderId="1742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="1644" borderId="1742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="1635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="959" fillId="1647" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="1635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="961" fillId="1650" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37616,7 +38247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -39326,7 +39957,7 @@
         <v>264</v>
       </c>
       <c r="Z89" t="s">
-        <v>193</v>
+        <v>604</v>
       </c>
     </row>
     <row r="90">
@@ -39334,7 +39965,7 @@
         <v>281</v>
       </c>
       <c r="Z90" t="s">
-        <v>489<